--- a/data/biomass.xlsx
+++ b/data/biomass.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="133">
   <si>
     <t>individual</t>
   </si>
@@ -231,18 +231,220 @@
   </si>
   <si>
     <t>*might be wrong for folin analysis</t>
+  </si>
+  <si>
+    <t>BETPOP_14</t>
+  </si>
+  <si>
+    <t>BETPOP_24</t>
+  </si>
+  <si>
+    <t>BETPOP_34</t>
+  </si>
+  <si>
+    <t>BETPOP_44</t>
+  </si>
+  <si>
+    <t>BETPOP_54</t>
+  </si>
+  <si>
+    <t>BETPOP_64</t>
+  </si>
+  <si>
+    <t>BETPOP_74</t>
+  </si>
+  <si>
+    <t>BETPOP_84</t>
+  </si>
+  <si>
+    <t>BETPOP_94</t>
+  </si>
+  <si>
+    <t>BETPOP_104</t>
+  </si>
+  <si>
+    <t>BETPOP_114</t>
+  </si>
+  <si>
+    <t>BETPOP_124</t>
+  </si>
+  <si>
+    <t>BETPOP_134</t>
+  </si>
+  <si>
+    <t>BETPOP_144</t>
+  </si>
+  <si>
+    <t>BETPOP_154</t>
+  </si>
+  <si>
+    <t>BETPOP_164</t>
+  </si>
+  <si>
+    <t>ALNINC_14</t>
+  </si>
+  <si>
+    <t>ALNINC_24</t>
+  </si>
+  <si>
+    <t>ALNINC_34</t>
+  </si>
+  <si>
+    <t>ALNINC_44</t>
+  </si>
+  <si>
+    <t>ALNINC_54</t>
+  </si>
+  <si>
+    <t>ALNINC_64</t>
+  </si>
+  <si>
+    <t>ALNINC_74</t>
+  </si>
+  <si>
+    <t>ALNINC_84</t>
+  </si>
+  <si>
+    <t>ALNINC_94</t>
+  </si>
+  <si>
+    <t>ALNINC_104</t>
+  </si>
+  <si>
+    <t>ALNINC_114</t>
+  </si>
+  <si>
+    <t>ALNINC_124</t>
+  </si>
+  <si>
+    <t>ALNINC_134</t>
+  </si>
+  <si>
+    <t>ALNINC_144</t>
+  </si>
+  <si>
+    <t>ALNINC_154</t>
+  </si>
+  <si>
+    <t>ALNINC_164</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>SALPUR_14</t>
+  </si>
+  <si>
+    <t>SALPUR_24</t>
+  </si>
+  <si>
+    <t>SALPUR_34</t>
+  </si>
+  <si>
+    <t>SALPUR_44</t>
+  </si>
+  <si>
+    <t>SALPUR_54</t>
+  </si>
+  <si>
+    <t>SALPUR_64</t>
+  </si>
+  <si>
+    <t>SALPUR_74</t>
+  </si>
+  <si>
+    <t>SALPUR_84</t>
+  </si>
+  <si>
+    <t>SALPUR_94</t>
+  </si>
+  <si>
+    <t>SALPUR_104</t>
+  </si>
+  <si>
+    <t>SALPUR_114</t>
+  </si>
+  <si>
+    <t>SALPUR_124</t>
+  </si>
+  <si>
+    <t>SALPUR_134</t>
+  </si>
+  <si>
+    <t>SALPUR_144</t>
+  </si>
+  <si>
+    <t>SALPUR_154</t>
+  </si>
+  <si>
+    <t>SALPUR_164</t>
+  </si>
+  <si>
+    <t>SORAME_14</t>
+  </si>
+  <si>
+    <t>SORAME_24</t>
+  </si>
+  <si>
+    <t>SORAME_34</t>
+  </si>
+  <si>
+    <t>SORAME_44</t>
+  </si>
+  <si>
+    <t>SORAME_54</t>
+  </si>
+  <si>
+    <t>SORAME_64</t>
+  </si>
+  <si>
+    <t>SORAME_74</t>
+  </si>
+  <si>
+    <t>SORAME_84</t>
+  </si>
+  <si>
+    <t>SORAME_94</t>
+  </si>
+  <si>
+    <t>SORAME_104</t>
+  </si>
+  <si>
+    <t>SORAME_114</t>
+  </si>
+  <si>
+    <t>SORAME_124</t>
+  </si>
+  <si>
+    <t>SORAME_134</t>
+  </si>
+  <si>
+    <t>SORAME_144</t>
+  </si>
+  <si>
+    <t>SORAME_154</t>
+  </si>
+  <si>
+    <t>SORAME_164</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -291,11 +493,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -636,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1189,6 +1392,518 @@
         <v>67</v>
       </c>
     </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.12623000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.19574</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.16908000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="1">
+        <v>5.7930000000000002E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.14298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="1">
+        <v>9.5149999999999998E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.1221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.10866000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.11178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.11191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.12363</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="1">
+        <v>8.3280000000000007E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.12200999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.19725000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.11362</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="1">
+        <v>9.8710000000000006E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.71364000000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.46990999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.41602</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.49452000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.58830000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.44529999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.16341</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.30271999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.2732</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.18314</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.49746000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.36220000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.51102999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.11364</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.14896999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="1">
+        <v>8.6440000000000003E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.14696000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.11192000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.11283</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0.114523</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0.10724</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="1">
+        <v>9.7339999999999996E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0.11348</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="1">
+        <v>7.4529999999999999E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0.11441</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.10153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" s="1">
+        <v>9.1689999999999994E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0.1221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="1">
+        <v>3.8440000000000002E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="1">
+        <v>5.3719999999999997E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="1">
+        <v>4.9099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="1">
+        <v>4.1309999999999999E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2.5819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="1">
+        <v>7.7539999999999998E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="1">
+        <v>2.2429999999999999E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="1">
+        <v>4.1459999999999997E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="1">
+        <v>8.9440000000000006E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="1">
+        <v>4.2770000000000002E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="1">
+        <v>6.2140000000000001E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="1">
+        <v>6.8339999999999998E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="1">
+        <v>6.3759999999999997E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="1">
+        <v>6.6970000000000002E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/biomass.xlsx
+++ b/data/biomass.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="199">
   <si>
     <t>individual</t>
   </si>
@@ -426,18 +426,223 @@
   </si>
   <si>
     <t>SORAME_164</t>
+  </si>
+  <si>
+    <t>BETPAP_16</t>
+  </si>
+  <si>
+    <t>BETPAP_26</t>
+  </si>
+  <si>
+    <t>BETPAP_36</t>
+  </si>
+  <si>
+    <t>BETPAP_46</t>
+  </si>
+  <si>
+    <t>BETPAP_56</t>
+  </si>
+  <si>
+    <t>BETPAP_66</t>
+  </si>
+  <si>
+    <t>BETPAP_76</t>
+  </si>
+  <si>
+    <t>BETPAP_86</t>
+  </si>
+  <si>
+    <t>BETPAP_96</t>
+  </si>
+  <si>
+    <t>BETPAP_106</t>
+  </si>
+  <si>
+    <t>BETPAP_116</t>
+  </si>
+  <si>
+    <t>BETPAP_126</t>
+  </si>
+  <si>
+    <t>BETPAP_136</t>
+  </si>
+  <si>
+    <t>BETPAP_146</t>
+  </si>
+  <si>
+    <t>BETPAP_156</t>
+  </si>
+  <si>
+    <t>BETPAP_166</t>
+  </si>
+  <si>
+    <t>BETPOP_16</t>
+  </si>
+  <si>
+    <t>BETPOP_26</t>
+  </si>
+  <si>
+    <t>BETPOP_36</t>
+  </si>
+  <si>
+    <t>BETPOP_46</t>
+  </si>
+  <si>
+    <t>BETPOP_56</t>
+  </si>
+  <si>
+    <t>BETPOP_66</t>
+  </si>
+  <si>
+    <t>BETPOP_76</t>
+  </si>
+  <si>
+    <t>BETPOP_86</t>
+  </si>
+  <si>
+    <t>BETPOP_96</t>
+  </si>
+  <si>
+    <t>BETPOP_106</t>
+  </si>
+  <si>
+    <t>BETPOP_126</t>
+  </si>
+  <si>
+    <t>BETPOP_136</t>
+  </si>
+  <si>
+    <t>BETPOP_146</t>
+  </si>
+  <si>
+    <t>BETPOP_156</t>
+  </si>
+  <si>
+    <t>BETPOP_166</t>
+  </si>
+  <si>
+    <t>BETPOP_116</t>
+  </si>
+  <si>
+    <t>SORAME_18</t>
+  </si>
+  <si>
+    <t>SORAME_28</t>
+  </si>
+  <si>
+    <t>SORAME_38</t>
+  </si>
+  <si>
+    <t>SORAME_48</t>
+  </si>
+  <si>
+    <t>SORAME_58</t>
+  </si>
+  <si>
+    <t>SORAME_68</t>
+  </si>
+  <si>
+    <t>SORAME_78</t>
+  </si>
+  <si>
+    <t>SORAME_88</t>
+  </si>
+  <si>
+    <t>SORAME_98</t>
+  </si>
+  <si>
+    <t>SORAME_108</t>
+  </si>
+  <si>
+    <t>SORAME_118</t>
+  </si>
+  <si>
+    <t>SORAME_128</t>
+  </si>
+  <si>
+    <t>SORAME_138</t>
+  </si>
+  <si>
+    <t>SORAME_148</t>
+  </si>
+  <si>
+    <t>SORAME_158</t>
+  </si>
+  <si>
+    <t>SORAME_168</t>
+  </si>
+  <si>
+    <t>roots</t>
+  </si>
+  <si>
+    <t>shoots</t>
+  </si>
+  <si>
+    <t>CORRAC_16</t>
+  </si>
+  <si>
+    <t>CORRAC_26</t>
+  </si>
+  <si>
+    <t>CORRAC_36</t>
+  </si>
+  <si>
+    <t>CORRAC_46</t>
+  </si>
+  <si>
+    <t>CORRAC_56</t>
+  </si>
+  <si>
+    <t>CORRAC_66</t>
+  </si>
+  <si>
+    <t>CORRAC_76</t>
+  </si>
+  <si>
+    <t>CORRAC_86</t>
+  </si>
+  <si>
+    <t>CORRAC_96</t>
+  </si>
+  <si>
+    <t>CORRAC_106</t>
+  </si>
+  <si>
+    <t>CORRAC_116</t>
+  </si>
+  <si>
+    <t>CORRAC_126</t>
+  </si>
+  <si>
+    <t>CORRAC_136</t>
+  </si>
+  <si>
+    <t>CORRAC_146</t>
+  </si>
+  <si>
+    <t>CORRAC_156</t>
+  </si>
+  <si>
+    <t>CORRAC_166</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -493,11 +698,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -839,10 +1045,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -850,15 +1059,21 @@
     <col min="1" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -866,7 +1081,7 @@
         <v>0.1578</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -874,7 +1089,7 @@
         <v>8.4099999999999994E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -882,7 +1097,7 @@
         <v>0.11369</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -890,7 +1105,7 @@
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,7 +1113,7 @@
         <v>0.18001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,7 +1121,7 @@
         <v>0.14280000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -914,7 +1129,7 @@
         <v>0.19905</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -922,7 +1137,7 @@
         <v>0.25972000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -930,7 +1145,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -939,7 +1154,7 @@
         <v>8.2600000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -947,7 +1162,7 @@
         <v>0.12055</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -955,7 +1170,7 @@
         <v>0.1202</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -963,7 +1178,7 @@
         <v>0.11559999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -971,7 +1186,7 @@
         <v>0.1236</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1768,7 +1983,7 @@
         <v>9.1689999999999994E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>116</v>
       </c>
@@ -1776,7 +1991,7 @@
         <v>0.1221</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>117</v>
       </c>
@@ -1784,7 +1999,7 @@
         <v>3.8440000000000002E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>118</v>
       </c>
@@ -1792,7 +2007,7 @@
         <v>5.3719999999999997E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>119</v>
       </c>
@@ -1800,7 +2015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>120</v>
       </c>
@@ -1808,7 +2023,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>121</v>
       </c>
@@ -1816,7 +2031,7 @@
         <v>4.1309999999999999E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>122</v>
       </c>
@@ -1824,15 +2039,21 @@
         <v>2.5819999999999999E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B120" s="1">
         <v>7.7539999999999998E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120" s="1">
+        <v>9.82</v>
+      </c>
+      <c r="D120" s="1">
+        <v>5.9350699999999996</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>124</v>
       </c>
@@ -1840,7 +2061,7 @@
         <v>2.2429999999999999E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>125</v>
       </c>
@@ -1848,7 +2069,7 @@
         <v>4.1459999999999997E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>126</v>
       </c>
@@ -1856,7 +2077,7 @@
         <v>8.9440000000000006E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>127</v>
       </c>
@@ -1864,7 +2085,7 @@
         <v>4.2770000000000002E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>128</v>
       </c>
@@ -1872,7 +2093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>129</v>
       </c>
@@ -1880,7 +2101,7 @@
         <v>6.2140000000000001E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>130</v>
       </c>
@@ -1888,7 +2109,7 @@
         <v>6.8339999999999998E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>131</v>
       </c>
@@ -1896,12 +2117,405 @@
         <v>6.3759999999999997E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B129" s="1">
         <v>6.6970000000000002E-2</v>
+      </c>
+      <c r="C129" s="1">
+        <v>15.71</v>
+      </c>
+      <c r="D129" s="1">
+        <v>6.0713499999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0.19220999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0.16100999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="1">
+        <v>0.10818</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="1">
+        <v>0.14993999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0.12035999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0.12628</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="1">
+        <v>9.0279999999999999E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" s="1">
+        <v>0.16172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="1">
+        <v>0.29918</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="1">
+        <v>0.18142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="1">
+        <v>0.40621000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="1">
+        <v>0.29359000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" s="1">
+        <v>0.20619000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" s="1">
+        <v>0.16874</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" s="1">
+        <v>0.15673999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" s="1">
+        <v>0.20263</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="1">
+        <v>0.27638000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="1">
+        <v>6.2740000000000004E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="1">
+        <v>0.15723999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C177" s="1">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="D177" s="1">
+        <v>8.2289999999999992</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C189" s="1">
+        <f>12.688+11.96</f>
+        <v>24.648000000000003</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/biomass.xlsx
+++ b/data/biomass.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CatherineChamberlain/Documents/git/chillfreeze/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE3836A-52CC-3D4D-9DB1-B3D624F056FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="200">
   <si>
     <t>individual</t>
   </si>
@@ -624,13 +631,16 @@
   </si>
   <si>
     <t>CORRAC_166</t>
+  </si>
+  <si>
+    <t>total shoots</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -662,6 +672,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -698,11 +716,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -718,6 +737,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1044,14 +1066,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D193"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D178" sqref="D178"/>
+      <selection pane="bottomRight" activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1059,7 +1081,7 @@
     <col min="1" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,80 +1094,119 @@
       <c r="D1" s="4" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>0.1578</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1">
+        <f>B2+D2</f>
+        <v>0.1578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>8.4099999999999994E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E66" si="0">B3+D3</f>
+        <v>8.4099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>0.11369</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>0.63300000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>0.18001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>0.14280000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14280000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>0.19905</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>0.25972000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25972000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>0.14399999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1153,40 +1214,60 @@
         <f>0.0504+0.0322</f>
         <v>8.2600000000000007E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>8.2600000000000007E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>0.12055</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>0.1202</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>0.11559999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11559999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>0.1236</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,24 +1275,36 @@
         <f>0.05+0.0395</f>
         <v>8.9499999999999996E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>8.9499999999999996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>9.5680000000000001E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5680000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>8.4400000000000003E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>8.4400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1219,280 +1312,420 @@
         <f>0.05+0.021</f>
         <v>7.1000000000000008E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>5.5550000000000002E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5550000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>9.0660000000000004E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>9.0660000000000004E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>0.21970000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21970000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>9.826E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>9.826E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>6.2850000000000003E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2850000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>0.10732</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10732</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>8.5599999999999996E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>8.0930000000000002E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>8.0930000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>0.15595999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15595999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>0.92800000000000005</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>0.1057</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1057</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="1">
         <v>0.11948</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11948</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>0.13216</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="1">
         <v>0.1056</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1056</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="1">
         <v>0.6976</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6976</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="1">
         <v>0.33112000000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33112000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="1">
         <v>0.39595000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39595000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="1">
         <v>0.45728999999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45728999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="1">
         <v>0.22020000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22020000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="1">
         <v>0.28299999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="1">
         <v>0.37919999999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37919999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="1">
         <v>0.21654000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21654000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="1">
         <v>0.15306</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E42" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="1">
         <v>0.11425</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E43" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="1">
         <v>0.1731</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E44" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1731</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="1">
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="1">
         <v>6.0600000000000001E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E46" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="1">
         <v>0.1275</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E47" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="1">
         <v>5.5500000000000001E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E48" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="1">
         <v>0.18284</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="1">
         <v>0.17377999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17377999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="1">
         <v>8.9099999999999999E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E51" s="1">
+        <f t="shared" si="0"/>
+        <v>8.9099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="1">
         <v>8.4099999999999994E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E52" s="1">
+        <f t="shared" si="0"/>
+        <v>8.4099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="1">
         <v>6.9699999999999998E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E53" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -1502,8 +1735,12 @@
       <c r="C54" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E54" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
@@ -1513,8 +1750,12 @@
       <c r="C55" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E55" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -1522,16 +1763,24 @@
         <v>0.47</v>
       </c>
       <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E56" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E57" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
@@ -1541,16 +1790,24 @@
       <c r="C58" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="1">
         <v>0.4834</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4834</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -1560,24 +1817,36 @@
       <c r="C60" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E60" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="1">
         <v>9.5170000000000005E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E61" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5170000000000005E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="1">
         <v>7.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E62" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
@@ -1587,16 +1856,24 @@
       <c r="C63" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E63" s="1">
+        <f t="shared" si="0"/>
+        <v>4.02E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="1">
         <v>6.0100000000000001E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E64" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
@@ -1606,440 +1883,660 @@
       <c r="C65" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E65" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B66" s="1">
         <v>0.12623000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E66" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12623000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B67" s="1">
         <v>0.19574</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E67" s="1">
+        <f t="shared" ref="E67:E130" si="1">B67+D67</f>
+        <v>0.19574</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="1">
         <v>0.16908000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E68" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16908000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B69" s="1">
         <v>5.7930000000000002E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E69" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7930000000000002E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B70" s="1">
         <v>0.14298</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E70" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="1">
         <v>9.5149999999999998E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E71" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5149999999999998E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="1">
         <v>0.1221</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E72" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B73" s="1">
         <v>0.10866000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E73" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10866000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B74" s="1">
         <v>0.11178</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E74" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B75" s="1">
         <v>0.11191</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E75" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="1">
         <v>0.12363</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E76" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12363</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B77" s="1">
         <v>8.3280000000000007E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E77" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3280000000000007E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B78" s="1">
         <v>0.12200999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E78" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12200999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="1">
         <v>0.19725000000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E79" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19725000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="1">
         <v>0.11362</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E80" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11362</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="1">
         <v>9.8710000000000006E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E81" s="1">
+        <f t="shared" si="1"/>
+        <v>9.8710000000000006E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B82" s="1">
         <v>0.71364000000000005</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E82" s="1">
+        <f t="shared" si="1"/>
+        <v>0.71364000000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B83" s="1">
         <v>0.46990999999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E83" s="1">
+        <f t="shared" si="1"/>
+        <v>0.46990999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B84" s="1">
         <v>0.41602</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41602</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B85" s="1">
         <v>0.49452000000000002</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E85" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49452000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B86" s="1">
         <v>0.58830000000000005</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E86" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58830000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B87" s="1">
         <v>0.44529999999999997</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E87" s="1">
+        <f t="shared" si="1"/>
+        <v>0.44529999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B88" s="1">
         <v>0.16341</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E88" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16341</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B89" s="1">
         <v>0.30271999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E89" s="1">
+        <f t="shared" si="1"/>
+        <v>0.30271999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B90" s="1">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E90" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B91" s="1">
         <v>0.2732</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E91" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2732</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B92" s="1">
         <v>0.18314</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E92" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18314</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E93" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B94" s="1">
         <v>0.49746000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E94" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49746000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B95" s="1">
         <v>0.36220000000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E95" s="1">
+        <f t="shared" si="1"/>
+        <v>0.36220000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B96" s="1">
         <v>0.51102999999999998</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E96" s="1">
+        <f t="shared" si="1"/>
+        <v>0.51102999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B97" s="1">
         <v>0.47699999999999998</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E97" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B98" s="1">
         <v>0.11364</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E98" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11364</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B99" s="1">
         <v>0.14896999999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E99" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14896999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B100" s="1">
         <v>8.6440000000000003E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E100" s="1">
+        <f t="shared" si="1"/>
+        <v>8.6440000000000003E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B101" s="1">
         <v>0.14696000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E101" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14696000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B102" s="1">
         <v>0.11192000000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E102" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11192000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B103" s="1">
         <v>0.11283</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E103" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11283</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B104" s="1">
         <v>0.114523</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E104" s="1">
+        <f t="shared" si="1"/>
+        <v>0.114523</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B105" s="1">
         <v>0.10299999999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E105" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B106" s="1">
         <v>0.10724</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E106" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10724</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B107" s="1">
         <v>9.7339999999999996E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E107" s="1">
+        <f t="shared" si="1"/>
+        <v>9.7339999999999996E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B108" s="1">
         <v>0.11348</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E108" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11348</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B109" s="1">
         <v>7.4529999999999999E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E109" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4529999999999999E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B110" s="1">
         <v>0.11441</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E110" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11441</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B111" s="1">
         <v>0.10153</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E111" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B112" s="1">
         <v>9.1689999999999994E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112" s="1">
+        <f t="shared" si="1"/>
+        <v>9.1689999999999994E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B113" s="1">
         <v>0.1221</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B114" s="1">
         <v>3.8440000000000002E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8440000000000002E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B115" s="1">
         <v>5.3719999999999997E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3719999999999997E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E116" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B117" s="1">
         <v>4.9099999999999998E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117" s="1">
+        <f t="shared" si="1"/>
+        <v>4.9099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B118" s="1">
         <v>4.1309999999999999E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1309999999999999E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B119" s="1">
         <v>2.5819999999999999E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>123</v>
       </c>
@@ -2052,72 +2549,108 @@
       <c r="D120" s="1">
         <v>5.9350699999999996</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E120" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0126099999999996</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B121" s="1">
         <v>2.2429999999999999E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2429999999999999E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B122" s="1">
         <v>4.1459999999999997E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1459999999999997E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B123" s="1">
         <v>8.9440000000000006E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123" s="1">
+        <f t="shared" si="1"/>
+        <v>8.9440000000000006E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B124" s="1">
         <v>4.2770000000000002E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2770000000000002E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E125" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B126" s="1">
         <v>6.2140000000000001E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E126" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2140000000000001E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B127" s="1">
         <v>6.8339999999999998E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E127" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8339999999999998E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B128" s="1">
         <v>6.3759999999999997E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128" s="1">
+        <f t="shared" si="1"/>
+        <v>6.3759999999999997E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>132</v>
       </c>
@@ -2130,300 +2663,492 @@
       <c r="D129" s="1">
         <v>6.0713499999999998</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1383200000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B130" s="1">
         <v>0.19220999999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19220999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B131" s="1">
         <v>0.16100999999999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" s="1">
+        <f t="shared" ref="E131:E193" si="2">B131+D131</f>
+        <v>0.16100999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B132" s="1">
         <v>0.10818</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10818</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B133" s="1">
         <v>0.14993999999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14993999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B134" s="1">
         <v>0.12035999999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12035999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B135" s="1">
         <v>0.12628</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12628</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B136" s="1">
         <v>9.0279999999999999E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0279999999999999E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B137" s="1">
         <v>0.16172</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B138" s="1">
         <v>0.29918</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138" s="1">
+        <f t="shared" si="2"/>
+        <v>0.29918</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B139" s="1">
         <v>0.18142</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E139" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>143</v>
       </c>
       <c r="B140" s="1">
         <v>0.40621000000000002</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140" s="1">
+        <f t="shared" si="2"/>
+        <v>0.40621000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B141" s="1">
         <v>0.29359000000000002</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E141" s="1">
+        <f t="shared" si="2"/>
+        <v>0.29359000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>145</v>
       </c>
       <c r="B142" s="1">
         <v>0.20619000000000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20619000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>146</v>
       </c>
       <c r="B143" s="1">
         <v>0.16874</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E143" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16874</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B144" s="1">
         <v>0.15673999999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E144" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15673999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B145" s="1">
         <v>0.20263</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E145" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20263</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B146" s="1">
         <v>0.27638000000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E146" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27638000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B147" s="1">
         <v>6.2740000000000004E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E147" s="1">
+        <f t="shared" si="2"/>
+        <v>6.2740000000000004E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B148" s="1">
         <v>0.15723999999999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E148" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15723999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E149" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E150" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E151" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E152" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E153" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E154" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E155" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E156" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E157" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E158" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E159" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E160" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E161" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E162" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E163" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E164" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E165" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E166" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E167" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E168" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E169" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E170" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E171" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E172" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E173" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E174" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E175" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E176" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>180</v>
       </c>
@@ -2433,63 +3158,111 @@
       <c r="D177" s="1">
         <v>8.2289999999999992</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E177" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2289999999999992</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E178" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E179" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E180" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E181" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E182" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E183" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E184" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E185" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E186" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E187" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E188" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>194</v>
       </c>
@@ -2497,25 +3270,45 @@
         <f>12.688+11.96</f>
         <v>24.648000000000003</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E189" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E190" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E191" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E192" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>198</v>
+      </c>
+      <c r="E193" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/biomass.xlsx
+++ b/data/biomass.xlsx
@@ -1,30 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CatherineChamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE3836A-52CC-3D4D-9DB1-B3D624F056FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="201">
   <si>
     <t>individual</t>
   </si>
@@ -631,6 +624,9 @@
   </si>
   <si>
     <t>CORRAC_166</t>
+  </si>
+  <si>
+    <t>F-C</t>
   </si>
   <si>
     <t>total shoots</t>
@@ -639,8 +635,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -683,6 +679,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -716,11 +718,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -737,9 +740,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1066,22 +1066,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E193"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E129" sqref="E129"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.625" style="1"/>
+    <col min="1" max="4" width="10.625" style="1"/>
+    <col min="5" max="5" width="10.625" style="6"/>
+    <col min="6" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,119 +1096,122 @@
       <c r="D1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>0.1578</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <f>B2+D2</f>
         <v>0.1578</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="6">
         <f t="shared" ref="E3:E66" si="0">B3+D3</f>
         <v>8.4099999999999994E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>0.11369</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <f t="shared" si="0"/>
         <v>0.11369</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>0.63300000000000001</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>0.18001</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>0.18001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>0.14280000000000001</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>0.14280000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>0.19905</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>0.19905</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>0.25972000000000001</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>0.25972000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>0.14399999999999999</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1214,60 +1219,60 @@
         <f>0.0504+0.0322</f>
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>8.2600000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>0.12055</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>0.12055</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>0.1202</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>0.1202</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>0.11559999999999999</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>0.11559999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>0.1236</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="6">
         <f t="shared" si="0"/>
         <v>0.1236</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1275,7 +1280,7 @@
         <f>0.05+0.0395</f>
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="6">
         <f t="shared" si="0"/>
         <v>8.9499999999999996E-2</v>
       </c>
@@ -1287,7 +1292,7 @@
       <c r="B17" s="1">
         <v>9.5680000000000001E-2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="6">
         <f t="shared" si="0"/>
         <v>9.5680000000000001E-2</v>
       </c>
@@ -1299,7 +1304,7 @@
       <c r="B18" s="1">
         <v>8.4400000000000003E-2</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="6">
         <f t="shared" si="0"/>
         <v>8.4400000000000003E-2</v>
       </c>
@@ -1312,7 +1317,7 @@
         <f>0.05+0.021</f>
         <v>7.1000000000000008E-2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="6">
         <f t="shared" si="0"/>
         <v>7.1000000000000008E-2</v>
       </c>
@@ -1324,7 +1329,7 @@
       <c r="B20" s="1">
         <v>5.5550000000000002E-2</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>5.5550000000000002E-2</v>
       </c>
@@ -1336,7 +1341,7 @@
       <c r="B21" s="1">
         <v>9.0660000000000004E-2</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="6">
         <f t="shared" si="0"/>
         <v>9.0660000000000004E-2</v>
       </c>
@@ -1348,7 +1353,7 @@
       <c r="B22" s="1">
         <v>0.21970000000000001</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="6">
         <f t="shared" si="0"/>
         <v>0.21970000000000001</v>
       </c>
@@ -1360,7 +1365,7 @@
       <c r="B23" s="1">
         <v>9.826E-2</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="6">
         <f t="shared" si="0"/>
         <v>9.826E-2</v>
       </c>
@@ -1372,7 +1377,7 @@
       <c r="B24" s="1">
         <v>6.2850000000000003E-2</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="6">
         <f t="shared" si="0"/>
         <v>6.2850000000000003E-2</v>
       </c>
@@ -1384,7 +1389,7 @@
       <c r="B25" s="1">
         <v>0.10732</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="6">
         <f t="shared" si="0"/>
         <v>0.10732</v>
       </c>
@@ -1396,7 +1401,7 @@
       <c r="B26" s="1">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="6">
         <f t="shared" si="0"/>
         <v>8.5599999999999996E-2</v>
       </c>
@@ -1408,7 +1413,7 @@
       <c r="B27" s="1">
         <v>8.0930000000000002E-2</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="6">
         <f t="shared" si="0"/>
         <v>8.0930000000000002E-2</v>
       </c>
@@ -1420,7 +1425,7 @@
       <c r="B28" s="1">
         <v>0.15595999999999999</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="6">
         <f t="shared" si="0"/>
         <v>0.15595999999999999</v>
       </c>
@@ -1432,7 +1437,7 @@
       <c r="B29" s="1">
         <v>0.92800000000000005</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="6">
         <f t="shared" si="0"/>
         <v>0.92800000000000005</v>
       </c>
@@ -1444,7 +1449,7 @@
       <c r="B30" s="1">
         <v>0.1057</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="6">
         <f t="shared" si="0"/>
         <v>0.1057</v>
       </c>
@@ -1456,7 +1461,7 @@
       <c r="B31" s="1">
         <v>0.11948</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="6">
         <f t="shared" si="0"/>
         <v>0.11948</v>
       </c>
@@ -1468,7 +1473,7 @@
       <c r="B32" s="1">
         <v>0.13216</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="6">
         <f t="shared" si="0"/>
         <v>0.13216</v>
       </c>
@@ -1480,7 +1485,7 @@
       <c r="B33" s="1">
         <v>0.1056</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="6">
         <f t="shared" si="0"/>
         <v>0.1056</v>
       </c>
@@ -1492,7 +1497,7 @@
       <c r="B34" s="1">
         <v>0.6976</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="6">
         <f t="shared" si="0"/>
         <v>0.6976</v>
       </c>
@@ -1504,7 +1509,7 @@
       <c r="B35" s="1">
         <v>0.33112000000000003</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="6">
         <f t="shared" si="0"/>
         <v>0.33112000000000003</v>
       </c>
@@ -1516,7 +1521,7 @@
       <c r="B36" s="1">
         <v>0.39595000000000002</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="6">
         <f t="shared" si="0"/>
         <v>0.39595000000000002</v>
       </c>
@@ -1528,7 +1533,7 @@
       <c r="B37" s="1">
         <v>0.45728999999999997</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="6">
         <f t="shared" si="0"/>
         <v>0.45728999999999997</v>
       </c>
@@ -1540,7 +1545,7 @@
       <c r="B38" s="1">
         <v>0.22020000000000001</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="6">
         <f t="shared" si="0"/>
         <v>0.22020000000000001</v>
       </c>
@@ -1552,7 +1557,7 @@
       <c r="B39" s="1">
         <v>0.28299999999999997</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="6">
         <f t="shared" si="0"/>
         <v>0.28299999999999997</v>
       </c>
@@ -1564,7 +1569,7 @@
       <c r="B40" s="1">
         <v>0.37919999999999998</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="6">
         <f t="shared" si="0"/>
         <v>0.37919999999999998</v>
       </c>
@@ -1576,7 +1581,7 @@
       <c r="B41" s="1">
         <v>0.21654000000000001</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="6">
         <f t="shared" si="0"/>
         <v>0.21654000000000001</v>
       </c>
@@ -1588,7 +1593,7 @@
       <c r="B42" s="1">
         <v>0.15306</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="6">
         <f t="shared" si="0"/>
         <v>0.15306</v>
       </c>
@@ -1600,7 +1605,7 @@
       <c r="B43" s="1">
         <v>0.11425</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="6">
         <f t="shared" si="0"/>
         <v>0.11425</v>
       </c>
@@ -1612,7 +1617,7 @@
       <c r="B44" s="1">
         <v>0.1731</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="6">
         <f t="shared" si="0"/>
         <v>0.1731</v>
       </c>
@@ -1624,7 +1629,7 @@
       <c r="B45" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="6">
         <f t="shared" si="0"/>
         <v>0.13700000000000001</v>
       </c>
@@ -1636,7 +1641,7 @@
       <c r="B46" s="1">
         <v>6.0600000000000001E-2</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="6">
         <f t="shared" si="0"/>
         <v>6.0600000000000001E-2</v>
       </c>
@@ -1648,7 +1653,7 @@
       <c r="B47" s="1">
         <v>0.1275</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="6">
         <f t="shared" si="0"/>
         <v>0.1275</v>
       </c>
@@ -1660,7 +1665,7 @@
       <c r="B48" s="1">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="6">
         <f t="shared" si="0"/>
         <v>5.5500000000000001E-2</v>
       </c>
@@ -1672,7 +1677,7 @@
       <c r="B49" s="1">
         <v>0.18284</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="6">
         <f t="shared" si="0"/>
         <v>0.18284</v>
       </c>
@@ -1684,7 +1689,7 @@
       <c r="B50" s="1">
         <v>0.17377999999999999</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="6">
         <f t="shared" si="0"/>
         <v>0.17377999999999999</v>
       </c>
@@ -1696,7 +1701,7 @@
       <c r="B51" s="1">
         <v>8.9099999999999999E-2</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="6">
         <f t="shared" si="0"/>
         <v>8.9099999999999999E-2</v>
       </c>
@@ -1708,7 +1713,7 @@
       <c r="B52" s="1">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="6">
         <f t="shared" si="0"/>
         <v>8.4099999999999994E-2</v>
       </c>
@@ -1720,7 +1725,7 @@
       <c r="B53" s="1">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="6">
         <f t="shared" si="0"/>
         <v>6.9699999999999998E-2</v>
       </c>
@@ -1735,7 +1740,7 @@
       <c r="C54" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="6">
         <f t="shared" si="0"/>
         <v>3.7199999999999997E-2</v>
       </c>
@@ -1750,7 +1755,7 @@
       <c r="C55" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="6">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
@@ -1763,7 +1768,7 @@
         <v>0.47</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="E56" s="1">
+      <c r="E56" s="6">
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
@@ -1775,7 +1780,7 @@
       <c r="B57" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E57" s="1" t="e">
+      <c r="E57" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
@@ -1790,7 +1795,7 @@
       <c r="C58" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="6">
         <f t="shared" si="0"/>
         <v>0.44400000000000001</v>
       </c>
@@ -1802,7 +1807,7 @@
       <c r="B59" s="1">
         <v>0.4834</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="6">
         <f t="shared" si="0"/>
         <v>0.4834</v>
       </c>
@@ -1817,7 +1822,7 @@
       <c r="C60" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="6">
         <f t="shared" si="0"/>
         <v>3.3399999999999999E-2</v>
       </c>
@@ -1829,7 +1834,7 @@
       <c r="B61" s="1">
         <v>9.5170000000000005E-2</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="6">
         <f t="shared" si="0"/>
         <v>9.5170000000000005E-2</v>
       </c>
@@ -1841,7 +1846,7 @@
       <c r="B62" s="1">
         <v>7.3599999999999999E-2</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="6">
         <f t="shared" si="0"/>
         <v>7.3599999999999999E-2</v>
       </c>
@@ -1856,7 +1861,7 @@
       <c r="C63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="6">
         <f t="shared" si="0"/>
         <v>4.02E-2</v>
       </c>
@@ -1868,7 +1873,7 @@
       <c r="B64" s="1">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="6">
         <f t="shared" si="0"/>
         <v>6.0100000000000001E-2</v>
       </c>
@@ -1883,7 +1888,7 @@
       <c r="C65" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="6">
         <f t="shared" si="0"/>
         <v>2.6499999999999999E-2</v>
       </c>
@@ -1895,7 +1900,7 @@
       <c r="B66" s="1">
         <v>0.12623000000000001</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="6">
         <f t="shared" si="0"/>
         <v>0.12623000000000001</v>
       </c>
@@ -1907,7 +1912,7 @@
       <c r="B67" s="1">
         <v>0.19574</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="6">
         <f t="shared" ref="E67:E130" si="1">B67+D67</f>
         <v>0.19574</v>
       </c>
@@ -1919,7 +1924,7 @@
       <c r="B68" s="1">
         <v>0.16908000000000001</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="6">
         <f t="shared" si="1"/>
         <v>0.16908000000000001</v>
       </c>
@@ -1931,7 +1936,7 @@
       <c r="B69" s="1">
         <v>5.7930000000000002E-2</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="6">
         <f t="shared" si="1"/>
         <v>5.7930000000000002E-2</v>
       </c>
@@ -1943,7 +1948,7 @@
       <c r="B70" s="1">
         <v>0.14298</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="6">
         <f t="shared" si="1"/>
         <v>0.14298</v>
       </c>
@@ -1955,7 +1960,7 @@
       <c r="B71" s="1">
         <v>9.5149999999999998E-2</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="6">
         <f t="shared" si="1"/>
         <v>9.5149999999999998E-2</v>
       </c>
@@ -1967,7 +1972,7 @@
       <c r="B72" s="1">
         <v>0.1221</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="6">
         <f t="shared" si="1"/>
         <v>0.1221</v>
       </c>
@@ -1979,7 +1984,7 @@
       <c r="B73" s="1">
         <v>0.10866000000000001</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="6">
         <f t="shared" si="1"/>
         <v>0.10866000000000001</v>
       </c>
@@ -1991,7 +1996,7 @@
       <c r="B74" s="1">
         <v>0.11178</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="6">
         <f t="shared" si="1"/>
         <v>0.11178</v>
       </c>
@@ -2003,7 +2008,7 @@
       <c r="B75" s="1">
         <v>0.11191</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="6">
         <f t="shared" si="1"/>
         <v>0.11191</v>
       </c>
@@ -2015,7 +2020,7 @@
       <c r="B76" s="1">
         <v>0.12363</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="6">
         <f t="shared" si="1"/>
         <v>0.12363</v>
       </c>
@@ -2027,7 +2032,7 @@
       <c r="B77" s="1">
         <v>8.3280000000000007E-2</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="6">
         <f t="shared" si="1"/>
         <v>8.3280000000000007E-2</v>
       </c>
@@ -2039,7 +2044,7 @@
       <c r="B78" s="1">
         <v>0.12200999999999999</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="6">
         <f t="shared" si="1"/>
         <v>0.12200999999999999</v>
       </c>
@@ -2051,7 +2056,7 @@
       <c r="B79" s="1">
         <v>0.19725000000000001</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="6">
         <f t="shared" si="1"/>
         <v>0.19725000000000001</v>
       </c>
@@ -2063,7 +2068,7 @@
       <c r="B80" s="1">
         <v>0.11362</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="6">
         <f t="shared" si="1"/>
         <v>0.11362</v>
       </c>
@@ -2075,7 +2080,7 @@
       <c r="B81" s="1">
         <v>9.8710000000000006E-2</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="6">
         <f t="shared" si="1"/>
         <v>9.8710000000000006E-2</v>
       </c>
@@ -2087,7 +2092,7 @@
       <c r="B82" s="1">
         <v>0.71364000000000005</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="6">
         <f t="shared" si="1"/>
         <v>0.71364000000000005</v>
       </c>
@@ -2099,7 +2104,7 @@
       <c r="B83" s="1">
         <v>0.46990999999999999</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="6">
         <f t="shared" si="1"/>
         <v>0.46990999999999999</v>
       </c>
@@ -2111,7 +2116,7 @@
       <c r="B84" s="1">
         <v>0.41602</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="6">
         <f t="shared" si="1"/>
         <v>0.41602</v>
       </c>
@@ -2123,7 +2128,7 @@
       <c r="B85" s="1">
         <v>0.49452000000000002</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="6">
         <f t="shared" si="1"/>
         <v>0.49452000000000002</v>
       </c>
@@ -2135,7 +2140,7 @@
       <c r="B86" s="1">
         <v>0.58830000000000005</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="6">
         <f t="shared" si="1"/>
         <v>0.58830000000000005</v>
       </c>
@@ -2147,7 +2152,7 @@
       <c r="B87" s="1">
         <v>0.44529999999999997</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="6">
         <f t="shared" si="1"/>
         <v>0.44529999999999997</v>
       </c>
@@ -2159,7 +2164,7 @@
       <c r="B88" s="1">
         <v>0.16341</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" s="6">
         <f t="shared" si="1"/>
         <v>0.16341</v>
       </c>
@@ -2171,7 +2176,7 @@
       <c r="B89" s="1">
         <v>0.30271999999999999</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" s="6">
         <f t="shared" si="1"/>
         <v>0.30271999999999999</v>
       </c>
@@ -2183,7 +2188,7 @@
       <c r="B90" s="1">
         <v>0.39</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="6">
         <f t="shared" si="1"/>
         <v>0.39</v>
       </c>
@@ -2195,7 +2200,7 @@
       <c r="B91" s="1">
         <v>0.2732</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="6">
         <f t="shared" si="1"/>
         <v>0.2732</v>
       </c>
@@ -2207,7 +2212,7 @@
       <c r="B92" s="1">
         <v>0.18314</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" s="6">
         <f t="shared" si="1"/>
         <v>0.18314</v>
       </c>
@@ -2219,7 +2224,7 @@
       <c r="B93" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E93" s="1" t="e">
+      <c r="E93" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
@@ -2231,7 +2236,7 @@
       <c r="B94" s="1">
         <v>0.49746000000000001</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="6">
         <f t="shared" si="1"/>
         <v>0.49746000000000001</v>
       </c>
@@ -2243,7 +2248,7 @@
       <c r="B95" s="1">
         <v>0.36220000000000002</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" s="6">
         <f t="shared" si="1"/>
         <v>0.36220000000000002</v>
       </c>
@@ -2255,7 +2260,7 @@
       <c r="B96" s="1">
         <v>0.51102999999999998</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="6">
         <f t="shared" si="1"/>
         <v>0.51102999999999998</v>
       </c>
@@ -2267,7 +2272,7 @@
       <c r="B97" s="1">
         <v>0.47699999999999998</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="6">
         <f t="shared" si="1"/>
         <v>0.47699999999999998</v>
       </c>
@@ -2279,7 +2284,7 @@
       <c r="B98" s="1">
         <v>0.11364</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="6">
         <f t="shared" si="1"/>
         <v>0.11364</v>
       </c>
@@ -2291,7 +2296,7 @@
       <c r="B99" s="1">
         <v>0.14896999999999999</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="6">
         <f t="shared" si="1"/>
         <v>0.14896999999999999</v>
       </c>
@@ -2303,7 +2308,7 @@
       <c r="B100" s="1">
         <v>8.6440000000000003E-2</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="6">
         <f t="shared" si="1"/>
         <v>8.6440000000000003E-2</v>
       </c>
@@ -2315,7 +2320,7 @@
       <c r="B101" s="1">
         <v>0.14696000000000001</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="6">
         <f t="shared" si="1"/>
         <v>0.14696000000000001</v>
       </c>
@@ -2327,7 +2332,7 @@
       <c r="B102" s="1">
         <v>0.11192000000000001</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="6">
         <f t="shared" si="1"/>
         <v>0.11192000000000001</v>
       </c>
@@ -2339,7 +2344,7 @@
       <c r="B103" s="1">
         <v>0.11283</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="6">
         <f t="shared" si="1"/>
         <v>0.11283</v>
       </c>
@@ -2351,7 +2356,7 @@
       <c r="B104" s="1">
         <v>0.114523</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="6">
         <f t="shared" si="1"/>
         <v>0.114523</v>
       </c>
@@ -2363,7 +2368,7 @@
       <c r="B105" s="1">
         <v>0.10299999999999999</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="6">
         <f t="shared" si="1"/>
         <v>0.10299999999999999</v>
       </c>
@@ -2375,7 +2380,7 @@
       <c r="B106" s="1">
         <v>0.10724</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106" s="6">
         <f t="shared" si="1"/>
         <v>0.10724</v>
       </c>
@@ -2387,7 +2392,7 @@
       <c r="B107" s="1">
         <v>9.7339999999999996E-2</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="6">
         <f t="shared" si="1"/>
         <v>9.7339999999999996E-2</v>
       </c>
@@ -2399,7 +2404,7 @@
       <c r="B108" s="1">
         <v>0.11348</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" s="6">
         <f t="shared" si="1"/>
         <v>0.11348</v>
       </c>
@@ -2411,7 +2416,7 @@
       <c r="B109" s="1">
         <v>7.4529999999999999E-2</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" s="6">
         <f t="shared" si="1"/>
         <v>7.4529999999999999E-2</v>
       </c>
@@ -2423,7 +2428,7 @@
       <c r="B110" s="1">
         <v>0.11441</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110" s="6">
         <f t="shared" si="1"/>
         <v>0.11441</v>
       </c>
@@ -2435,7 +2440,7 @@
       <c r="B111" s="1">
         <v>0.10153</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111" s="6">
         <f t="shared" si="1"/>
         <v>0.10153</v>
       </c>
@@ -2447,7 +2452,7 @@
       <c r="B112" s="1">
         <v>9.1689999999999994E-2</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="6">
         <f t="shared" si="1"/>
         <v>9.1689999999999994E-2</v>
       </c>
@@ -2459,7 +2464,7 @@
       <c r="B113" s="1">
         <v>0.1221</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="6">
         <f t="shared" si="1"/>
         <v>0.1221</v>
       </c>
@@ -2471,7 +2476,7 @@
       <c r="B114" s="1">
         <v>3.8440000000000002E-2</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="6">
         <f t="shared" si="1"/>
         <v>3.8440000000000002E-2</v>
       </c>
@@ -2483,7 +2488,7 @@
       <c r="B115" s="1">
         <v>5.3719999999999997E-2</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115" s="6">
         <f t="shared" si="1"/>
         <v>5.3719999999999997E-2</v>
       </c>
@@ -2495,7 +2500,7 @@
       <c r="B116" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E116" s="1" t="e">
+      <c r="E116" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
@@ -2507,7 +2512,7 @@
       <c r="B117" s="1">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117" s="6">
         <f t="shared" si="1"/>
         <v>4.9099999999999998E-2</v>
       </c>
@@ -2519,7 +2524,7 @@
       <c r="B118" s="1">
         <v>4.1309999999999999E-2</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118" s="6">
         <f t="shared" si="1"/>
         <v>4.1309999999999999E-2</v>
       </c>
@@ -2531,7 +2536,7 @@
       <c r="B119" s="1">
         <v>2.5819999999999999E-2</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" s="6">
         <f t="shared" si="1"/>
         <v>2.5819999999999999E-2</v>
       </c>
@@ -2549,7 +2554,7 @@
       <c r="D120" s="1">
         <v>5.9350699999999996</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120" s="6">
         <f t="shared" si="1"/>
         <v>6.0126099999999996</v>
       </c>
@@ -2561,7 +2566,7 @@
       <c r="B121" s="1">
         <v>2.2429999999999999E-2</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121" s="6">
         <f t="shared" si="1"/>
         <v>2.2429999999999999E-2</v>
       </c>
@@ -2573,7 +2578,7 @@
       <c r="B122" s="1">
         <v>4.1459999999999997E-2</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" s="6">
         <f t="shared" si="1"/>
         <v>4.1459999999999997E-2</v>
       </c>
@@ -2585,7 +2590,7 @@
       <c r="B123" s="1">
         <v>8.9440000000000006E-2</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123" s="6">
         <f t="shared" si="1"/>
         <v>8.9440000000000006E-2</v>
       </c>
@@ -2597,7 +2602,7 @@
       <c r="B124" s="1">
         <v>4.2770000000000002E-2</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124" s="6">
         <f t="shared" si="1"/>
         <v>4.2770000000000002E-2</v>
       </c>
@@ -2609,7 +2614,7 @@
       <c r="B125" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E125" s="1" t="e">
+      <c r="E125" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
@@ -2621,7 +2626,7 @@
       <c r="B126" s="1">
         <v>6.2140000000000001E-2</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" s="6">
         <f t="shared" si="1"/>
         <v>6.2140000000000001E-2</v>
       </c>
@@ -2633,7 +2638,7 @@
       <c r="B127" s="1">
         <v>6.8339999999999998E-2</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127" s="6">
         <f t="shared" si="1"/>
         <v>6.8339999999999998E-2</v>
       </c>
@@ -2645,12 +2650,12 @@
       <c r="B128" s="1">
         <v>6.3759999999999997E-2</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128" s="6">
         <f t="shared" si="1"/>
         <v>6.3759999999999997E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>132</v>
       </c>
@@ -2663,487 +2668,622 @@
       <c r="D129" s="1">
         <v>6.0713499999999998</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129" s="6">
         <f t="shared" si="1"/>
         <v>6.1383200000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B130" s="1">
         <v>0.19220999999999999</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" s="6">
         <f t="shared" si="1"/>
         <v>0.19220999999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" s="1">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B131" s="1">
         <v>0.16100999999999999</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131" s="6">
         <f t="shared" ref="E131:E193" si="2">B131+D131</f>
         <v>0.16100999999999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" s="1">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B132" s="1">
         <v>0.10818</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" s="6">
         <f t="shared" si="2"/>
         <v>0.10818</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" s="1">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B133" s="1">
         <v>0.14993999999999999</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" s="6">
         <f t="shared" si="2"/>
         <v>0.14993999999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" s="1">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B134" s="1">
         <v>0.12035999999999999</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="6">
         <f t="shared" si="2"/>
         <v>0.12035999999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" s="1">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B135" s="1">
         <v>0.12628</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135" s="6">
         <f t="shared" si="2"/>
         <v>0.12628</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" s="1">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B136" s="1">
         <v>9.0279999999999999E-2</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136" s="6">
         <f t="shared" si="2"/>
         <v>9.0279999999999999E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B137" s="1">
         <v>0.16172</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137" s="6">
         <f t="shared" si="2"/>
         <v>0.16172</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B138" s="1">
         <v>0.29918</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E138" s="6">
         <f t="shared" si="2"/>
         <v>0.29918</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138" s="1">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B139" s="1">
         <v>0.18142</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139" s="6">
         <f t="shared" si="2"/>
         <v>0.18142</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139" s="1">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>143</v>
       </c>
       <c r="B140" s="1">
         <v>0.40621000000000002</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140" s="6">
         <f t="shared" si="2"/>
         <v>0.40621000000000002</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140" s="1">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B141" s="1">
         <v>0.29359000000000002</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E141" s="6">
         <f t="shared" si="2"/>
         <v>0.29359000000000002</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141" s="1">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>145</v>
       </c>
       <c r="B142" s="1">
         <v>0.20619000000000001</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E142" s="6">
         <f t="shared" si="2"/>
         <v>0.20619000000000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>146</v>
       </c>
       <c r="B143" s="1">
         <v>0.16874</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143" s="6">
         <f t="shared" si="2"/>
         <v>0.16874</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B144" s="1">
         <v>0.15673999999999999</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="6">
         <f t="shared" si="2"/>
         <v>0.15673999999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144" s="1">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B145" s="1">
         <v>0.20263</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="6">
         <f t="shared" si="2"/>
         <v>0.20263</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145" s="1">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B146" s="1">
         <v>0.27638000000000001</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146" s="6">
         <f t="shared" si="2"/>
         <v>0.27638000000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146" s="1">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B147" s="1">
         <v>6.2740000000000004E-2</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147" s="6">
         <f t="shared" si="2"/>
         <v>6.2740000000000004E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147" s="1">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B148" s="1">
         <v>0.15723999999999999</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E148" s="6">
         <f t="shared" si="2"/>
         <v>0.15723999999999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F148" s="1">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E149" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="1">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="E149" s="6">
+        <f t="shared" si="2"/>
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F149" s="1">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E150" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B150" s="1">
+        <v>0.14215</v>
+      </c>
+      <c r="E150" s="6">
+        <f t="shared" si="2"/>
+        <v>0.14215</v>
+      </c>
+      <c r="F150" s="1">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E151" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B151" s="1">
+        <v>0.19455</v>
+      </c>
+      <c r="E151" s="6">
+        <f t="shared" si="2"/>
+        <v>0.19455</v>
+      </c>
+      <c r="F151" s="1">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E152" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B152" s="1">
+        <v>9.3380000000000005E-2</v>
+      </c>
+      <c r="E152" s="6">
+        <f t="shared" si="2"/>
+        <v>9.3380000000000005E-2</v>
+      </c>
+      <c r="F152" s="1">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E153" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B153" s="1">
+        <v>0.21836</v>
+      </c>
+      <c r="E153" s="6">
+        <f t="shared" si="2"/>
+        <v>0.21836</v>
+      </c>
+      <c r="F153" s="1">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E154" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B154" s="1">
+        <v>0.24346999999999999</v>
+      </c>
+      <c r="E154" s="6">
+        <f t="shared" si="2"/>
+        <v>0.24346999999999999</v>
+      </c>
+      <c r="F154" s="1">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E155" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B155" s="1">
+        <v>0.20174</v>
+      </c>
+      <c r="E155" s="6">
+        <f t="shared" si="2"/>
+        <v>0.20174</v>
+      </c>
+      <c r="F155" s="1">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E156" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B156" s="1">
+        <v>0.1925</v>
+      </c>
+      <c r="E156" s="6">
+        <f t="shared" si="2"/>
+        <v>0.1925</v>
+      </c>
+      <c r="F156" s="1">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E157" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B157" s="1">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E157" s="6">
+        <f t="shared" si="2"/>
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F157" s="1">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E158" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B158" s="1">
+        <v>0.15851999999999999</v>
+      </c>
+      <c r="E158" s="6">
+        <f t="shared" si="2"/>
+        <v>0.15851999999999999</v>
+      </c>
+      <c r="F158" s="1">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E159" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="1">
+        <v>0.13694000000000001</v>
+      </c>
+      <c r="E159" s="6">
+        <f t="shared" si="2"/>
+        <v>0.13694000000000001</v>
+      </c>
+      <c r="F159" s="1">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E160" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B160" s="1">
+        <v>0.44784000000000002</v>
+      </c>
+      <c r="E160" s="6">
+        <f t="shared" si="2"/>
+        <v>0.44784000000000002</v>
+      </c>
+      <c r="F160" s="1">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E161" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="1">
+        <v>0.21001</v>
+      </c>
+      <c r="E161" s="6">
+        <f t="shared" si="2"/>
+        <v>0.21001</v>
+      </c>
+      <c r="F161" s="1">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E163" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E164" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E166" s="1">
+      <c r="E166" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E167" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E168" s="1">
+      <c r="E168" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E169" s="1">
+      <c r="E169" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E170" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E171" s="1">
+      <c r="E171" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E172" s="1">
+      <c r="E172" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E173" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E174" s="1">
+      <c r="E174" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E175" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E176" s="1">
+      <c r="E176" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3158,7 +3298,7 @@
       <c r="D177" s="1">
         <v>8.2289999999999992</v>
       </c>
-      <c r="E177" s="1">
+      <c r="E177" s="6">
         <f t="shared" si="2"/>
         <v>8.2289999999999992</v>
       </c>
@@ -3167,7 +3307,7 @@
       <c r="A178" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E178" s="1">
+      <c r="E178" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3176,7 +3316,7 @@
       <c r="A179" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E179" s="1">
+      <c r="E179" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3185,7 +3325,7 @@
       <c r="A180" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E180" s="1">
+      <c r="E180" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3194,7 +3334,7 @@
       <c r="A181" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E181" s="1">
+      <c r="E181" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3203,7 +3343,7 @@
       <c r="A182" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E182" s="1">
+      <c r="E182" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3212,7 +3352,7 @@
       <c r="A183" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E183" s="1">
+      <c r="E183" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3221,7 +3361,7 @@
       <c r="A184" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E184" s="1">
+      <c r="E184" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3230,7 +3370,7 @@
       <c r="A185" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E185" s="1">
+      <c r="E185" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3239,7 +3379,7 @@
       <c r="A186" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E186" s="1">
+      <c r="E186" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3248,7 +3388,7 @@
       <c r="A187" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E187" s="1">
+      <c r="E187" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3257,7 +3397,7 @@
       <c r="A188" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E188" s="1">
+      <c r="E188" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3270,7 +3410,7 @@
         <f>12.688+11.96</f>
         <v>24.648000000000003</v>
       </c>
-      <c r="E189" s="1">
+      <c r="E189" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3279,7 +3419,7 @@
       <c r="A190" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E190" s="1">
+      <c r="E190" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3288,7 +3428,7 @@
       <c r="A191" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E191" s="1">
+      <c r="E191" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3297,7 +3437,7 @@
       <c r="A192" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E192" s="1">
+      <c r="E192" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3306,7 +3446,7 @@
       <c r="A193" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E193" s="1">
+      <c r="E193" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>

--- a/data/biomass.xlsx
+++ b/data/biomass.xlsx
@@ -1090,10 +1090,10 @@
   <dimension ref="A1:F197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B154" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D168" sqref="D168"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1131,7 +1131,7 @@
         <v>0.11425</v>
       </c>
       <c r="E2" s="6">
-        <f>B2+D2</f>
+        <f t="shared" ref="E2:E35" si="0">B2+D2</f>
         <v>0.11425</v>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
         <v>0.21304000000000001</v>
       </c>
       <c r="E3" s="6">
-        <f>B3+D3</f>
+        <f t="shared" si="0"/>
         <v>0.38614000000000004</v>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="E4" s="6">
-        <f>B4+D4</f>
+        <f t="shared" si="0"/>
         <v>0.13700000000000001</v>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
         <v>6.0600000000000001E-2</v>
       </c>
       <c r="E5" s="6">
-        <f>B5+D5</f>
+        <f t="shared" si="0"/>
         <v>6.0600000000000001E-2</v>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
         <v>0.6976</v>
       </c>
       <c r="E6" s="6">
-        <f>B6+D6</f>
+        <f t="shared" si="0"/>
         <v>0.6976</v>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
         <v>0.1275</v>
       </c>
       <c r="E7" s="6">
-        <f>B7+D7</f>
+        <f t="shared" si="0"/>
         <v>0.1275</v>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
         <v>5.5500000000000001E-2</v>
       </c>
       <c r="E8" s="6">
-        <f>B8+D8</f>
+        <f t="shared" si="0"/>
         <v>5.5500000000000001E-2</v>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
         <v>0.18284</v>
       </c>
       <c r="E9" s="6">
-        <f>B9+D9</f>
+        <f t="shared" si="0"/>
         <v>0.18284</v>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
         <v>0.33112000000000003</v>
       </c>
       <c r="E10" s="6">
-        <f>B10+D10</f>
+        <f t="shared" si="0"/>
         <v>0.33112000000000003</v>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
         <v>0.39595000000000002</v>
       </c>
       <c r="E11" s="6">
-        <f>B11+D11</f>
+        <f t="shared" si="0"/>
         <v>0.39595000000000002</v>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
         <v>0.45728999999999997</v>
       </c>
       <c r="E12" s="6">
-        <f>B12+D12</f>
+        <f t="shared" si="0"/>
         <v>0.45728999999999997</v>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
         <v>0.22020000000000001</v>
       </c>
       <c r="E13" s="6">
-        <f>B13+D13</f>
+        <f t="shared" si="0"/>
         <v>0.22020000000000001</v>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
         <v>0.28299999999999997</v>
       </c>
       <c r="E14" s="6">
-        <f>B14+D14</f>
+        <f t="shared" si="0"/>
         <v>0.28299999999999997</v>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
         <v>0.37919999999999998</v>
       </c>
       <c r="E15" s="6">
-        <f>B15+D15</f>
+        <f t="shared" si="0"/>
         <v>0.37919999999999998</v>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
         <v>0.21654000000000001</v>
       </c>
       <c r="E16" s="6">
-        <f>B16+D16</f>
+        <f t="shared" si="0"/>
         <v>0.21654000000000001</v>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
         <v>0.15306</v>
       </c>
       <c r="E17" s="6">
-        <f>B17+D17</f>
+        <f t="shared" si="0"/>
         <v>0.15306</v>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
         <v>0.2732</v>
       </c>
       <c r="E18" s="6">
-        <f>B18+D18</f>
+        <f t="shared" si="0"/>
         <v>0.2732</v>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
         <v>0.18314</v>
       </c>
       <c r="E19" s="6">
-        <f>B19+D19</f>
+        <f t="shared" si="0"/>
         <v>0.18314</v>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
         <v>99</v>
       </c>
       <c r="E20" s="6" t="e">
-        <f>B20+D20</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
         <v>0.49746000000000001</v>
       </c>
       <c r="E21" s="6">
-        <f>B21+D21</f>
+        <f t="shared" si="0"/>
         <v>0.49746000000000001</v>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
         <v>0.71364000000000005</v>
       </c>
       <c r="E22" s="6">
-        <f>B22+D22</f>
+        <f t="shared" si="0"/>
         <v>0.71364000000000005</v>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
         <v>0.36220000000000002</v>
       </c>
       <c r="E23" s="6">
-        <f>B23+D23</f>
+        <f t="shared" si="0"/>
         <v>0.36220000000000002</v>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
         <v>0.51102999999999998</v>
       </c>
       <c r="E24" s="6">
-        <f>B24+D24</f>
+        <f t="shared" si="0"/>
         <v>0.51102999999999998</v>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
         <v>0.47699999999999998</v>
       </c>
       <c r="E25" s="6">
-        <f>B25+D25</f>
+        <f t="shared" si="0"/>
         <v>0.47699999999999998</v>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
         <v>0.46990999999999999</v>
       </c>
       <c r="E26" s="6">
-        <f>B26+D26</f>
+        <f t="shared" si="0"/>
         <v>0.46990999999999999</v>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
         <v>0.41602</v>
       </c>
       <c r="E27" s="6">
-        <f>B27+D27</f>
+        <f t="shared" si="0"/>
         <v>0.41602</v>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
         <v>0.49452000000000002</v>
       </c>
       <c r="E28" s="6">
-        <f>B28+D28</f>
+        <f t="shared" si="0"/>
         <v>0.49452000000000002</v>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
         <v>0.58830000000000005</v>
       </c>
       <c r="E29" s="6">
-        <f>B29+D29</f>
+        <f t="shared" si="0"/>
         <v>0.58830000000000005</v>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
         <v>0.44529999999999997</v>
       </c>
       <c r="E30" s="6">
-        <f>B30+D30</f>
+        <f t="shared" si="0"/>
         <v>0.44529999999999997</v>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
         <v>0.16341</v>
       </c>
       <c r="E31" s="6">
-        <f>B31+D31</f>
+        <f t="shared" si="0"/>
         <v>0.16341</v>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
         <v>0.30271999999999999</v>
       </c>
       <c r="E32" s="6">
-        <f>B32+D32</f>
+        <f t="shared" si="0"/>
         <v>0.30271999999999999</v>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
         <v>0.39</v>
       </c>
       <c r="E33" s="6">
-        <f>B33+D33</f>
+        <f t="shared" si="0"/>
         <v>0.39</v>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
         <v>8.2600000000000007E-2</v>
       </c>
       <c r="E34" s="6">
-        <f>B34+D34</f>
+        <f t="shared" si="0"/>
         <v>8.2600000000000007E-2</v>
       </c>
     </row>
@@ -1533,9 +1533,15 @@
       <c r="B35" s="1">
         <v>0.18142</v>
       </c>
+      <c r="C35" s="1">
+        <v>7.62</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4.6589999999999998</v>
+      </c>
       <c r="E35" s="6">
-        <f>B35+D35</f>
-        <v>0.18142</v>
+        <f t="shared" si="0"/>
+        <v>4.8404199999999999</v>
       </c>
       <c r="F35" s="1">
         <v>-0.06</v>
@@ -1560,7 +1566,7 @@
         <v>0.12055</v>
       </c>
       <c r="E37" s="6">
-        <f>B37+D37</f>
+        <f t="shared" ref="E37:E58" si="1">B37+D37</f>
         <v>0.12055</v>
       </c>
     </row>
@@ -1572,7 +1578,7 @@
         <v>0.40621000000000002</v>
       </c>
       <c r="E38" s="6">
-        <f>B38+D38</f>
+        <f t="shared" si="1"/>
         <v>0.40621000000000002</v>
       </c>
       <c r="F38" s="1">
@@ -1587,7 +1593,7 @@
         <v>0.1202</v>
       </c>
       <c r="E39" s="6">
-        <f>B39+D39</f>
+        <f t="shared" si="1"/>
         <v>0.1202</v>
       </c>
     </row>
@@ -1599,7 +1605,7 @@
         <v>0.29359000000000002</v>
       </c>
       <c r="E40" s="6">
-        <f>B40+D40</f>
+        <f t="shared" si="1"/>
         <v>0.29359000000000002</v>
       </c>
       <c r="F40" s="1">
@@ -1614,7 +1620,7 @@
         <v>0.11559999999999999</v>
       </c>
       <c r="E41" s="6">
-        <f>B41+D41</f>
+        <f t="shared" si="1"/>
         <v>0.11559999999999999</v>
       </c>
     </row>
@@ -1626,7 +1632,7 @@
         <v>0.20619000000000001</v>
       </c>
       <c r="E42" s="6">
-        <f>B42+D42</f>
+        <f t="shared" si="1"/>
         <v>0.20619000000000001</v>
       </c>
       <c r="F42" s="1">
@@ -1641,7 +1647,7 @@
         <v>0.1578</v>
       </c>
       <c r="E43" s="6">
-        <f>B43+D43</f>
+        <f t="shared" si="1"/>
         <v>0.1578</v>
       </c>
     </row>
@@ -1653,7 +1659,7 @@
         <v>0.1236</v>
       </c>
       <c r="E44" s="6">
-        <f>B44+D44</f>
+        <f t="shared" si="1"/>
         <v>0.1236</v>
       </c>
     </row>
@@ -1665,7 +1671,7 @@
         <v>0.16874</v>
       </c>
       <c r="E45" s="6">
-        <f>B45+D45</f>
+        <f t="shared" si="1"/>
         <v>0.16874</v>
       </c>
       <c r="F45" s="1">
@@ -1681,7 +1687,7 @@
         <v>8.9499999999999996E-2</v>
       </c>
       <c r="E46" s="6">
-        <f>B46+D46</f>
+        <f t="shared" si="1"/>
         <v>8.9499999999999996E-2</v>
       </c>
     </row>
@@ -1693,7 +1699,7 @@
         <v>0.15673999999999999</v>
       </c>
       <c r="E47" s="6">
-        <f>B47+D47</f>
+        <f t="shared" si="1"/>
         <v>0.15673999999999999</v>
       </c>
       <c r="F47" s="1">
@@ -1708,7 +1714,7 @@
         <v>0.19220999999999999</v>
       </c>
       <c r="E48" s="6">
-        <f>B48+D48</f>
+        <f t="shared" si="1"/>
         <v>0.19220999999999999</v>
       </c>
       <c r="F48" s="1">
@@ -1723,7 +1729,7 @@
         <v>9.5680000000000001E-2</v>
       </c>
       <c r="E49" s="6">
-        <f>B49+D49</f>
+        <f t="shared" si="1"/>
         <v>9.5680000000000001E-2</v>
       </c>
     </row>
@@ -1735,7 +1741,7 @@
         <v>0.20263</v>
       </c>
       <c r="E50" s="6">
-        <f>B50+D50</f>
+        <f t="shared" si="1"/>
         <v>0.20263</v>
       </c>
       <c r="F50" s="1">
@@ -1750,7 +1756,7 @@
         <v>8.4099999999999994E-2</v>
       </c>
       <c r="E51" s="6">
-        <f>B51+D51</f>
+        <f t="shared" si="1"/>
         <v>8.4099999999999994E-2</v>
       </c>
     </row>
@@ -1762,7 +1768,7 @@
         <v>0.16100999999999999</v>
       </c>
       <c r="E52" s="6">
-        <f>B52+D52</f>
+        <f t="shared" si="1"/>
         <v>0.16100999999999999</v>
       </c>
       <c r="F52" s="1">
@@ -1777,7 +1783,7 @@
         <v>0.11369</v>
       </c>
       <c r="E53" s="6">
-        <f>B53+D53</f>
+        <f t="shared" si="1"/>
         <v>0.11369</v>
       </c>
     </row>
@@ -1789,7 +1795,7 @@
         <v>0.10818</v>
       </c>
       <c r="E54" s="6">
-        <f>B54+D54</f>
+        <f t="shared" si="1"/>
         <v>0.10818</v>
       </c>
       <c r="F54" s="1">
@@ -1804,7 +1810,7 @@
         <v>0.63300000000000001</v>
       </c>
       <c r="E55" s="6">
-        <f>B55+D55</f>
+        <f t="shared" si="1"/>
         <v>0.63300000000000001</v>
       </c>
     </row>
@@ -1816,7 +1822,7 @@
         <v>0.14993999999999999</v>
       </c>
       <c r="E56" s="6">
-        <f>B56+D56</f>
+        <f t="shared" si="1"/>
         <v>0.14993999999999999</v>
       </c>
       <c r="F56" s="1">
@@ -1831,7 +1837,7 @@
         <v>0.18001</v>
       </c>
       <c r="E57" s="6">
-        <f>B57+D57</f>
+        <f t="shared" si="1"/>
         <v>0.18001</v>
       </c>
     </row>
@@ -1843,7 +1849,7 @@
         <v>0.12035999999999999</v>
       </c>
       <c r="E58" s="6">
-        <f>B58+D58</f>
+        <f t="shared" si="1"/>
         <v>0.12035999999999999</v>
       </c>
       <c r="F58" s="1">
@@ -1869,7 +1875,7 @@
         <v>0.14280000000000001</v>
       </c>
       <c r="E60" s="6">
-        <f>B60+D60</f>
+        <f t="shared" ref="E60:E91" si="2">B60+D60</f>
         <v>0.14280000000000001</v>
       </c>
     </row>
@@ -1881,7 +1887,7 @@
         <v>0.12628</v>
       </c>
       <c r="E61" s="6">
-        <f>B61+D61</f>
+        <f t="shared" si="2"/>
         <v>0.12628</v>
       </c>
       <c r="F61" s="1">
@@ -1896,7 +1902,7 @@
         <v>0.19905</v>
       </c>
       <c r="E62" s="6">
-        <f>B62+D62</f>
+        <f t="shared" si="2"/>
         <v>0.19905</v>
       </c>
     </row>
@@ -1908,7 +1914,7 @@
         <v>9.0279999999999999E-2</v>
       </c>
       <c r="E63" s="6">
-        <f>B63+D63</f>
+        <f t="shared" si="2"/>
         <v>9.0279999999999999E-2</v>
       </c>
       <c r="F63" s="1">
@@ -1929,7 +1935,7 @@
         <v>4.2519</v>
       </c>
       <c r="E64" s="6">
-        <f>B64+D64</f>
+        <f t="shared" si="2"/>
         <v>4.5116199999999997</v>
       </c>
     </row>
@@ -1941,7 +1947,7 @@
         <v>0.16172</v>
       </c>
       <c r="E65" s="6">
-        <f>B65+D65</f>
+        <f t="shared" si="2"/>
         <v>0.16172</v>
       </c>
       <c r="F65" s="1">
@@ -1956,7 +1962,7 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="E66" s="6">
-        <f>B66+D66</f>
+        <f t="shared" si="2"/>
         <v>0.14399999999999999</v>
       </c>
     </row>
@@ -1968,7 +1974,7 @@
         <v>0.29918</v>
       </c>
       <c r="E67" s="6">
-        <f>B67+D67</f>
+        <f t="shared" si="2"/>
         <v>0.29918</v>
       </c>
       <c r="F67" s="1">
@@ -1983,7 +1989,7 @@
         <v>0.11191</v>
       </c>
       <c r="E68" s="6">
-        <f>B68+D68</f>
+        <f t="shared" si="2"/>
         <v>0.11191</v>
       </c>
     </row>
@@ -1994,14 +2000,8 @@
       <c r="B69" s="1">
         <v>0.20174</v>
       </c>
-      <c r="C69" s="1">
-        <v>7.62</v>
-      </c>
-      <c r="D69" s="1">
-        <v>4.6589999999999998</v>
-      </c>
       <c r="E69" s="6">
-        <f>B69+D69</f>
+        <f>B69+D35</f>
         <v>4.8607399999999998</v>
       </c>
       <c r="F69" s="1">
@@ -2016,7 +2016,7 @@
         <v>0.12363</v>
       </c>
       <c r="E70" s="6">
-        <f>B70+D70</f>
+        <f t="shared" si="2"/>
         <v>0.12363</v>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
         <v>0.1925</v>
       </c>
       <c r="E71" s="6">
-        <f>B71+D71</f>
+        <f t="shared" si="2"/>
         <v>0.1925</v>
       </c>
       <c r="F71" s="1">
@@ -2043,7 +2043,7 @@
         <v>8.3280000000000007E-2</v>
       </c>
       <c r="E72" s="6">
-        <f>B72+D72</f>
+        <f t="shared" si="2"/>
         <v>8.3280000000000007E-2</v>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
         <v>0.23799999999999999</v>
       </c>
       <c r="E73" s="6">
-        <f>B73+D73</f>
+        <f t="shared" si="2"/>
         <v>0.23799999999999999</v>
       </c>
       <c r="F73" s="1">
@@ -2070,7 +2070,7 @@
         <v>0.12200999999999999</v>
       </c>
       <c r="E74" s="6">
-        <f>B74+D74</f>
+        <f t="shared" si="2"/>
         <v>0.12200999999999999</v>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
         <v>0.15851999999999999</v>
       </c>
       <c r="E75" s="6">
-        <f>B75+D75</f>
+        <f t="shared" si="2"/>
         <v>0.15851999999999999</v>
       </c>
       <c r="F75" s="1">
@@ -2097,7 +2097,7 @@
         <v>0.12623000000000001</v>
       </c>
       <c r="E76" s="6">
-        <f>B76+D76</f>
+        <f t="shared" si="2"/>
         <v>0.12623000000000001</v>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
         <v>0.19725000000000001</v>
       </c>
       <c r="E77" s="6">
-        <f>B77+D77</f>
+        <f t="shared" si="2"/>
         <v>0.19725000000000001</v>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
         <v>0.13694000000000001</v>
       </c>
       <c r="E78" s="6">
-        <f>B78+D78</f>
+        <f t="shared" si="2"/>
         <v>0.13694000000000001</v>
       </c>
       <c r="F78" s="1">
@@ -2136,7 +2136,7 @@
         <v>0.11362</v>
       </c>
       <c r="E79" s="6">
-        <f>B79+D79</f>
+        <f t="shared" si="2"/>
         <v>0.11362</v>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
         <v>0.44784000000000002</v>
       </c>
       <c r="E80" s="6">
-        <f>B80+D80</f>
+        <f t="shared" si="2"/>
         <v>0.44784000000000002</v>
       </c>
       <c r="F80" s="1">
@@ -2163,7 +2163,7 @@
         <v>0.27638000000000001</v>
       </c>
       <c r="E81" s="6">
-        <f>B81+D81</f>
+        <f t="shared" si="2"/>
         <v>0.27638000000000001</v>
       </c>
       <c r="F81" s="1">
@@ -2178,7 +2178,7 @@
         <v>9.8710000000000006E-2</v>
       </c>
       <c r="E82" s="6">
-        <f>B82+D82</f>
+        <f t="shared" si="2"/>
         <v>9.8710000000000006E-2</v>
       </c>
     </row>
@@ -2190,7 +2190,7 @@
         <v>0.21001</v>
       </c>
       <c r="E83" s="6">
-        <f>B83+D83</f>
+        <f t="shared" si="2"/>
         <v>0.21001</v>
       </c>
       <c r="F83" s="1">
@@ -2205,7 +2205,7 @@
         <v>0.19574</v>
       </c>
       <c r="E84" s="6">
-        <f>B84+D84</f>
+        <f t="shared" si="2"/>
         <v>0.19574</v>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
         <v>6.2740000000000004E-2</v>
       </c>
       <c r="E85" s="6">
-        <f>B85+D85</f>
+        <f t="shared" si="2"/>
         <v>6.2740000000000004E-2</v>
       </c>
       <c r="F85" s="1">
@@ -2232,7 +2232,7 @@
         <v>0.16908000000000001</v>
       </c>
       <c r="E86" s="6">
-        <f>B86+D86</f>
+        <f t="shared" si="2"/>
         <v>0.16908000000000001</v>
       </c>
     </row>
@@ -2244,7 +2244,7 @@
         <v>0.15723999999999999</v>
       </c>
       <c r="E87" s="6">
-        <f>B87+D87</f>
+        <f t="shared" si="2"/>
         <v>0.15723999999999999</v>
       </c>
       <c r="F87" s="1">
@@ -2259,7 +2259,7 @@
         <v>5.7930000000000002E-2</v>
       </c>
       <c r="E88" s="6">
-        <f>B88+D88</f>
+        <f t="shared" si="2"/>
         <v>5.7930000000000002E-2</v>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="E89" s="6">
-        <f>B89+D89</f>
+        <f t="shared" si="2"/>
         <v>0.20799999999999999</v>
       </c>
       <c r="F89" s="1">
@@ -2286,7 +2286,7 @@
         <v>0.14298</v>
       </c>
       <c r="E90" s="6">
-        <f>B90+D90</f>
+        <f t="shared" si="2"/>
         <v>0.14298</v>
       </c>
     </row>
@@ -2298,7 +2298,7 @@
         <v>0.14215</v>
       </c>
       <c r="E91" s="6">
-        <f>B91+D91</f>
+        <f t="shared" si="2"/>
         <v>0.14215</v>
       </c>
       <c r="F91" s="1">
@@ -2313,7 +2313,7 @@
         <v>9.5149999999999998E-2</v>
       </c>
       <c r="E92" s="6">
-        <f>B92+D92</f>
+        <f t="shared" ref="E92:E123" si="3">B92+D92</f>
         <v>9.5149999999999998E-2</v>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
         <v>0.19455</v>
       </c>
       <c r="E93" s="6">
-        <f>B93+D93</f>
+        <f t="shared" si="3"/>
         <v>0.19455</v>
       </c>
       <c r="F93" s="1">
@@ -2340,7 +2340,7 @@
         <v>0.1221</v>
       </c>
       <c r="E94" s="6">
-        <f>B94+D94</f>
+        <f t="shared" si="3"/>
         <v>0.1221</v>
       </c>
     </row>
@@ -2352,7 +2352,7 @@
         <v>9.3380000000000005E-2</v>
       </c>
       <c r="E95" s="6">
-        <f>B95+D95</f>
+        <f t="shared" si="3"/>
         <v>9.3380000000000005E-2</v>
       </c>
       <c r="F95" s="1">
@@ -2367,7 +2367,7 @@
         <v>0.10866000000000001</v>
       </c>
       <c r="E96" s="6">
-        <f>B96+D96</f>
+        <f t="shared" si="3"/>
         <v>0.10866000000000001</v>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
         <v>0.21836</v>
       </c>
       <c r="E97" s="6">
-        <f>B97+D97</f>
+        <f t="shared" si="3"/>
         <v>0.21836</v>
       </c>
       <c r="F97" s="1">
@@ -2394,7 +2394,7 @@
         <v>0.11178</v>
       </c>
       <c r="E98" s="6">
-        <f>B98+D98</f>
+        <f t="shared" si="3"/>
         <v>0.11178</v>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
         <v>0.24346999999999999</v>
       </c>
       <c r="E99" s="6">
-        <f>B99+D99</f>
+        <f t="shared" si="3"/>
         <v>0.24346999999999999</v>
       </c>
       <c r="F99" s="1">
@@ -2421,7 +2421,7 @@
         <v>8.0930000000000002E-2</v>
       </c>
       <c r="E100" s="6">
-        <f>B100+D100</f>
+        <f t="shared" si="3"/>
         <v>8.0930000000000002E-2</v>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
         <v>191</v>
       </c>
       <c r="E101" s="6">
-        <f>B101+D101</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
         <v>0.15595999999999999</v>
       </c>
       <c r="E102" s="6">
-        <f>B102+D102</f>
+        <f t="shared" si="3"/>
         <v>0.15595999999999999</v>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
         <v>192</v>
       </c>
       <c r="E103" s="6">
-        <f>B103+D103</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
         <v>0.92800000000000005</v>
       </c>
       <c r="E104" s="6">
-        <f>B104+D104</f>
+        <f t="shared" si="3"/>
         <v>0.92800000000000005</v>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
         <v>9.609</v>
       </c>
       <c r="E105" s="6">
-        <f>B105+D105</f>
+        <f t="shared" si="3"/>
         <v>9.609</v>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
         <v>0.1057</v>
       </c>
       <c r="E106" s="6">
-        <f>B106+D106</f>
+        <f t="shared" si="3"/>
         <v>0.1057</v>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
         <v>194</v>
       </c>
       <c r="E107" s="6">
-        <f>B107+D107</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
         <v>8.4400000000000003E-2</v>
       </c>
       <c r="E108" s="6">
-        <f>B108+D108</f>
+        <f t="shared" si="3"/>
         <v>8.4400000000000003E-2</v>
       </c>
     </row>
@@ -2524,7 +2524,7 @@
         <v>0.11948</v>
       </c>
       <c r="E109" s="6">
-        <f>B109+D109</f>
+        <f t="shared" si="3"/>
         <v>0.11948</v>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
         <v>195</v>
       </c>
       <c r="E110" s="6">
-        <f>B110+D110</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
         <v>0.13216</v>
       </c>
       <c r="E111" s="6">
-        <f>B111+D111</f>
+        <f t="shared" si="3"/>
         <v>0.13216</v>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
         <v>196</v>
       </c>
       <c r="E112" s="6">
-        <f>B112+D112</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
         <v>182</v>
       </c>
       <c r="E113" s="6">
-        <f>B113+D113</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
         <v>0.1056</v>
       </c>
       <c r="E114" s="6">
-        <f>B114+D114</f>
+        <f t="shared" si="3"/>
         <v>0.1056</v>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
         <v>197</v>
       </c>
       <c r="E115" s="6">
-        <f>B115+D115</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
         <v>7.1000000000000008E-2</v>
       </c>
       <c r="E116" s="6">
-        <f>B116+D116</f>
+        <f t="shared" si="3"/>
         <v>7.1000000000000008E-2</v>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
         <v>183</v>
       </c>
       <c r="E117" s="6">
-        <f>B117+D117</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
       <c r="E118" s="6">
-        <f>B118+D118</f>
+        <f t="shared" si="3"/>
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
         <v>184</v>
       </c>
       <c r="E119" s="6">
-        <f>B119+D119</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
         <v>9.0660000000000004E-2</v>
       </c>
       <c r="E120" s="6">
-        <f>B120+D120</f>
+        <f t="shared" si="3"/>
         <v>9.0660000000000004E-2</v>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
         <v>185</v>
       </c>
       <c r="E121" s="6">
-        <f>B121+D121</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
         <v>0.21970000000000001</v>
       </c>
       <c r="E122" s="6">
-        <f>B122+D122</f>
+        <f t="shared" si="3"/>
         <v>0.21970000000000001</v>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
         <v>186</v>
       </c>
       <c r="E123" s="6">
-        <f>B123+D123</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
         <v>9.826E-2</v>
       </c>
       <c r="E124" s="6">
-        <f>B124+D124</f>
+        <f t="shared" ref="E124:E155" si="4">B124+D124</f>
         <v>9.826E-2</v>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
         <v>187</v>
       </c>
       <c r="E125" s="6">
-        <f>B125+D125</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
         <v>6.2850000000000003E-2</v>
       </c>
       <c r="E126" s="6">
-        <f>B126+D126</f>
+        <f t="shared" si="4"/>
         <v>6.2850000000000003E-2</v>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
         <v>188</v>
       </c>
       <c r="E127" s="6">
-        <f>B127+D127</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2723,7 +2723,7 @@
         <v>0.10732</v>
       </c>
       <c r="E128" s="6">
-        <f>B128+D128</f>
+        <f t="shared" si="4"/>
         <v>0.10732</v>
       </c>
     </row>
@@ -2732,7 +2732,7 @@
         <v>189</v>
       </c>
       <c r="E129" s="6">
-        <f>B129+D129</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2744,7 +2744,7 @@
         <v>8.5599999999999996E-2</v>
       </c>
       <c r="E130" s="6">
-        <f>B130+D130</f>
+        <f t="shared" si="4"/>
         <v>8.5599999999999996E-2</v>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
         <v>190</v>
       </c>
       <c r="E131" s="6">
-        <f>B131+D131</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
         <v>9.7339999999999996E-2</v>
       </c>
       <c r="E132" s="6">
-        <f>B132+D132</f>
+        <f t="shared" si="4"/>
         <v>9.7339999999999996E-2</v>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
         <v>0.11348</v>
       </c>
       <c r="E133" s="6">
-        <f>B133+D133</f>
+        <f t="shared" si="4"/>
         <v>0.11348</v>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
         <v>7.4529999999999999E-2</v>
       </c>
       <c r="E134" s="6">
-        <f>B134+D134</f>
+        <f t="shared" si="4"/>
         <v>7.4529999999999999E-2</v>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
         <v>0.11441</v>
       </c>
       <c r="E135" s="6">
-        <f>B135+D135</f>
+        <f t="shared" si="4"/>
         <v>0.11441</v>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
         <v>0.11364</v>
       </c>
       <c r="E136" s="6">
-        <f>B136+D136</f>
+        <f t="shared" si="4"/>
         <v>0.11364</v>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
         <v>0.10153</v>
       </c>
       <c r="E137" s="6">
-        <f>B137+D137</f>
+        <f t="shared" si="4"/>
         <v>0.10153</v>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
         <v>9.1689999999999994E-2</v>
       </c>
       <c r="E138" s="6">
-        <f>B138+D138</f>
+        <f t="shared" si="4"/>
         <v>9.1689999999999994E-2</v>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
         <v>0.1221</v>
       </c>
       <c r="E139" s="6">
-        <f>B139+D139</f>
+        <f t="shared" si="4"/>
         <v>0.1221</v>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
         <v>0.14896999999999999</v>
       </c>
       <c r="E140" s="6">
-        <f>B140+D140</f>
+        <f t="shared" si="4"/>
         <v>0.14896999999999999</v>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
         <v>8.6440000000000003E-2</v>
       </c>
       <c r="E141" s="6">
-        <f>B141+D141</f>
+        <f t="shared" si="4"/>
         <v>8.6440000000000003E-2</v>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
         <v>0.14696000000000001</v>
       </c>
       <c r="E142" s="6">
-        <f>B142+D142</f>
+        <f t="shared" si="4"/>
         <v>0.14696000000000001</v>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
         <v>0.11192000000000001</v>
       </c>
       <c r="E143" s="6">
-        <f>B143+D143</f>
+        <f t="shared" si="4"/>
         <v>0.11192000000000001</v>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
         <v>0.11283</v>
       </c>
       <c r="E144" s="6">
-        <f>B144+D144</f>
+        <f t="shared" si="4"/>
         <v>0.11283</v>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
         <v>0.114523</v>
       </c>
       <c r="E145" s="6">
-        <f>B145+D145</f>
+        <f t="shared" si="4"/>
         <v>0.114523</v>
       </c>
     </row>
@@ -2933,7 +2933,7 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="E146" s="6">
-        <f>B146+D146</f>
+        <f t="shared" si="4"/>
         <v>0.10299999999999999</v>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
         <v>0.10724</v>
       </c>
       <c r="E147" s="6">
-        <f>B147+D147</f>
+        <f t="shared" si="4"/>
         <v>0.10724</v>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
         <v>8.9440000000000006E-2</v>
       </c>
       <c r="E148" s="6">
-        <f>B148+D148</f>
+        <f t="shared" si="4"/>
         <v>8.9440000000000006E-2</v>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
         <v>173</v>
       </c>
       <c r="E149" s="6">
-        <f>B149+D149</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
         <v>4.2770000000000002E-2</v>
       </c>
       <c r="E150" s="6">
-        <f>B150+D150</f>
+        <f t="shared" si="4"/>
         <v>4.2770000000000002E-2</v>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
         <v>174</v>
       </c>
       <c r="E151" s="6">
-        <f>B151+D151</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
         <v>99</v>
       </c>
       <c r="E152" s="6" t="e">
-        <f>B152+D152</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
         <v>175</v>
       </c>
       <c r="E153" s="6">
-        <f>B153+D153</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
         <v>6.2140000000000001E-2</v>
       </c>
       <c r="E154" s="6">
-        <f>B154+D154</f>
+        <f t="shared" si="4"/>
         <v>6.2140000000000001E-2</v>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
         <v>176</v>
       </c>
       <c r="E155" s="6">
-        <f>B155+D155</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
         <v>3.8440000000000002E-2</v>
       </c>
       <c r="E156" s="6">
-        <f>B156+D156</f>
+        <f t="shared" ref="E156:E187" si="5">B156+D156</f>
         <v>3.8440000000000002E-2</v>
       </c>
     </row>
@@ -3053,7 +3053,7 @@
         <v>6.8339999999999998E-2</v>
       </c>
       <c r="E157" s="6">
-        <f>B157+D157</f>
+        <f t="shared" si="5"/>
         <v>6.8339999999999998E-2</v>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
         <v>6.0713499999999998</v>
       </c>
       <c r="E163" s="6">
-        <f>B163+D163</f>
+        <f t="shared" ref="E163:E197" si="6">B163+D163</f>
         <v>6.1383200000000002</v>
       </c>
     </row>
@@ -3138,7 +3138,7 @@
         <v>8.2289999999999992</v>
       </c>
       <c r="E164" s="6">
-        <f>B164+D164</f>
+        <f t="shared" si="6"/>
         <v>8.2289999999999992</v>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
         <v>164</v>
       </c>
       <c r="E165" s="6">
-        <f>B165+D165</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
         <v>5.3719999999999997E-2</v>
       </c>
       <c r="E166" s="6">
-        <f>B166+D166</f>
+        <f t="shared" si="6"/>
         <v>5.3719999999999997E-2</v>
       </c>
     </row>
@@ -3174,7 +3174,7 @@
         <v>4.2313200000000002</v>
       </c>
       <c r="E167" s="6">
-        <f>B167+D167</f>
+        <f t="shared" si="6"/>
         <v>4.2313200000000002</v>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
         <v>99</v>
       </c>
       <c r="E168" s="6" t="e">
-        <f>B168+D168</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3195,7 +3195,7 @@
         <v>166</v>
       </c>
       <c r="E169" s="6">
-        <f>B169+D169</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
       <c r="E170" s="6">
-        <f>B170+D170</f>
+        <f t="shared" si="6"/>
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
         <v>167</v>
       </c>
       <c r="E171" s="6">
-        <f>B171+D171</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
         <v>4.1309999999999999E-2</v>
       </c>
       <c r="E172" s="6">
-        <f>B172+D172</f>
+        <f t="shared" si="6"/>
         <v>4.1309999999999999E-2</v>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
         <v>168</v>
       </c>
       <c r="E173" s="6">
-        <f>B173+D173</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
         <v>2.5819999999999999E-2</v>
       </c>
       <c r="E174" s="6">
-        <f>B174+D174</f>
+        <f t="shared" si="6"/>
         <v>2.5819999999999999E-2</v>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
         <v>169</v>
       </c>
       <c r="E175" s="6">
-        <f>B175+D175</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
         <v>5.9350699999999996</v>
       </c>
       <c r="E176" s="6">
-        <f>B176+D176</f>
+        <f t="shared" si="6"/>
         <v>6.0126099999999996</v>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
         <v>170</v>
       </c>
       <c r="E177" s="6">
-        <f>B177+D177</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
         <v>2.2429999999999999E-2</v>
       </c>
       <c r="E178" s="6">
-        <f>B178+D178</f>
+        <f t="shared" si="6"/>
         <v>2.2429999999999999E-2</v>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
         <v>171</v>
       </c>
       <c r="E179" s="6">
-        <f>B179+D179</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
         <v>4.1459999999999997E-2</v>
       </c>
       <c r="E180" s="6">
-        <f>B180+D180</f>
+        <f t="shared" si="6"/>
         <v>4.1459999999999997E-2</v>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
         <v>172</v>
       </c>
       <c r="E181" s="6">
-        <f>B181+D181</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3339,7 +3339,7 @@
         <v>0.4834</v>
       </c>
       <c r="E182" s="6">
-        <f>B182+D182</f>
+        <f t="shared" si="6"/>
         <v>0.4834</v>
       </c>
     </row>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="C183" s="2"/>
       <c r="E183" s="6">
-        <f>B183+D183</f>
+        <f t="shared" si="6"/>
         <v>3.3399999999999999E-2</v>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
         <v>9.5170000000000005E-2</v>
       </c>
       <c r="E184" s="6">
-        <f>B184+D184</f>
+        <f t="shared" si="6"/>
         <v>9.5170000000000005E-2</v>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
         <v>7.3599999999999999E-2</v>
       </c>
       <c r="E185" s="6">
-        <f>B185+D185</f>
+        <f t="shared" si="6"/>
         <v>7.3599999999999999E-2</v>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
         <v>0.17377999999999999</v>
       </c>
       <c r="E186" s="6">
-        <f>B186+D186</f>
+        <f t="shared" si="6"/>
         <v>0.17377999999999999</v>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="C187" s="2"/>
       <c r="E187" s="6">
-        <f>B187+D187</f>
+        <f t="shared" si="6"/>
         <v>4.02E-2</v>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
         <v>6.0100000000000001E-2</v>
       </c>
       <c r="E188" s="6">
-        <f>B188+D188</f>
+        <f t="shared" si="6"/>
         <v>6.0100000000000001E-2</v>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="C189" s="2"/>
       <c r="E189" s="6">
-        <f>B189+D189</f>
+        <f t="shared" si="6"/>
         <v>2.6499999999999999E-2</v>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
         <v>8.9099999999999999E-2</v>
       </c>
       <c r="E190" s="6">
-        <f>B190+D190</f>
+        <f t="shared" si="6"/>
         <v>8.9099999999999999E-2</v>
       </c>
     </row>
@@ -3450,7 +3450,7 @@
         <v>8.4099999999999994E-2</v>
       </c>
       <c r="E191" s="6">
-        <f>B191+D191</f>
+        <f t="shared" si="6"/>
         <v>8.4099999999999994E-2</v>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
         <v>6.9699999999999998E-2</v>
       </c>
       <c r="E192" s="6">
-        <f>B192+D192</f>
+        <f t="shared" si="6"/>
         <v>6.9699999999999998E-2</v>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="C193" s="2"/>
       <c r="E193" s="6">
-        <f>B193+D193</f>
+        <f t="shared" si="6"/>
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="C194" s="2"/>
       <c r="E194" s="6">
-        <f>B194+D194</f>
+        <f t="shared" si="6"/>
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="C195" s="2"/>
       <c r="E195" s="6">
-        <f>B195+D195</f>
+        <f t="shared" si="6"/>
         <v>0.47</v>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
         <v>66</v>
       </c>
       <c r="E196" s="6" t="e">
-        <f>B196+D196</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C197" s="2"/>
       <c r="E197" s="6">
-        <f>B197+D197</f>
+        <f t="shared" si="6"/>
         <v>0.44400000000000001</v>
       </c>
     </row>

--- a/data/biomass.xlsx
+++ b/data/biomass.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CatherineChamberlain/Documents/git/chillfreeze/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC4431A-621C-2F4C-B95A-6DC2EB304C7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="460" windowWidth="22720" windowHeight="13440" tabRatio="500"/>
+    <workbookView xWindow="15020" yWindow="8440" windowWidth="22720" windowHeight="13440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="250">
   <si>
     <t>individual</t>
   </si>
@@ -642,18 +649,163 @@
   </si>
   <si>
     <t>SORAME_146</t>
+  </si>
+  <si>
+    <t>ACEPEN_156</t>
+  </si>
+  <si>
+    <t>ACEPEN_16</t>
+  </si>
+  <si>
+    <t>ACEPEN_26</t>
+  </si>
+  <si>
+    <t>ACEPEN_36</t>
+  </si>
+  <si>
+    <t>ACEPEN_46</t>
+  </si>
+  <si>
+    <t>ACEPEN_56</t>
+  </si>
+  <si>
+    <t>ACEPEN_66</t>
+  </si>
+  <si>
+    <t>ACEPEN_76</t>
+  </si>
+  <si>
+    <t>ACEPEN_86</t>
+  </si>
+  <si>
+    <t>ACEPEN_96</t>
+  </si>
+  <si>
+    <t>ACEPEN_106</t>
+  </si>
+  <si>
+    <t>ACEPEN_116</t>
+  </si>
+  <si>
+    <t>ACEPEN_126</t>
+  </si>
+  <si>
+    <t>ACEPEN_136</t>
+  </si>
+  <si>
+    <t>ACEPEN_146</t>
+  </si>
+  <si>
+    <t>ACEPEN_166</t>
+  </si>
+  <si>
+    <t>CORRAC_18</t>
+  </si>
+  <si>
+    <t>CORRAC_28</t>
+  </si>
+  <si>
+    <t>CORRAC_38</t>
+  </si>
+  <si>
+    <t>CORRAC_48</t>
+  </si>
+  <si>
+    <t>CORRAC_58</t>
+  </si>
+  <si>
+    <t>CORRAC_68</t>
+  </si>
+  <si>
+    <t>CORRAC_78</t>
+  </si>
+  <si>
+    <t>CORRAC_88</t>
+  </si>
+  <si>
+    <t>CORRAC_98</t>
+  </si>
+  <si>
+    <t>CORRAC_108</t>
+  </si>
+  <si>
+    <t>CORRAC_118</t>
+  </si>
+  <si>
+    <t>CORRAC_128</t>
+  </si>
+  <si>
+    <t>CORRAC_138</t>
+  </si>
+  <si>
+    <t>CORRAC_148</t>
+  </si>
+  <si>
+    <t>CORRAC_158</t>
+  </si>
+  <si>
+    <t>CORRAC_168</t>
+  </si>
+  <si>
+    <t>SORAME_26</t>
+  </si>
+  <si>
+    <t>SORAME_36</t>
+  </si>
+  <si>
+    <t>SORAME_46</t>
+  </si>
+  <si>
+    <t>SORAME_56</t>
+  </si>
+  <si>
+    <t>SORAME_66</t>
+  </si>
+  <si>
+    <t>SORAME_76</t>
+  </si>
+  <si>
+    <t>SORAME_86</t>
+  </si>
+  <si>
+    <t>SORAME_96</t>
+  </si>
+  <si>
+    <t>SORAME_106</t>
+  </si>
+  <si>
+    <t>SORAME_116</t>
+  </si>
+  <si>
+    <t>SORAME_126</t>
+  </si>
+  <si>
+    <t>SORAME_136</t>
+  </si>
+  <si>
+    <t>SORAME_156</t>
+  </si>
+  <si>
+    <t>SORAME_166</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -737,11 +889,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -760,6 +913,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1086,14 +1242,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F197"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1131,7 +1287,7 @@
         <v>0.11425</v>
       </c>
       <c r="E2" s="6">
-        <f t="shared" ref="E2:E35" si="0">B2+D2</f>
+        <f t="shared" ref="E2:E51" si="0">B2+D2</f>
         <v>0.11425</v>
       </c>
     </row>
@@ -1268,9 +1424,15 @@
       <c r="B13" s="1">
         <v>0.22020000000000001</v>
       </c>
+      <c r="C13" s="1">
+        <v>2.6230000000000002</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
-        <v>0.22020000000000001</v>
+        <v>0.79020000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1322,2218 +1484,2681 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9.06</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.3720000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4.923</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.1919999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B34" s="1">
         <v>0.2732</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E34" s="6">
         <f t="shared" si="0"/>
         <v>0.2732</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B35" s="1">
         <v>0.18314</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E35" s="6">
         <f t="shared" si="0"/>
         <v>0.18314</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="6" t="e">
+      <c r="E36" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B37" s="1">
         <v>0.49746000000000001</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E37" s="6">
         <f t="shared" si="0"/>
         <v>0.49746000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B38" s="1">
         <v>0.71364000000000005</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E38" s="6">
         <f t="shared" si="0"/>
         <v>0.71364000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B39" s="1">
         <v>0.36220000000000002</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E39" s="6">
         <f t="shared" si="0"/>
         <v>0.36220000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B40" s="1">
         <v>0.51102999999999998</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E40" s="6">
         <f t="shared" si="0"/>
         <v>0.51102999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B41" s="1">
         <v>0.47699999999999998</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E41" s="6">
         <f t="shared" si="0"/>
         <v>0.47699999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B42" s="1">
         <v>0.46990999999999999</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E42" s="6">
         <f t="shared" si="0"/>
         <v>0.46990999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B43" s="1">
         <v>0.41602</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E43" s="6">
         <f t="shared" si="0"/>
         <v>0.41602</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B44" s="1">
         <v>0.49452000000000002</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E44" s="6">
         <f t="shared" si="0"/>
         <v>0.49452000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B45" s="1">
         <v>0.58830000000000005</v>
       </c>
-      <c r="E29" s="6">
-        <f t="shared" si="0"/>
-        <v>0.58830000000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="E45" s="6">
+        <f>B45+D73</f>
+        <v>3.5942999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B46" s="1">
         <v>0.44529999999999997</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E46" s="6">
         <f t="shared" si="0"/>
         <v>0.44529999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B47" s="1">
         <v>0.16341</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E47" s="6">
         <f t="shared" si="0"/>
         <v>0.16341</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B48" s="1">
         <v>0.30271999999999999</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E48" s="6">
         <f t="shared" si="0"/>
         <v>0.30271999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B49" s="1">
         <v>0.39</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E49" s="6">
         <f t="shared" si="0"/>
         <v>0.39</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B50" s="1">
         <f>0.0504+0.0322</f>
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E50" s="6">
         <f t="shared" si="0"/>
         <v>8.2600000000000007E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B51" s="1">
         <v>0.18142</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C51" s="1">
         <v>7.62</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D51" s="1">
         <v>4.6589999999999998</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E51" s="6">
         <f t="shared" si="0"/>
         <v>4.8404199999999999</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F51" s="1">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C52" s="1">
         <v>11.35</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D52" s="1">
         <v>5.6225500000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B53" s="1">
         <v>0.12055</v>
       </c>
-      <c r="E37" s="6">
-        <f t="shared" ref="E37:E58" si="1">B37+D37</f>
+      <c r="E53" s="6">
+        <f t="shared" ref="E53:E74" si="1">B53+D53</f>
         <v>0.12055</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B54" s="1">
         <v>0.40621000000000002</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E54" s="6">
         <f t="shared" si="1"/>
         <v>0.40621000000000002</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F54" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B55" s="1">
         <v>0.1202</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E55" s="6">
         <f t="shared" si="1"/>
         <v>0.1202</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B56" s="1">
         <v>0.29359000000000002</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E56" s="6">
         <f t="shared" si="1"/>
         <v>0.29359000000000002</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F56" s="1">
         <v>-0.08</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B57" s="1">
         <v>0.11559999999999999</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E57" s="6">
         <f t="shared" si="1"/>
         <v>0.11559999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B58" s="1">
         <v>0.20619000000000001</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E58" s="6">
         <f t="shared" si="1"/>
         <v>0.20619000000000001</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F58" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B59" s="1">
         <v>0.1578</v>
       </c>
-      <c r="E43" s="6">
+      <c r="C59" s="1">
+        <v>13.93</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2.7090000000000001</v>
+      </c>
+      <c r="E59" s="6">
         <f t="shared" si="1"/>
-        <v>0.1578</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+        <v>2.8668</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B60" s="1">
         <v>0.1236</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E60" s="6">
         <f t="shared" si="1"/>
         <v>0.1236</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B61" s="1">
         <v>0.16874</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E61" s="6">
         <f t="shared" si="1"/>
         <v>0.16874</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F61" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B62" s="1">
         <f>0.05+0.0395</f>
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E62" s="6">
         <f t="shared" si="1"/>
         <v>8.9499999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B63" s="1">
         <v>0.15673999999999999</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E63" s="6">
         <f t="shared" si="1"/>
         <v>0.15673999999999999</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F63" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B64" s="1">
         <v>0.19220999999999999</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E64" s="6">
         <f t="shared" si="1"/>
         <v>0.19220999999999999</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F64" s="1">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B65" s="1">
         <v>9.5680000000000001E-2</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E65" s="6">
         <f t="shared" si="1"/>
         <v>9.5680000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B66" s="1">
         <v>0.20263</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E66" s="6">
         <f t="shared" si="1"/>
         <v>0.20263</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F66" s="1">
         <v>-0.11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B67" s="1">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E67" s="6">
         <f t="shared" si="1"/>
         <v>8.4099999999999994E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B68" s="1">
         <v>0.16100999999999999</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E68" s="6">
         <f t="shared" si="1"/>
         <v>0.16100999999999999</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F68" s="1">
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B69" s="1">
         <v>0.11369</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E69" s="6">
         <f t="shared" si="1"/>
         <v>0.11369</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B70" s="1">
         <v>0.10818</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E70" s="6">
         <f t="shared" si="1"/>
         <v>0.10818</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F70" s="1">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B71" s="1">
         <v>0.63300000000000001</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E71" s="6">
         <f t="shared" si="1"/>
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B72" s="1">
         <v>0.14993999999999999</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E72" s="6">
         <f t="shared" si="1"/>
         <v>0.14993999999999999</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F72" s="1">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B73" s="1">
         <v>0.18001</v>
       </c>
-      <c r="E57" s="6">
-        <f t="shared" si="1"/>
-        <v>0.18001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="C73" s="1">
+        <v>12.56</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3.0059999999999998</v>
+      </c>
+      <c r="E73" s="6" t="e">
+        <f>B73+#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B74" s="1">
         <v>0.12035999999999999</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E74" s="6">
         <f t="shared" si="1"/>
         <v>0.12035999999999999</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F74" s="1">
         <v>-0.08</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C75" s="1">
         <v>9.1739999999999995</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D75" s="1">
         <v>6.76</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B76" s="1">
         <v>0.14280000000000001</v>
       </c>
-      <c r="E60" s="6">
-        <f t="shared" ref="E60:E91" si="2">B60+D60</f>
+      <c r="E76" s="6">
+        <f t="shared" ref="E76:E107" si="2">B76+D76</f>
         <v>0.14280000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B77" s="1">
         <v>0.12628</v>
       </c>
-      <c r="E61" s="6">
+      <c r="C77" s="1">
+        <v>4.3490000000000002</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2.9710000000000001</v>
+      </c>
+      <c r="E77" s="6">
         <f t="shared" si="2"/>
-        <v>0.12628</v>
-      </c>
-      <c r="F61" s="1">
+        <v>3.09728</v>
+      </c>
+      <c r="F77" s="1">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B78" s="1">
         <v>0.19905</v>
       </c>
-      <c r="E62" s="6">
-        <f t="shared" si="2"/>
-        <v>0.19905</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="C78" s="1">
+        <v>6.6539999999999999</v>
+      </c>
+      <c r="D78" s="1">
+        <v>3.44</v>
+      </c>
+      <c r="E78" s="6">
+        <f>B78+D78</f>
+        <v>3.6390500000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B79" s="1">
         <v>9.0279999999999999E-2</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E79" s="6">
         <f t="shared" si="2"/>
         <v>9.0279999999999999E-2</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F79" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B80" s="1">
         <v>0.25972000000000001</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C80" s="1">
         <v>14.5</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D80" s="1">
         <v>4.2519</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E80" s="6">
         <f t="shared" si="2"/>
         <v>4.5116199999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B81" s="1">
         <v>0.16172</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E81" s="6">
         <f t="shared" si="2"/>
         <v>0.16172</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F81" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B82" s="1">
         <v>0.14399999999999999</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E82" s="6">
         <f t="shared" si="2"/>
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B83" s="1">
         <v>0.29918</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E83" s="6">
         <f t="shared" si="2"/>
         <v>0.29918</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F83" s="1">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B84" s="1">
         <v>0.11191</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E84" s="6">
         <f t="shared" si="2"/>
         <v>0.11191</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B85" s="1">
         <v>0.20174</v>
       </c>
-      <c r="E69" s="6">
-        <f>B69+D35</f>
+      <c r="E85" s="6">
+        <f>B85+D51</f>
         <v>4.8607399999999998</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F85" s="1">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B86" s="1">
         <v>0.12363</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E86" s="6">
         <f t="shared" si="2"/>
         <v>0.12363</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B87" s="1">
         <v>0.1925</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E87" s="6">
         <f t="shared" si="2"/>
         <v>0.1925</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F87" s="1">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B88" s="1">
         <v>8.3280000000000007E-2</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E88" s="6">
         <f t="shared" si="2"/>
         <v>8.3280000000000007E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B89" s="1">
         <v>0.23799999999999999</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E89" s="6">
         <f t="shared" si="2"/>
         <v>0.23799999999999999</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F89" s="1">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B90" s="1">
         <v>0.12200999999999999</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E90" s="6">
         <f t="shared" si="2"/>
         <v>0.12200999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B91" s="1">
         <v>0.15851999999999999</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E91" s="6">
         <f t="shared" si="2"/>
         <v>0.15851999999999999</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F91" s="1">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B92" s="1">
         <v>0.12623000000000001</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E92" s="6">
         <f t="shared" si="2"/>
         <v>0.12623000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B93" s="1">
         <v>0.19725000000000001</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E93" s="6">
         <f t="shared" si="2"/>
         <v>0.19725000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B94" s="1">
         <v>0.13694000000000001</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E94" s="6">
         <f t="shared" si="2"/>
         <v>0.13694000000000001</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F94" s="1">
         <v>-0.08</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B95" s="1">
         <v>0.11362</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E95" s="6">
         <f t="shared" si="2"/>
         <v>0.11362</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B96" s="1">
         <v>0.44784000000000002</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E96" s="6">
         <f t="shared" si="2"/>
         <v>0.44784000000000002</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F96" s="1">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B97" s="1">
         <v>0.27638000000000001</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E97" s="6">
         <f t="shared" si="2"/>
         <v>0.27638000000000001</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F97" s="1">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B98" s="1">
         <v>9.8710000000000006E-2</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E98" s="6">
         <f t="shared" si="2"/>
         <v>9.8710000000000006E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B99" s="1">
         <v>0.21001</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E99" s="6">
         <f t="shared" si="2"/>
         <v>0.21001</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F99" s="1">
         <v>-0.13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B100" s="1">
         <v>0.19574</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E100" s="6">
         <f t="shared" si="2"/>
         <v>0.19574</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B101" s="1">
         <v>6.2740000000000004E-2</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E101" s="6">
         <f t="shared" si="2"/>
         <v>6.2740000000000004E-2</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F101" s="1">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B102" s="1">
         <v>0.16908000000000001</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E102" s="6">
         <f t="shared" si="2"/>
         <v>0.16908000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B103" s="1">
         <v>0.15723999999999999</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E103" s="6">
         <f t="shared" si="2"/>
         <v>0.15723999999999999</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F103" s="1">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B104" s="1">
         <v>5.7930000000000002E-2</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E104" s="6">
         <f t="shared" si="2"/>
         <v>5.7930000000000002E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B105" s="1">
         <v>0.20799999999999999</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E105" s="6">
         <f t="shared" si="2"/>
         <v>0.20799999999999999</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F105" s="1">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B106" s="1">
         <v>0.14298</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E106" s="6">
         <f t="shared" si="2"/>
         <v>0.14298</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B107" s="1">
         <v>0.14215</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E107" s="6">
         <f t="shared" si="2"/>
         <v>0.14215</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F107" s="1">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B108" s="1">
         <v>9.5149999999999998E-2</v>
       </c>
-      <c r="E92" s="6">
-        <f t="shared" ref="E92:E123" si="3">B92+D92</f>
+      <c r="E108" s="6">
+        <f t="shared" ref="E108:E139" si="3">B108+D108</f>
         <v>9.5149999999999998E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B109" s="1">
         <v>0.19455</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E109" s="6">
         <f t="shared" si="3"/>
         <v>0.19455</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F109" s="1">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B110" s="1">
         <v>0.1221</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E110" s="6">
         <f t="shared" si="3"/>
         <v>0.1221</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B111" s="1">
         <v>9.3380000000000005E-2</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E111" s="6">
         <f t="shared" si="3"/>
         <v>9.3380000000000005E-2</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F111" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B112" s="1">
         <v>0.10866000000000001</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E112" s="6">
         <f t="shared" si="3"/>
         <v>0.10866000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B113" s="1">
         <v>0.21836</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E113" s="6">
         <f t="shared" si="3"/>
         <v>0.21836</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F113" s="1">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B114" s="1">
         <v>0.11178</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E114" s="6">
         <f t="shared" si="3"/>
         <v>0.11178</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B115" s="1">
         <v>0.24346999999999999</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E115" s="6">
         <f t="shared" si="3"/>
         <v>0.24346999999999999</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F115" s="1">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B116" s="1">
         <v>8.0930000000000002E-2</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E116" s="6">
         <f t="shared" si="3"/>
         <v>8.0930000000000002E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E101" s="6">
+      <c r="C117" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="D117" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="E117" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B118" s="1">
         <v>0.15595999999999999</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E118" s="6">
         <f t="shared" si="3"/>
         <v>0.15595999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="E103" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B104" s="1">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="E104" s="6">
-        <f t="shared" si="3"/>
-        <v>0.92800000000000005</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C105" s="1">
-        <f>12.688+11.96</f>
-        <v>24.648000000000003</v>
-      </c>
-      <c r="D105" s="1">
-        <v>9.609</v>
-      </c>
-      <c r="E105" s="6">
-        <f t="shared" si="3"/>
-        <v>9.609</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B106" s="1">
-        <v>0.1057</v>
-      </c>
-      <c r="E106" s="6">
-        <f t="shared" si="3"/>
-        <v>0.1057</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E107" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B108" s="1">
-        <v>8.4400000000000003E-2</v>
-      </c>
-      <c r="E108" s="6">
-        <f t="shared" si="3"/>
-        <v>8.4400000000000003E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B109" s="1">
-        <v>0.11948</v>
-      </c>
-      <c r="E109" s="6">
-        <f t="shared" si="3"/>
-        <v>0.11948</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E110" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B111" s="1">
-        <v>0.13216</v>
-      </c>
-      <c r="E111" s="6">
-        <f t="shared" si="3"/>
-        <v>0.13216</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E112" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E113" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B114" s="1">
-        <v>0.1056</v>
-      </c>
-      <c r="E114" s="6">
-        <f t="shared" si="3"/>
-        <v>0.1056</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E115" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B116" s="1">
-        <f>0.05+0.021</f>
-        <v>7.1000000000000008E-2</v>
-      </c>
-      <c r="E116" s="6">
-        <f t="shared" si="3"/>
-        <v>7.1000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E117" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B118" s="1">
-        <v>5.5550000000000002E-2</v>
-      </c>
-      <c r="E118" s="6">
-        <f t="shared" si="3"/>
-        <v>5.5550000000000002E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="E119" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B120" s="1">
-        <v>9.0660000000000004E-2</v>
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="C120" s="1">
+        <v>29.88</v>
+      </c>
+      <c r="D120" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="E120" s="6">
         <f t="shared" si="3"/>
-        <v>9.0660000000000004E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9.2280000000000015</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>185</v>
+        <v>193</v>
+      </c>
+      <c r="C121" s="1">
+        <f>12.688+11.96</f>
+        <v>24.648000000000003</v>
+      </c>
+      <c r="D121" s="1">
+        <v>9.609</v>
       </c>
       <c r="E121" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9.609</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B122" s="1">
-        <v>0.21970000000000001</v>
+        <v>0.1057</v>
+      </c>
+      <c r="C122" s="1">
+        <v>18.41</v>
+      </c>
+      <c r="D122" s="1">
+        <v>7.55</v>
       </c>
       <c r="E122" s="6">
         <f t="shared" si="3"/>
-        <v>0.21970000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7.6556999999999995</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E123" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124" s="1">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="C124" s="1">
+        <v>15.15</v>
+      </c>
+      <c r="D124" s="1">
+        <v>11.77</v>
+      </c>
+      <c r="E124" s="6">
+        <f t="shared" si="3"/>
+        <v>11.8544</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0.11948</v>
+      </c>
+      <c r="C125" s="1">
+        <v>24.44</v>
+      </c>
+      <c r="D125" s="1">
+        <v>8.02</v>
+      </c>
+      <c r="E125" s="6">
+        <f t="shared" si="3"/>
+        <v>8.1394799999999989</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E126" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0.13216</v>
+      </c>
+      <c r="E127" s="6">
+        <f t="shared" si="3"/>
+        <v>0.13216</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E128" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C129" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="D129" s="1">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="E129" s="6">
+        <f t="shared" si="3"/>
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0.1056</v>
+      </c>
+      <c r="C130" s="1">
+        <v>23.53</v>
+      </c>
+      <c r="D130" s="1">
+        <v>7.34</v>
+      </c>
+      <c r="E130" s="6">
+        <f t="shared" si="3"/>
+        <v>7.4455999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E131" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B132" s="1">
+        <f>0.05+0.021</f>
+        <v>7.1000000000000008E-2</v>
+      </c>
+      <c r="E132" s="6">
+        <f t="shared" si="3"/>
+        <v>7.1000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C133" s="1">
+        <v>21.69</v>
+      </c>
+      <c r="D133" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="E133" s="6">
+        <f t="shared" si="3"/>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" s="1">
+        <v>5.5550000000000002E-2</v>
+      </c>
+      <c r="C134" s="1">
+        <v>27.7</v>
+      </c>
+      <c r="D134" s="1">
+        <v>9.4719999999999995</v>
+      </c>
+      <c r="E134" s="6">
+        <f t="shared" si="3"/>
+        <v>9.5275499999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E135" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" s="1">
+        <v>9.0660000000000004E-2</v>
+      </c>
+      <c r="E136" s="6">
+        <f t="shared" si="3"/>
+        <v>9.0660000000000004E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E137" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B138" s="1">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="E138" s="6">
+        <f t="shared" si="3"/>
+        <v>0.21970000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E139" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B140" s="1">
         <v>9.826E-2</v>
       </c>
-      <c r="E124" s="6">
-        <f t="shared" ref="E124:E155" si="4">B124+D124</f>
-        <v>9.826E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
+      <c r="C140" s="1">
+        <v>17</v>
+      </c>
+      <c r="D140" s="1">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E140" s="6">
+        <f t="shared" ref="E140:E187" si="4">B140+D140</f>
+        <v>4.2082600000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E125" s="6">
+      <c r="C141" s="1">
+        <v>24.13</v>
+      </c>
+      <c r="D141" s="1">
+        <v>15.47</v>
+      </c>
+      <c r="E141" s="6">
+        <f t="shared" si="4"/>
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B142" s="1">
+        <v>6.2850000000000003E-2</v>
+      </c>
+      <c r="E142" s="6">
+        <f t="shared" si="4"/>
+        <v>6.2850000000000003E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C143" s="1">
+        <v>26.07</v>
+      </c>
+      <c r="D143" s="1">
+        <v>12.37</v>
+      </c>
+      <c r="E143" s="6">
+        <f t="shared" si="4"/>
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B144" s="1">
+        <v>0.10732</v>
+      </c>
+      <c r="C144" s="1">
+        <v>24.73</v>
+      </c>
+      <c r="D144" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="E144" s="6">
+        <f t="shared" si="4"/>
+        <v>14.65732</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C145" s="1">
+        <v>23.54</v>
+      </c>
+      <c r="D145" s="1">
+        <f>17.51+6.95</f>
+        <v>24.46</v>
+      </c>
+      <c r="E145" s="6">
+        <f t="shared" si="4"/>
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B146" s="1">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="E146" s="6">
+        <f t="shared" si="4"/>
+        <v>8.5599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C147" s="1">
+        <v>15.99</v>
+      </c>
+      <c r="D147" s="1">
+        <v>6.64</v>
+      </c>
+      <c r="E147" s="6">
+        <f t="shared" si="4"/>
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C149" s="1">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="D149" s="1">
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C153" s="1">
+        <v>22.48</v>
+      </c>
+      <c r="D153" s="1">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C154" s="1">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="D154" s="1">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C158" s="1">
+        <v>40.869999999999997</v>
+      </c>
+      <c r="D158" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C160" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="D160" s="1">
+        <v>8.7889999999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C161" s="1">
+        <v>25.98</v>
+      </c>
+      <c r="D161" s="1">
+        <v>16.59</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C163" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="D163" s="1">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B164" s="1">
+        <v>9.7339999999999996E-2</v>
+      </c>
+      <c r="E164" s="6">
+        <f t="shared" si="4"/>
+        <v>9.7339999999999996E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B165" s="1">
+        <v>0.11348</v>
+      </c>
+      <c r="E165" s="6">
+        <f t="shared" si="4"/>
+        <v>0.11348</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B166" s="1">
+        <v>7.4529999999999999E-2</v>
+      </c>
+      <c r="E166" s="6">
+        <f t="shared" si="4"/>
+        <v>7.4529999999999999E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B167" s="1">
+        <v>0.11441</v>
+      </c>
+      <c r="E167" s="6">
+        <f t="shared" si="4"/>
+        <v>0.11441</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B168" s="1">
+        <v>0.11364</v>
+      </c>
+      <c r="E168" s="6">
+        <f t="shared" si="4"/>
+        <v>0.11364</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B169" s="1">
+        <v>0.10153</v>
+      </c>
+      <c r="E169" s="6">
+        <f t="shared" si="4"/>
+        <v>0.10153</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B170" s="1">
+        <v>9.1689999999999994E-2</v>
+      </c>
+      <c r="E170" s="6">
+        <f t="shared" si="4"/>
+        <v>9.1689999999999994E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B171" s="1">
+        <v>0.1221</v>
+      </c>
+      <c r="E171" s="6">
+        <f t="shared" si="4"/>
+        <v>0.1221</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B172" s="1">
+        <v>0.14896999999999999</v>
+      </c>
+      <c r="E172" s="6">
+        <f t="shared" si="4"/>
+        <v>0.14896999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B173" s="1">
+        <v>8.6440000000000003E-2</v>
+      </c>
+      <c r="E173" s="6">
+        <f t="shared" si="4"/>
+        <v>8.6440000000000003E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B174" s="1">
+        <v>0.14696000000000001</v>
+      </c>
+      <c r="E174" s="6">
+        <f t="shared" si="4"/>
+        <v>0.14696000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B175" s="1">
+        <v>0.11192000000000001</v>
+      </c>
+      <c r="E175" s="6">
+        <f t="shared" si="4"/>
+        <v>0.11192000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B176" s="1">
+        <v>0.11283</v>
+      </c>
+      <c r="E176" s="6">
+        <f t="shared" si="4"/>
+        <v>0.11283</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B177" s="1">
+        <v>0.114523</v>
+      </c>
+      <c r="E177" s="6">
+        <f t="shared" si="4"/>
+        <v>0.114523</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B178" s="1">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E178" s="6">
+        <f t="shared" si="4"/>
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B179" s="1">
+        <v>0.10724</v>
+      </c>
+      <c r="E179" s="6">
+        <f t="shared" si="4"/>
+        <v>0.10724</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B180" s="1">
+        <v>8.9440000000000006E-2</v>
+      </c>
+      <c r="E180" s="6">
+        <f t="shared" si="4"/>
+        <v>8.9440000000000006E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C181" s="1">
+        <v>10.477</v>
+      </c>
+      <c r="D181" s="1">
+        <v>6.5220000000000002</v>
+      </c>
+      <c r="E181" s="6">
+        <f t="shared" si="4"/>
+        <v>6.5220000000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B182" s="1">
+        <v>4.2770000000000002E-2</v>
+      </c>
+      <c r="E182" s="6">
+        <f t="shared" si="4"/>
+        <v>4.2770000000000002E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E183" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B126" s="1">
-        <v>6.2850000000000003E-2</v>
-      </c>
-      <c r="E126" s="6">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B184" s="3">
+        <v>0</v>
+      </c>
+      <c r="C184" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="D184" s="1">
+        <v>4.0970000000000004</v>
+      </c>
+      <c r="E184" s="6">
         <f t="shared" si="4"/>
-        <v>6.2850000000000003E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E127" s="6">
+        <v>4.0970000000000004</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E185" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B128" s="1">
-        <v>0.10732</v>
-      </c>
-      <c r="E128" s="6">
-        <f t="shared" si="4"/>
-        <v>0.10732</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E129" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B130" s="1">
-        <v>8.5599999999999996E-2</v>
-      </c>
-      <c r="E130" s="6">
-        <f t="shared" si="4"/>
-        <v>8.5599999999999996E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E131" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B132" s="1">
-        <v>9.7339999999999996E-2</v>
-      </c>
-      <c r="E132" s="6">
-        <f t="shared" si="4"/>
-        <v>9.7339999999999996E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B133" s="1">
-        <v>0.11348</v>
-      </c>
-      <c r="E133" s="6">
-        <f t="shared" si="4"/>
-        <v>0.11348</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B134" s="1">
-        <v>7.4529999999999999E-2</v>
-      </c>
-      <c r="E134" s="6">
-        <f t="shared" si="4"/>
-        <v>7.4529999999999999E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B135" s="1">
-        <v>0.11441</v>
-      </c>
-      <c r="E135" s="6">
-        <f t="shared" si="4"/>
-        <v>0.11441</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B136" s="1">
-        <v>0.11364</v>
-      </c>
-      <c r="E136" s="6">
-        <f t="shared" si="4"/>
-        <v>0.11364</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B137" s="1">
-        <v>0.10153</v>
-      </c>
-      <c r="E137" s="6">
-        <f t="shared" si="4"/>
-        <v>0.10153</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B138" s="1">
-        <v>9.1689999999999994E-2</v>
-      </c>
-      <c r="E138" s="6">
-        <f t="shared" si="4"/>
-        <v>9.1689999999999994E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B139" s="1">
-        <v>0.1221</v>
-      </c>
-      <c r="E139" s="6">
-        <f t="shared" si="4"/>
-        <v>0.1221</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B140" s="1">
-        <v>0.14896999999999999</v>
-      </c>
-      <c r="E140" s="6">
-        <f t="shared" si="4"/>
-        <v>0.14896999999999999</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B141" s="1">
-        <v>8.6440000000000003E-2</v>
-      </c>
-      <c r="E141" s="6">
-        <f t="shared" si="4"/>
-        <v>8.6440000000000003E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B142" s="1">
-        <v>0.14696000000000001</v>
-      </c>
-      <c r="E142" s="6">
-        <f t="shared" si="4"/>
-        <v>0.14696000000000001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B143" s="1">
-        <v>0.11192000000000001</v>
-      </c>
-      <c r="E143" s="6">
-        <f t="shared" si="4"/>
-        <v>0.11192000000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B144" s="1">
-        <v>0.11283</v>
-      </c>
-      <c r="E144" s="6">
-        <f t="shared" si="4"/>
-        <v>0.11283</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B145" s="1">
-        <v>0.114523</v>
-      </c>
-      <c r="E145" s="6">
-        <f t="shared" si="4"/>
-        <v>0.114523</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B146" s="1">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="E146" s="6">
-        <f t="shared" si="4"/>
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B147" s="1">
-        <v>0.10724</v>
-      </c>
-      <c r="E147" s="6">
-        <f t="shared" si="4"/>
-        <v>0.10724</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B148" s="1">
-        <v>8.9440000000000006E-2</v>
-      </c>
-      <c r="E148" s="6">
-        <f t="shared" si="4"/>
-        <v>8.9440000000000006E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E149" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B150" s="1">
-        <v>4.2770000000000002E-2</v>
-      </c>
-      <c r="E150" s="6">
-        <f t="shared" si="4"/>
-        <v>4.2770000000000002E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E151" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E152" s="6" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E153" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B186" s="1">
         <v>6.2140000000000001E-2</v>
       </c>
-      <c r="E154" s="6">
+      <c r="E186" s="6">
         <f t="shared" si="4"/>
         <v>6.2140000000000001E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E155" s="6">
+      <c r="C187" s="1">
+        <v>3.47</v>
+      </c>
+      <c r="D187" s="1">
+        <v>3.306</v>
+      </c>
+      <c r="E187" s="6">
         <f t="shared" si="4"/>
+        <v>3.306</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B188" s="1">
+        <v>3.8440000000000002E-2</v>
+      </c>
+      <c r="C188" s="1">
+        <v>5.375</v>
+      </c>
+      <c r="D188" s="1">
+        <v>1.831</v>
+      </c>
+      <c r="E188" s="6">
+        <f t="shared" ref="E188:E189" si="5">B188+D188</f>
+        <v>1.86944</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B189" s="1">
+        <v>6.8339999999999998E-2</v>
+      </c>
+      <c r="C189" s="1">
+        <v>8.2449999999999992</v>
+      </c>
+      <c r="D189" s="1">
+        <v>3.0609999999999999</v>
+      </c>
+      <c r="E189" s="6">
+        <f t="shared" si="5"/>
+        <v>3.12934</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C190" s="1">
+        <v>5.4260000000000002</v>
+      </c>
+      <c r="D190" s="1">
+        <v>3.8471500000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E191" s="6">
+        <f>B191+D191</f>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B156" s="1">
-        <v>3.8440000000000002E-2</v>
-      </c>
-      <c r="E156" s="6">
-        <f t="shared" ref="E156:E187" si="5">B156+D156</f>
-        <v>3.8440000000000002E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B157" s="1">
-        <v>6.8339999999999998E-2</v>
-      </c>
-      <c r="E157" s="6">
-        <f t="shared" si="5"/>
-        <v>6.8339999999999998E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C158" s="1">
-        <v>5.4260000000000002</v>
-      </c>
-      <c r="D158" s="1">
-        <v>3.8471500000000001</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E159" s="6">
-        <f>B159+D159</f>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B192" s="1">
+        <v>6.3759999999999997E-2</v>
+      </c>
+      <c r="C192" s="1">
+        <v>17.46</v>
+      </c>
+      <c r="D192" s="1">
+        <v>9.7089999999999996</v>
+      </c>
+      <c r="E192" s="6">
+        <f>B192+D192</f>
+        <v>9.7727599999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E193" s="6">
+        <f>B193+D193</f>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B160" s="1">
-        <v>6.3759999999999997E-2</v>
-      </c>
-      <c r="E160" s="6">
-        <f>B160+D160</f>
-        <v>6.3759999999999997E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E161" s="6">
-        <f>B161+D161</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="7" t="s">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C194" s="1">
         <v>11.588010000000001</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D194" s="1">
         <v>7.3784799999999997</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="3" t="s">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B195" s="1">
         <v>6.6970000000000002E-2</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C195" s="1">
         <v>15.71</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D195" s="1">
         <v>6.0713499999999998</v>
       </c>
-      <c r="E163" s="6">
-        <f t="shared" ref="E163:E197" si="6">B163+D163</f>
+      <c r="E195" s="6">
+        <f t="shared" ref="E195:E245" si="6">B195+D195</f>
         <v>6.1383200000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C196" s="1">
         <v>10.210000000000001</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D196" s="1">
         <v>8.2289999999999992</v>
       </c>
-      <c r="E164" s="6">
+      <c r="E196" s="6">
         <f t="shared" si="6"/>
         <v>8.2289999999999992</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E165" s="6">
+      <c r="E197" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B198" s="1">
         <v>5.3719999999999997E-2</v>
       </c>
-      <c r="E166" s="6">
+      <c r="E198" s="6">
         <f t="shared" si="6"/>
         <v>5.3719999999999997E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C199" s="1">
         <v>7.5597799999999999</v>
       </c>
-      <c r="D167" s="1">
+      <c r="D199" s="1">
         <v>4.2313200000000002</v>
       </c>
-      <c r="E167" s="6">
+      <c r="E199" s="6">
         <f t="shared" si="6"/>
         <v>4.2313200000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="3" t="s">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B200" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E168" s="6" t="e">
+      <c r="E200" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E169" s="6">
+      <c r="E201" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B202" s="1">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="E170" s="6">
+      <c r="E202" s="6">
         <f t="shared" si="6"/>
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E171" s="6">
+      <c r="E203" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="s">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B204" s="1">
         <v>4.1309999999999999E-2</v>
       </c>
-      <c r="E172" s="6">
+      <c r="E204" s="6">
         <f t="shared" si="6"/>
         <v>4.1309999999999999E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E173" s="6">
+      <c r="E205" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="3" t="s">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B206" s="1">
         <v>2.5819999999999999E-2</v>
       </c>
-      <c r="E174" s="6">
+      <c r="C206" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="D206" s="1">
+        <v>4.1459999999999999</v>
+      </c>
+      <c r="E206" s="6">
         <f t="shared" si="6"/>
-        <v>2.5819999999999999E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
+        <v>4.1718200000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E175" s="6">
+      <c r="E207" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="3" t="s">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B208" s="1">
         <v>7.7539999999999998E-2</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C208" s="1">
         <v>9.82</v>
       </c>
-      <c r="D176" s="1">
+      <c r="D208" s="1">
         <v>5.9350699999999996</v>
       </c>
-      <c r="E176" s="6">
+      <c r="E208" s="6">
         <f t="shared" si="6"/>
         <v>6.0126099999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E177" s="6">
+      <c r="E209" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B210" s="1">
         <v>2.2429999999999999E-2</v>
       </c>
-      <c r="E178" s="6">
+      <c r="E210" s="6">
         <f t="shared" si="6"/>
         <v>2.2429999999999999E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="4" t="s">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E179" s="6">
+      <c r="C211" s="1">
+        <v>8.92</v>
+      </c>
+      <c r="D211" s="1">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="E211" s="6">
+        <f t="shared" si="6"/>
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B212" s="1">
+        <v>4.1459999999999997E-2</v>
+      </c>
+      <c r="E212" s="6">
+        <f t="shared" si="6"/>
+        <v>4.1459999999999997E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E213" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B180" s="1">
-        <v>4.1459999999999997E-2</v>
-      </c>
-      <c r="E180" s="6">
-        <f t="shared" si="6"/>
-        <v>4.1459999999999997E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E181" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="s">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C219" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="D219" s="1">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B230" s="1">
         <v>0.4834</v>
       </c>
-      <c r="E182" s="6">
+      <c r="E230" s="6">
         <f t="shared" si="6"/>
         <v>0.4834</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B231" s="1">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="C183" s="2"/>
-      <c r="E183" s="6">
+      <c r="C231" s="2"/>
+      <c r="E231" s="6">
         <f t="shared" si="6"/>
         <v>3.3399999999999999E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="2" t="s">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B232" s="1">
         <v>9.5170000000000005E-2</v>
       </c>
-      <c r="E184" s="6">
+      <c r="E232" s="6">
         <f t="shared" si="6"/>
         <v>9.5170000000000005E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B233" s="1">
         <v>7.3599999999999999E-2</v>
       </c>
-      <c r="E185" s="6">
+      <c r="E233" s="6">
         <f t="shared" si="6"/>
         <v>7.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B234" s="1">
         <v>0.17377999999999999</v>
       </c>
-      <c r="E186" s="6">
+      <c r="E234" s="6">
         <f t="shared" si="6"/>
         <v>0.17377999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B235" s="1">
         <v>4.02E-2</v>
       </c>
-      <c r="C187" s="2"/>
-      <c r="E187" s="6">
+      <c r="C235" s="2"/>
+      <c r="E235" s="6">
         <f t="shared" si="6"/>
         <v>4.02E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B236" s="1">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="E188" s="6">
+      <c r="E236" s="6">
         <f t="shared" si="6"/>
         <v>6.0100000000000001E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B237" s="1">
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="C189" s="2"/>
-      <c r="E189" s="6">
+      <c r="C237" s="2"/>
+      <c r="E237" s="6">
         <f t="shared" si="6"/>
         <v>2.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="s">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B238" s="1">
         <v>8.9099999999999999E-2</v>
       </c>
-      <c r="E190" s="6">
+      <c r="E238" s="6">
         <f t="shared" si="6"/>
         <v>8.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="s">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B239" s="1">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="E191" s="6">
+      <c r="E239" s="6">
         <f t="shared" si="6"/>
         <v>8.4099999999999994E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="s">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B240" s="1">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="E192" s="6">
+      <c r="E240" s="6">
         <f t="shared" si="6"/>
         <v>6.9699999999999998E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="2" t="s">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B241" s="1">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="C193" s="2"/>
-      <c r="E193" s="6">
+      <c r="C241" s="2"/>
+      <c r="E241" s="6">
         <f t="shared" si="6"/>
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B242" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C194" s="2"/>
-      <c r="E194" s="6">
+      <c r="C242" s="2"/>
+      <c r="E242" s="6">
         <f t="shared" si="6"/>
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="2" t="s">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B243" s="1">
         <v>0.47</v>
       </c>
-      <c r="C195" s="2"/>
-      <c r="E195" s="6">
+      <c r="C243" s="2"/>
+      <c r="E243" s="6">
         <f t="shared" si="6"/>
         <v>0.47</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B244" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E196" s="6" t="e">
+      <c r="E244" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="2" t="s">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B245" s="1">
         <v>0.44400000000000001</v>
       </c>
-      <c r="C197" s="2"/>
-      <c r="E197" s="6">
+      <c r="C245" s="2"/>
+      <c r="E245" s="6">
         <f t="shared" si="6"/>
         <v>0.44400000000000001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1">
-    <sortState ref="A2:F193">
-      <sortCondition ref="A1:A193"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F241">
+      <sortCondition ref="A1:A241"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/biomass.xlsx
+++ b/data/biomass.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CatherineChamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC4431A-621C-2F4C-B95A-6DC2EB304C7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15020" yWindow="8440" windowWidth="22720" windowHeight="13440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="460" windowWidth="22720" windowHeight="13440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +17,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,15 +31,12 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="264">
   <si>
     <t>individual</t>
   </si>
@@ -237,9 +236,6 @@
     <t>VIBDEN_164</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>BETPOP_14</t>
   </si>
   <si>
@@ -336,9 +332,6 @@
     <t>ALNINC_164</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>SALPUR_14</t>
   </si>
   <si>
@@ -787,18 +780,73 @@
   </si>
   <si>
     <t>SORAME_166</t>
+  </si>
+  <si>
+    <t>SALPUR_16</t>
+  </si>
+  <si>
+    <t>SALPUR_26</t>
+  </si>
+  <si>
+    <t>SALPUR_36</t>
+  </si>
+  <si>
+    <t>SALPUR_46</t>
+  </si>
+  <si>
+    <t>SALPUR_56</t>
+  </si>
+  <si>
+    <t>SALPUR_66</t>
+  </si>
+  <si>
+    <t>SALPUR_76</t>
+  </si>
+  <si>
+    <t>SALPUR_86</t>
+  </si>
+  <si>
+    <t>SALPUR_96</t>
+  </si>
+  <si>
+    <t>SALPUR_106</t>
+  </si>
+  <si>
+    <t>SALPUR_116</t>
+  </si>
+  <si>
+    <t>SALPUR_126</t>
+  </si>
+  <si>
+    <t>SALPUR_136</t>
+  </si>
+  <si>
+    <t>SALPUR_146</t>
+  </si>
+  <si>
+    <t>SALPUR_156</t>
+  </si>
+  <si>
+    <t>SALPUR_166</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -889,11 +937,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1242,14 +1291,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F245"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B174" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D188" sqref="D188"/>
+      <selection pane="bottomRight" activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1267,16 +1316,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1485,22 +1534,22 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C21" s="1">
         <v>9.06</v>
@@ -1511,52 +1560,52 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C31" s="1">
         <v>4.923</v>
@@ -1567,17 +1616,17 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="1">
         <v>0.2732</v>
@@ -1589,7 +1638,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B35" s="1">
         <v>0.18314</v>
@@ -1601,19 +1650,19 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="6" t="e">
+        <v>93</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B37" s="1">
         <v>0.49746000000000001</v>
@@ -1625,7 +1674,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="1">
         <v>0.71364000000000005</v>
@@ -1637,7 +1686,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B39" s="1">
         <v>0.36220000000000002</v>
@@ -1649,7 +1698,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" s="1">
         <v>0.51102999999999998</v>
@@ -1661,7 +1710,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41" s="1">
         <v>0.47699999999999998</v>
@@ -1673,7 +1722,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1">
         <v>0.46990999999999999</v>
@@ -1685,7 +1734,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43" s="1">
         <v>0.41602</v>
@@ -1697,7 +1746,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" s="1">
         <v>0.49452000000000002</v>
@@ -1709,7 +1758,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" s="1">
         <v>0.58830000000000005</v>
@@ -1721,7 +1770,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B46" s="1">
         <v>0.44529999999999997</v>
@@ -1733,7 +1782,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47" s="1">
         <v>0.16341</v>
@@ -1745,7 +1794,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1">
         <v>0.30271999999999999</v>
@@ -1757,7 +1806,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B49" s="1">
         <v>0.39</v>
@@ -1782,7 +1831,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B51" s="1">
         <v>0.18142</v>
@@ -1803,7 +1852,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C52" s="1">
         <v>11.35</v>
@@ -1826,7 +1875,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B54" s="1">
         <v>0.40621000000000002</v>
@@ -1853,7 +1902,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B56" s="1">
         <v>0.29359000000000002</v>
@@ -1880,7 +1929,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B58" s="1">
         <v>0.20619000000000001</v>
@@ -1925,7 +1974,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B61" s="1">
         <v>0.16874</v>
@@ -1953,7 +2002,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B63" s="1">
         <v>0.15673999999999999</v>
@@ -1968,7 +2017,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B64" s="1">
         <v>0.19220999999999999</v>
@@ -1995,7 +2044,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B66" s="1">
         <v>0.20263</v>
@@ -2022,7 +2071,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B68" s="1">
         <v>0.16100999999999999</v>
@@ -2049,7 +2098,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B70" s="1">
         <v>0.10818</v>
@@ -2076,7 +2125,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B72" s="1">
         <v>0.14993999999999999</v>
@@ -2109,7 +2158,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B74" s="1">
         <v>0.12035999999999999</v>
@@ -2124,7 +2173,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C75" s="1">
         <v>9.1739999999999995</v>
@@ -2147,7 +2196,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B77" s="1">
         <v>0.12628</v>
@@ -2186,7 +2235,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B79" s="1">
         <v>9.0279999999999999E-2</v>
@@ -2219,7 +2268,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B81" s="1">
         <v>0.16172</v>
@@ -2246,7 +2295,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B83" s="1">
         <v>0.29918</v>
@@ -2261,7 +2310,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" s="1">
         <v>0.11191</v>
@@ -2273,7 +2322,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B85" s="1">
         <v>0.20174</v>
@@ -2288,7 +2337,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B86" s="1">
         <v>0.12363</v>
@@ -2300,7 +2349,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B87" s="1">
         <v>0.1925</v>
@@ -2315,7 +2364,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B88" s="1">
         <v>8.3280000000000007E-2</v>
@@ -2327,7 +2376,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B89" s="1">
         <v>0.23799999999999999</v>
@@ -2342,7 +2391,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B90" s="1">
         <v>0.12200999999999999</v>
@@ -2354,7 +2403,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B91" s="1">
         <v>0.15851999999999999</v>
@@ -2369,7 +2418,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B92" s="1">
         <v>0.12623000000000001</v>
@@ -2381,7 +2430,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B93" s="1">
         <v>0.19725000000000001</v>
@@ -2393,7 +2442,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B94" s="1">
         <v>0.13694000000000001</v>
@@ -2408,7 +2457,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B95" s="1">
         <v>0.11362</v>
@@ -2420,7 +2469,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B96" s="1">
         <v>0.44784000000000002</v>
@@ -2435,7 +2484,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B97" s="1">
         <v>0.27638000000000001</v>
@@ -2450,7 +2499,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B98" s="1">
         <v>9.8710000000000006E-2</v>
@@ -2462,7 +2511,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B99" s="1">
         <v>0.21001</v>
@@ -2477,7 +2526,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B100" s="1">
         <v>0.19574</v>
@@ -2489,7 +2538,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B101" s="1">
         <v>6.2740000000000004E-2</v>
@@ -2504,7 +2553,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B102" s="1">
         <v>0.16908000000000001</v>
@@ -2516,7 +2565,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B103" s="1">
         <v>0.15723999999999999</v>
@@ -2531,7 +2580,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B104" s="1">
         <v>5.7930000000000002E-2</v>
@@ -2543,7 +2592,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B105" s="1">
         <v>0.20799999999999999</v>
@@ -2558,7 +2607,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B106" s="1">
         <v>0.14298</v>
@@ -2570,7 +2619,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B107" s="1">
         <v>0.14215</v>
@@ -2585,7 +2634,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B108" s="1">
         <v>9.5149999999999998E-2</v>
@@ -2597,7 +2646,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B109" s="1">
         <v>0.19455</v>
@@ -2612,7 +2661,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B110" s="1">
         <v>0.1221</v>
@@ -2624,7 +2673,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B111" s="1">
         <v>9.3380000000000005E-2</v>
@@ -2639,7 +2688,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B112" s="1">
         <v>0.10866000000000001</v>
@@ -2651,7 +2700,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B113" s="1">
         <v>0.21836</v>
@@ -2666,7 +2715,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B114" s="1">
         <v>0.11178</v>
@@ -2678,7 +2727,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B115" s="1">
         <v>0.24346999999999999</v>
@@ -2705,7 +2754,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
+      </c>
+      <c r="B117" s="9">
+        <v>0.10958</v>
       </c>
       <c r="C117" s="1">
         <v>24.3</v>
@@ -2715,7 +2767,7 @@
       </c>
       <c r="E117" s="6">
         <f t="shared" si="3"/>
-        <v>10.7</v>
+        <v>10.809579999999999</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -2732,11 +2784,14 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
+      </c>
+      <c r="B119" s="9">
+        <v>0.13139999999999999</v>
       </c>
       <c r="E119" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.13139999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -2759,7 +2814,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="B121" s="9">
+        <v>0.17287</v>
       </c>
       <c r="C121" s="1">
         <f>12.688+11.96</f>
@@ -2770,7 +2828,7 @@
       </c>
       <c r="E121" s="6">
         <f t="shared" si="3"/>
-        <v>9.609</v>
+        <v>9.7818699999999996</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -2793,11 +2851,14 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="B123" s="9">
+        <v>0.15643000000000001</v>
       </c>
       <c r="E123" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.15643000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -2838,11 +2899,14 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+      <c r="B126" s="9">
+        <v>8.7359999999999993E-2</v>
       </c>
       <c r="E126" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.7359999999999993E-2</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -2859,16 +2923,22 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="B128" s="9">
+        <v>0.11461</v>
       </c>
       <c r="E128" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.11461</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="B129" s="9">
+        <v>0.13905000000000001</v>
       </c>
       <c r="C129" s="1">
         <v>18.3</v>
@@ -2878,7 +2948,7 @@
       </c>
       <c r="E129" s="6">
         <f t="shared" si="3"/>
-        <v>4.7300000000000004</v>
+        <v>4.8690500000000005</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -2901,11 +2971,14 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
+      </c>
+      <c r="B131" s="9">
+        <v>8.0960000000000004E-2</v>
       </c>
       <c r="E131" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.0960000000000004E-2</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -2923,7 +2996,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="B133" s="9">
+        <v>0.11491999999999999</v>
       </c>
       <c r="C133" s="1">
         <v>21.69</v>
@@ -2933,7 +3009,7 @@
       </c>
       <c r="E133" s="6">
         <f t="shared" si="3"/>
-        <v>10.3</v>
+        <v>10.41492</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -2956,11 +3032,14 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="B135" s="9">
+        <v>0.14298</v>
       </c>
       <c r="E135" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.14298</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -2977,11 +3056,14 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="B137" s="9">
+        <v>0.12481</v>
       </c>
       <c r="E137" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.12481</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -2998,11 +3080,14 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="B139" s="9">
+        <v>0.15701499999999999</v>
       </c>
       <c r="E139" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.15701499999999999</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -3025,7 +3110,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="B141" s="9">
+        <v>0.12698000000000001</v>
       </c>
       <c r="C141" s="1">
         <v>24.13</v>
@@ -3035,7 +3123,7 @@
       </c>
       <c r="E141" s="6">
         <f t="shared" si="4"/>
-        <v>15.47</v>
+        <v>15.59698</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -3052,7 +3140,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="B143" s="9">
+        <v>0.10321</v>
       </c>
       <c r="C143" s="1">
         <v>26.07</v>
@@ -3062,7 +3153,7 @@
       </c>
       <c r="E143" s="6">
         <f t="shared" si="4"/>
-        <v>12.37</v>
+        <v>12.47321</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -3085,7 +3176,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
+      </c>
+      <c r="B145" s="9">
+        <v>0.10077</v>
       </c>
       <c r="C145" s="1">
         <v>23.54</v>
@@ -3096,7 +3190,7 @@
       </c>
       <c r="E145" s="6">
         <f t="shared" si="4"/>
-        <v>24.46</v>
+        <v>24.560770000000002</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -3113,7 +3207,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+      <c r="B147" s="9">
+        <v>0.13514000000000001</v>
       </c>
       <c r="C147" s="1">
         <v>15.99</v>
@@ -3123,17 +3220,17 @@
       </c>
       <c r="E147" s="6">
         <f t="shared" si="4"/>
-        <v>6.64</v>
+        <v>6.7751399999999995</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C149" s="1">
         <v>16.329999999999998</v>
@@ -3144,22 +3241,22 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C153" s="1">
         <v>22.48</v>
@@ -3170,7 +3267,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C154" s="1">
         <v>37.299999999999997</v>
@@ -3181,22 +3278,22 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C158" s="1">
         <v>40.869999999999997</v>
@@ -3207,12 +3304,12 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C160" s="1">
         <v>25.6</v>
@@ -3223,7 +3320,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C161" s="1">
         <v>25.98</v>
@@ -3234,12 +3331,12 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C163" s="1">
         <v>45.6</v>
@@ -3250,7 +3347,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B164" s="1">
         <v>9.7339999999999996E-2</v>
@@ -3262,7 +3359,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B165" s="1">
         <v>0.11348</v>
@@ -3274,7 +3371,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B166" s="1">
         <v>7.4529999999999999E-2</v>
@@ -3286,7 +3383,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B167" s="1">
         <v>0.11441</v>
@@ -3298,7 +3395,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B168" s="1">
         <v>0.11364</v>
@@ -3310,7 +3407,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B169" s="1">
         <v>0.10153</v>
@@ -3322,7 +3419,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B170" s="1">
         <v>9.1689999999999994E-2</v>
@@ -3334,7 +3431,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B171" s="1">
         <v>0.1221</v>
@@ -3346,7 +3443,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B172" s="1">
         <v>0.14896999999999999</v>
@@ -3358,7 +3455,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B173" s="1">
         <v>8.6440000000000003E-2</v>
@@ -3370,7 +3467,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B174" s="1">
         <v>0.14696000000000001</v>
@@ -3382,7 +3479,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B175" s="1">
         <v>0.11192000000000001</v>
@@ -3394,7 +3491,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B176" s="1">
         <v>0.11283</v>
@@ -3406,7 +3503,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B177" s="1">
         <v>0.114523</v>
@@ -3418,7 +3515,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B178" s="1">
         <v>0.10299999999999999</v>
@@ -3430,7 +3527,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B179" s="1">
         <v>0.10724</v>
@@ -3442,7 +3539,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B180" s="1">
         <v>8.9440000000000006E-2</v>
@@ -3454,7 +3551,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C181" s="1">
         <v>10.477</v>
@@ -3469,7 +3566,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B182" s="1">
         <v>4.2770000000000002E-2</v>
@@ -3481,7 +3578,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E183" s="6">
         <f t="shared" si="4"/>
@@ -3490,7 +3587,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B184" s="3">
         <v>0</v>
@@ -3508,7 +3605,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E185" s="6">
         <f t="shared" si="4"/>
@@ -3517,7 +3614,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B186" s="1">
         <v>6.2140000000000001E-2</v>
@@ -3529,7 +3626,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C187" s="1">
         <v>3.47</v>
@@ -3544,7 +3641,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B188" s="1">
         <v>3.8440000000000002E-2</v>
@@ -3562,7 +3659,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B189" s="1">
         <v>6.8339999999999998E-2</v>
@@ -3580,7 +3677,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C190" s="1">
         <v>5.4260000000000002</v>
@@ -3591,7 +3688,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E191" s="6">
         <f>B191+D191</f>
@@ -3600,7 +3697,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B192" s="1">
         <v>6.3759999999999997E-2</v>
@@ -3618,7 +3715,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E193" s="6">
         <f>B193+D193</f>
@@ -3627,7 +3724,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C194" s="1">
         <v>11.588010000000001</v>
@@ -3638,7 +3735,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B195" s="1">
         <v>6.6970000000000002E-2</v>
@@ -3650,13 +3747,13 @@
         <v>6.0713499999999998</v>
       </c>
       <c r="E195" s="6">
-        <f t="shared" ref="E195:E245" si="6">B195+D195</f>
+        <f t="shared" ref="E195:E258" si="6">B195+D195</f>
         <v>6.1383200000000002</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C196" s="1">
         <v>10.210000000000001</v>
@@ -3671,7 +3768,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E197" s="6">
         <f t="shared" si="6"/>
@@ -3680,7 +3777,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B198" s="1">
         <v>5.3719999999999997E-2</v>
@@ -3692,7 +3789,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C199" s="1">
         <v>7.5597799999999999</v>
@@ -3707,19 +3804,19 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E200" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>116</v>
+      </c>
+      <c r="B200" s="3">
+        <v>0</v>
+      </c>
+      <c r="E200" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E201" s="6">
         <f t="shared" si="6"/>
@@ -3728,7 +3825,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B202" s="1">
         <v>4.9099999999999998E-2</v>
@@ -3740,7 +3837,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E203" s="6">
         <f t="shared" si="6"/>
@@ -3749,7 +3846,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B204" s="1">
         <v>4.1309999999999999E-2</v>
@@ -3761,7 +3858,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E205" s="6">
         <f t="shared" si="6"/>
@@ -3770,7 +3867,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B206" s="1">
         <v>2.5819999999999999E-2</v>
@@ -3788,7 +3885,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E207" s="6">
         <f t="shared" si="6"/>
@@ -3797,7 +3894,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B208" s="1">
         <v>7.7539999999999998E-2</v>
@@ -3815,7 +3912,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E209" s="6">
         <f t="shared" si="6"/>
@@ -3824,7 +3921,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B210" s="1">
         <v>2.2429999999999999E-2</v>
@@ -3836,7 +3933,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C211" s="1">
         <v>8.92</v>
@@ -3851,7 +3948,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B212" s="1">
         <v>4.1459999999999997E-2</v>
@@ -3863,7 +3960,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E213" s="6">
         <f t="shared" si="6"/>
@@ -3872,32 +3969,32 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C219" s="1">
         <v>2.65</v>
@@ -3908,52 +4005,52 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -4134,12 +4231,12 @@
       <c r="A244" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E244" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="B244" s="2">
+        <v>0</v>
+      </c>
+      <c r="E244" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -4155,9 +4252,233 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B246" s="9">
+        <v>0.10641</v>
+      </c>
+      <c r="C246" s="9"/>
+      <c r="D246" s="9"/>
+      <c r="E246" s="9">
+        <f t="shared" si="6"/>
+        <v>0.10641</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B247" s="9">
+        <v>7.8030000000000002E-2</v>
+      </c>
+      <c r="C247" s="9"/>
+      <c r="D247" s="9"/>
+      <c r="E247" s="9">
+        <f t="shared" si="6"/>
+        <v>7.8030000000000002E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B248" s="9">
+        <v>9.3590000000000007E-2</v>
+      </c>
+      <c r="C248" s="9"/>
+      <c r="D248" s="9"/>
+      <c r="E248" s="9">
+        <f t="shared" si="6"/>
+        <v>9.3590000000000007E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B249" s="9">
+        <v>0.21626999999999999</v>
+      </c>
+      <c r="C249" s="9"/>
+      <c r="D249" s="9"/>
+      <c r="E249" s="9">
+        <f t="shared" si="6"/>
+        <v>0.21626999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B250" s="9">
+        <v>0.126</v>
+      </c>
+      <c r="C250" s="9"/>
+      <c r="D250" s="9"/>
+      <c r="E250" s="9">
+        <f t="shared" si="6"/>
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B251" s="9">
+        <v>0.10925</v>
+      </c>
+      <c r="C251" s="9"/>
+      <c r="D251" s="9"/>
+      <c r="E251" s="9">
+        <f t="shared" si="6"/>
+        <v>0.10925</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B252" s="9">
+        <v>0.10424</v>
+      </c>
+      <c r="C252" s="9"/>
+      <c r="D252" s="9"/>
+      <c r="E252" s="9">
+        <f t="shared" si="6"/>
+        <v>0.10424</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B253" s="9">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="C253" s="9"/>
+      <c r="D253" s="9"/>
+      <c r="E253" s="9">
+        <f t="shared" si="6"/>
+        <v>7.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B254" s="9">
+        <v>6.9059999999999996E-2</v>
+      </c>
+      <c r="C254" s="9"/>
+      <c r="D254" s="9"/>
+      <c r="E254" s="9">
+        <f t="shared" si="6"/>
+        <v>6.9059999999999996E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B255" s="9">
+        <v>6.4740000000000006E-2</v>
+      </c>
+      <c r="C255" s="9"/>
+      <c r="D255" s="9"/>
+      <c r="E255" s="9">
+        <f t="shared" si="6"/>
+        <v>6.4740000000000006E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B256" s="9">
+        <v>7.6980000000000007E-2</v>
+      </c>
+      <c r="C256" s="9"/>
+      <c r="D256" s="9"/>
+      <c r="E256" s="9">
+        <f t="shared" si="6"/>
+        <v>7.6980000000000007E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B257" s="9">
+        <v>6.3079999999999997E-2</v>
+      </c>
+      <c r="C257" s="9"/>
+      <c r="D257" s="9"/>
+      <c r="E257" s="9">
+        <f t="shared" si="6"/>
+        <v>6.3079999999999997E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B258" s="9">
+        <v>6.6589999999999996E-2</v>
+      </c>
+      <c r="C258" s="9"/>
+      <c r="D258" s="9"/>
+      <c r="E258" s="9">
+        <f t="shared" si="6"/>
+        <v>6.6589999999999996E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B259" s="9">
+        <v>0.10922999999999999</v>
+      </c>
+      <c r="C259" s="9"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="9">
+        <f t="shared" ref="E259:E261" si="7">B259+D259</f>
+        <v>0.10922999999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B260" s="9">
+        <v>5.4550000000000001E-2</v>
+      </c>
+      <c r="C260" s="9"/>
+      <c r="D260" s="9"/>
+      <c r="E260" s="9">
+        <f t="shared" si="7"/>
+        <v>5.4550000000000001E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B261" s="9">
+        <v>7.7310000000000004E-2</v>
+      </c>
+      <c r="C261" s="9"/>
+      <c r="D261" s="9"/>
+      <c r="E261" s="9">
+        <f t="shared" si="7"/>
+        <v>7.7310000000000004E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F241">
+  <autoFilter ref="A1:F1">
+    <sortState ref="A2:F241">
       <sortCondition ref="A1:A241"/>
     </sortState>
   </autoFilter>

--- a/data/biomass.xlsx
+++ b/data/biomass.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CatherineChamberlain/Documents/git/chillfreeze/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E131C42B-BCE0-0748-8C6B-48BB73A16BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="460" windowWidth="22720" windowHeight="13440" tabRatio="500"/>
+    <workbookView xWindow="4780" yWindow="460" windowWidth="22720" windowHeight="13440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,13 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,12 +29,15 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="278">
   <si>
     <t>individual</t>
   </si>
@@ -828,18 +829,67 @@
   </si>
   <si>
     <t>SALPUR_166</t>
+  </si>
+  <si>
+    <t>BETPAP_18</t>
+  </si>
+  <si>
+    <t>BETPAP_28</t>
+  </si>
+  <si>
+    <t>BETPAP_38</t>
+  </si>
+  <si>
+    <t>BETPAP_48</t>
+  </si>
+  <si>
+    <t>BETPAP_68</t>
+  </si>
+  <si>
+    <t>BETPAP_78</t>
+  </si>
+  <si>
+    <t>BETPAP_88</t>
+  </si>
+  <si>
+    <t>BETPAP_98</t>
+  </si>
+  <si>
+    <t>BETPAP_118</t>
+  </si>
+  <si>
+    <t>BETPAP_128</t>
+  </si>
+  <si>
+    <t>BETPAP_138</t>
+  </si>
+  <si>
+    <t>BETPAP_148</t>
+  </si>
+  <si>
+    <t>BETPAP_158</t>
+  </si>
+  <si>
+    <t>BETPAP_168</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -937,11 +987,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1291,14 +1342,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F261"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B218" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B147" sqref="B147"/>
+      <selection pane="bottomRight" activeCell="G232" sqref="G232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1869,7 +1920,7 @@
         <v>0.12055</v>
       </c>
       <c r="E53" s="6">
-        <f t="shared" ref="E53:E74" si="1">B53+D53</f>
+        <f t="shared" ref="E53:E72" si="1">B53+D53</f>
         <v>0.12055</v>
       </c>
     </row>
@@ -2091,9 +2142,15 @@
       <c r="B69" s="1">
         <v>0.11369</v>
       </c>
+      <c r="C69" s="1">
+        <v>12.91</v>
+      </c>
+      <c r="D69" s="1">
+        <v>12.99</v>
+      </c>
       <c r="E69" s="6">
         <f t="shared" si="1"/>
-        <v>0.11369</v>
+        <v>13.10369</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2151,9 +2208,9 @@
       <c r="D73" s="1">
         <v>3.0059999999999998</v>
       </c>
-      <c r="E73" s="6" t="e">
-        <f>B73+#REF!</f>
-        <v>#REF!</v>
+      <c r="E73" s="6">
+        <f>B73+D73</f>
+        <v>3.1860099999999996</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2163,9 +2220,15 @@
       <c r="B74" s="1">
         <v>0.12035999999999999</v>
       </c>
+      <c r="C74" s="1">
+        <v>4.3490000000000002</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2.9710000000000001</v>
+      </c>
       <c r="E74" s="6">
-        <f t="shared" si="1"/>
-        <v>0.12035999999999999</v>
+        <f>B74+D74</f>
+        <v>3.0913599999999999</v>
       </c>
       <c r="F74" s="1">
         <v>-0.08</v>
@@ -2190,7 +2253,7 @@
         <v>0.14280000000000001</v>
       </c>
       <c r="E76" s="6">
-        <f t="shared" ref="E76:E107" si="2">B76+D76</f>
+        <f t="shared" ref="E76:E123" si="2">B76+D76</f>
         <v>0.14280000000000001</v>
       </c>
     </row>
@@ -2201,15 +2264,9 @@
       <c r="B77" s="1">
         <v>0.12628</v>
       </c>
-      <c r="C77" s="1">
-        <v>4.3490000000000002</v>
-      </c>
-      <c r="D77" s="1">
-        <v>2.9710000000000001</v>
-      </c>
       <c r="E77" s="6">
-        <f t="shared" si="2"/>
-        <v>3.09728</v>
+        <f>B77+D77</f>
+        <v>0.12628</v>
       </c>
       <c r="F77" s="1">
         <v>-0.06</v>
@@ -2222,15 +2279,9 @@
       <c r="B78" s="1">
         <v>0.19905</v>
       </c>
-      <c r="C78" s="1">
-        <v>6.6539999999999999</v>
-      </c>
-      <c r="D78" s="1">
-        <v>3.44</v>
-      </c>
       <c r="E78" s="6">
         <f>B78+D78</f>
-        <v>3.6390500000000001</v>
+        <v>0.19905</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2273,9 +2324,15 @@
       <c r="B81" s="1">
         <v>0.16172</v>
       </c>
+      <c r="C81" s="1">
+        <v>6.6539999999999999</v>
+      </c>
+      <c r="D81" s="1">
+        <v>3.44</v>
+      </c>
       <c r="E81" s="6">
         <f t="shared" si="2"/>
-        <v>0.16172</v>
+        <v>3.6017199999999998</v>
       </c>
       <c r="F81" s="1">
         <v>0.01</v>
@@ -2309,1658 +2366,1624 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C92" s="1">
+        <v>25.95</v>
+      </c>
+      <c r="D92" s="1">
+        <v>18.649999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C96" s="1">
+        <v>23.22</v>
+      </c>
+      <c r="D96" s="1">
+        <v>16.07</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B100" s="1">
         <v>0.11191</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E100" s="6">
         <f t="shared" si="2"/>
         <v>0.11191</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B101" s="1">
         <v>0.20174</v>
       </c>
-      <c r="E85" s="6">
-        <f>B85+D51</f>
+      <c r="E101" s="6">
+        <f>B101+D51</f>
         <v>4.8607399999999998</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F101" s="1">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B102" s="1">
         <v>0.12363</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E102" s="6">
         <f t="shared" si="2"/>
         <v>0.12363</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B103" s="1">
         <v>0.1925</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E103" s="6">
         <f t="shared" si="2"/>
         <v>0.1925</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F103" s="1">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B104" s="1">
         <v>8.3280000000000007E-2</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E104" s="6">
         <f t="shared" si="2"/>
         <v>8.3280000000000007E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B105" s="1">
         <v>0.23799999999999999</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E105" s="6">
         <f t="shared" si="2"/>
         <v>0.23799999999999999</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F105" s="1">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B106" s="1">
         <v>0.12200999999999999</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E106" s="6">
         <f t="shared" si="2"/>
         <v>0.12200999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B107" s="1">
         <v>0.15851999999999999</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E107" s="6">
         <f t="shared" si="2"/>
         <v>0.15851999999999999</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F107" s="1">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B108" s="1">
         <v>0.12623000000000001</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E108" s="6">
         <f t="shared" si="2"/>
         <v>0.12623000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B109" s="1">
         <v>0.19725000000000001</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E109" s="6">
         <f t="shared" si="2"/>
         <v>0.19725000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B110" s="1">
         <v>0.13694000000000001</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E110" s="6">
         <f t="shared" si="2"/>
         <v>0.13694000000000001</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F110" s="1">
         <v>-0.08</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B111" s="1">
         <v>0.11362</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E111" s="6">
         <f t="shared" si="2"/>
         <v>0.11362</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B112" s="1">
         <v>0.44784000000000002</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E112" s="6">
         <f t="shared" si="2"/>
         <v>0.44784000000000002</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F112" s="1">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B113" s="1">
         <v>0.27638000000000001</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E113" s="6">
         <f t="shared" si="2"/>
         <v>0.27638000000000001</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F113" s="1">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B114" s="1">
         <v>9.8710000000000006E-2</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E114" s="6">
         <f t="shared" si="2"/>
         <v>9.8710000000000006E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B115" s="1">
         <v>0.21001</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E115" s="6">
         <f t="shared" si="2"/>
         <v>0.21001</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F115" s="1">
         <v>-0.13</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B116" s="1">
         <v>0.19574</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E116" s="6">
         <f t="shared" si="2"/>
         <v>0.19574</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B117" s="1">
         <v>6.2740000000000004E-2</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E117" s="6">
         <f t="shared" si="2"/>
         <v>6.2740000000000004E-2</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F117" s="1">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B118" s="1">
         <v>0.16908000000000001</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E118" s="6">
         <f t="shared" si="2"/>
         <v>0.16908000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B119" s="1">
         <v>0.15723999999999999</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E119" s="6">
         <f t="shared" si="2"/>
         <v>0.15723999999999999</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F119" s="1">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B120" s="1">
         <v>5.7930000000000002E-2</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E120" s="6">
         <f t="shared" si="2"/>
         <v>5.7930000000000002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B121" s="1">
         <v>0.20799999999999999</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E121" s="6">
         <f t="shared" si="2"/>
         <v>0.20799999999999999</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F121" s="1">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B122" s="1">
         <v>0.14298</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E122" s="6">
         <f t="shared" si="2"/>
         <v>0.14298</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B123" s="1">
         <v>0.14215</v>
       </c>
-      <c r="E107" s="6">
+      <c r="E123" s="6">
         <f t="shared" si="2"/>
         <v>0.14215</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F123" s="1">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B124" s="1">
         <v>9.5149999999999998E-2</v>
       </c>
-      <c r="E108" s="6">
-        <f t="shared" ref="E108:E139" si="3">B108+D108</f>
+      <c r="E124" s="6">
+        <f t="shared" ref="E124:E155" si="3">B124+D124</f>
         <v>9.5149999999999998E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B125" s="1">
         <v>0.19455</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E125" s="6">
         <f t="shared" si="3"/>
         <v>0.19455</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F125" s="1">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B126" s="1">
         <v>0.1221</v>
       </c>
-      <c r="E110" s="6">
+      <c r="E126" s="6">
         <f t="shared" si="3"/>
         <v>0.1221</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B127" s="1">
         <v>9.3380000000000005E-2</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E127" s="6">
         <f t="shared" si="3"/>
         <v>9.3380000000000005E-2</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F127" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B128" s="1">
         <v>0.10866000000000001</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E128" s="6">
         <f t="shared" si="3"/>
         <v>0.10866000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B129" s="1">
         <v>0.21836</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E129" s="6">
         <f t="shared" si="3"/>
         <v>0.21836</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F129" s="1">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B130" s="1">
         <v>0.11178</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E130" s="6">
         <f t="shared" si="3"/>
         <v>0.11178</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B131" s="1">
         <v>0.24346999999999999</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E131" s="6">
         <f t="shared" si="3"/>
         <v>0.24346999999999999</v>
       </c>
-      <c r="F115" s="1">
+      <c r="F131" s="1">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B132" s="1">
         <v>8.0930000000000002E-2</v>
       </c>
-      <c r="E116" s="6">
+      <c r="C132" s="1">
+        <v>28.39</v>
+      </c>
+      <c r="D132" s="1">
+        <v>16.84</v>
+      </c>
+      <c r="E132" s="6">
         <f t="shared" si="3"/>
-        <v>8.0930000000000002E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
+        <v>16.920929999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B133" s="9">
         <v>0.10958</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C133" s="1">
         <v>24.3</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D133" s="1">
         <v>10.7</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E133" s="6">
         <f t="shared" si="3"/>
         <v>10.809579999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B134" s="1">
         <v>0.15595999999999999</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E134" s="6">
         <f t="shared" si="3"/>
         <v>0.15595999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B119" s="9">
+      <c r="B135" s="9">
         <v>0.13139999999999999</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E135" s="6">
         <f t="shared" si="3"/>
         <v>0.13139999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B136" s="1">
         <v>0.92800000000000005</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C136" s="1">
         <v>29.88</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D136" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E120" s="6">
+      <c r="E136" s="6">
         <f t="shared" si="3"/>
         <v>9.2280000000000015</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B121" s="9">
+      <c r="B137" s="9">
         <v>0.17287</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C137" s="1">
         <f>12.688+11.96</f>
         <v>24.648000000000003</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D137" s="1">
         <v>9.609</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E137" s="6">
         <f t="shared" si="3"/>
         <v>9.7818699999999996</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B138" s="1">
         <v>0.1057</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C138" s="1">
         <v>18.41</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D138" s="1">
         <v>7.55</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E138" s="6">
         <f t="shared" si="3"/>
         <v>7.6556999999999995</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B123" s="9">
+      <c r="B139" s="9">
         <v>0.15643000000000001</v>
       </c>
-      <c r="E123" s="6">
+      <c r="E139" s="6">
         <f t="shared" si="3"/>
         <v>0.15643000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B140" s="1">
         <v>8.4400000000000003E-2</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C140" s="1">
         <v>15.15</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D140" s="1">
         <v>11.77</v>
       </c>
-      <c r="E124" s="6">
+      <c r="E140" s="6">
         <f t="shared" si="3"/>
         <v>11.8544</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B141" s="1">
         <v>0.11948</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C141" s="1">
         <v>24.44</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D141" s="1">
         <v>8.02</v>
       </c>
-      <c r="E125" s="6">
+      <c r="E141" s="6">
         <f t="shared" si="3"/>
         <v>8.1394799999999989</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B126" s="9">
+      <c r="B142" s="9">
         <v>8.7359999999999993E-2</v>
       </c>
-      <c r="E126" s="6">
+      <c r="E142" s="6">
         <f t="shared" si="3"/>
         <v>8.7359999999999993E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B143" s="1">
         <v>0.13216</v>
       </c>
-      <c r="E127" s="6">
+      <c r="C143" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="D143" s="1">
+        <v>16.12</v>
+      </c>
+      <c r="E143" s="6">
         <f t="shared" si="3"/>
-        <v>0.13216</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
+        <v>16.25216</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B144" s="9">
         <v>0.11461</v>
       </c>
-      <c r="E128" s="6">
+      <c r="E144" s="6">
         <f t="shared" si="3"/>
         <v>0.11461</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B129" s="9">
+      <c r="B145" s="9">
         <v>0.13905000000000001</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C145" s="1">
         <v>18.3</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D145" s="1">
         <v>4.7300000000000004</v>
       </c>
-      <c r="E129" s="6">
+      <c r="E145" s="6">
         <f t="shared" si="3"/>
         <v>4.8690500000000005</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B146" s="1">
         <v>0.1056</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C146" s="1">
         <v>23.53</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D146" s="1">
         <v>7.34</v>
       </c>
-      <c r="E130" s="6">
+      <c r="E146" s="6">
         <f t="shared" si="3"/>
         <v>7.4455999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B131" s="9">
+      <c r="B147" s="9">
         <v>8.0960000000000004E-2</v>
       </c>
-      <c r="E131" s="6">
+      <c r="C147" s="1">
+        <v>28.31</v>
+      </c>
+      <c r="D147" s="1">
+        <v>21.15</v>
+      </c>
+      <c r="E147" s="6">
         <f t="shared" si="3"/>
-        <v>8.0960000000000004E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
+        <v>21.23096</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B148" s="1">
         <f>0.05+0.021</f>
         <v>7.1000000000000008E-2</v>
       </c>
-      <c r="E132" s="6">
+      <c r="E148" s="6">
         <f t="shared" si="3"/>
         <v>7.1000000000000008E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B133" s="9">
+      <c r="B149" s="9">
         <v>0.11491999999999999</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C149" s="1">
         <v>21.69</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D149" s="1">
         <v>10.3</v>
       </c>
-      <c r="E133" s="6">
+      <c r="E149" s="6">
         <f t="shared" si="3"/>
         <v>10.41492</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B150" s="1">
         <v>5.5550000000000002E-2</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C150" s="1">
         <v>27.7</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D150" s="1">
         <v>9.4719999999999995</v>
       </c>
-      <c r="E134" s="6">
+      <c r="E150" s="6">
         <f t="shared" si="3"/>
         <v>9.5275499999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B135" s="9">
+      <c r="B151" s="9">
         <v>0.14298</v>
       </c>
-      <c r="E135" s="6">
+      <c r="E151" s="6">
         <f t="shared" si="3"/>
         <v>0.14298</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B152" s="1">
         <v>9.0660000000000004E-2</v>
       </c>
-      <c r="E136" s="6">
+      <c r="C152" s="1">
+        <v>38.9</v>
+      </c>
+      <c r="D152" s="1">
+        <v>16.27</v>
+      </c>
+      <c r="E152" s="6">
         <f t="shared" si="3"/>
-        <v>9.0660000000000004E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
+        <v>16.360659999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B137" s="9">
+      <c r="B153" s="9">
         <v>0.12481</v>
       </c>
-      <c r="E137" s="6">
+      <c r="E153" s="6">
         <f t="shared" si="3"/>
         <v>0.12481</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B154" s="1">
         <v>0.21970000000000001</v>
       </c>
-      <c r="E138" s="6">
+      <c r="E154" s="6">
         <f t="shared" si="3"/>
         <v>0.21970000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B139" s="9">
+      <c r="B155" s="9">
         <v>0.15701499999999999</v>
       </c>
-      <c r="E139" s="6">
+      <c r="E155" s="6">
         <f t="shared" si="3"/>
         <v>0.15701499999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B156" s="1">
         <v>9.826E-2</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C156" s="1">
         <v>17</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D156" s="1">
         <v>4.1100000000000003</v>
       </c>
-      <c r="E140" s="6">
-        <f t="shared" ref="E140:E187" si="4">B140+D140</f>
+      <c r="E156" s="6">
+        <f t="shared" ref="E156:E203" si="4">B156+D156</f>
         <v>4.2082600000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B141" s="9">
+      <c r="B157" s="9">
         <v>0.12698000000000001</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C157" s="1">
         <v>24.13</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D157" s="1">
         <v>15.47</v>
       </c>
-      <c r="E141" s="6">
+      <c r="E157" s="6">
         <f t="shared" si="4"/>
         <v>15.59698</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B158" s="1">
         <v>6.2850000000000003E-2</v>
       </c>
-      <c r="E142" s="6">
+      <c r="C158" s="1">
+        <v>34.72</v>
+      </c>
+      <c r="D158" s="1">
+        <v>19.12</v>
+      </c>
+      <c r="E158" s="6">
         <f t="shared" si="4"/>
-        <v>6.2850000000000003E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
+        <v>19.182850000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B143" s="9">
+      <c r="B159" s="9">
         <v>0.10321</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C159" s="1">
         <v>26.07</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D159" s="1">
         <v>12.37</v>
       </c>
-      <c r="E143" s="6">
+      <c r="E159" s="6">
         <f t="shared" si="4"/>
         <v>12.47321</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B160" s="1">
         <v>0.10732</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C160" s="1">
         <v>24.73</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D160" s="1">
         <v>14.55</v>
       </c>
-      <c r="E144" s="6">
+      <c r="E160" s="6">
         <f t="shared" si="4"/>
         <v>14.65732</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B145" s="9">
+      <c r="B161" s="9">
         <v>0.10077</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C161" s="1">
         <v>23.54</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D161" s="1">
         <f>17.51+6.95</f>
         <v>24.46</v>
       </c>
-      <c r="E145" s="6">
+      <c r="E161" s="6">
         <f t="shared" si="4"/>
         <v>24.560770000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B162" s="1">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E146" s="6">
+      <c r="C162" s="1">
+        <v>34.93</v>
+      </c>
+      <c r="D162" s="1">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="E162" s="6">
         <f t="shared" si="4"/>
-        <v>8.5599999999999996E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
+        <v>19.915599999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B147" s="9">
+      <c r="B163" s="9">
         <v>0.13514000000000001</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C163" s="1">
         <v>15.99</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D163" s="1">
         <v>6.64</v>
       </c>
-      <c r="E147" s="6">
+      <c r="E163" s="6">
         <f t="shared" si="4"/>
         <v>6.7751399999999995</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="8" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="8" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C165" s="1">
         <v>16.329999999999998</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D165" s="1">
         <v>13.69</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="8" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="8" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="8" t="s">
+      <c r="C167" s="1">
+        <v>35.78</v>
+      </c>
+      <c r="D167" s="1">
+        <v>18.13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="8" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="8" t="s">
+      <c r="C168" s="1">
+        <v>53.48</v>
+      </c>
+      <c r="D168" s="1">
+        <v>27.66</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C169" s="1">
         <v>22.48</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D169" s="1">
         <v>10.37</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="8" t="s">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C170" s="1">
         <v>37.299999999999997</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D170" s="1">
         <v>8.86</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="8" t="s">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="8" t="s">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="8" t="s">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="8" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C174" s="1">
         <v>40.869999999999997</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D174" s="1">
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="8" t="s">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="8" t="s">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C176" s="1">
         <v>25.6</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D176" s="1">
         <v>8.7889999999999997</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="8" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C177" s="1">
         <v>25.98</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D177" s="1">
         <v>16.59</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="8" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="8" t="s">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C179" s="1">
         <v>45.6</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D179" s="1">
         <v>13.58</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="3" t="s">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B180" s="1">
         <v>9.7339999999999996E-2</v>
       </c>
-      <c r="E164" s="6">
+      <c r="E180" s="6">
         <f t="shared" si="4"/>
         <v>9.7339999999999996E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="3" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B181" s="1">
         <v>0.11348</v>
       </c>
-      <c r="E165" s="6">
+      <c r="E181" s="6">
         <f t="shared" si="4"/>
         <v>0.11348</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B182" s="1">
         <v>7.4529999999999999E-2</v>
       </c>
-      <c r="E166" s="6">
+      <c r="E182" s="6">
         <f t="shared" si="4"/>
         <v>7.4529999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B183" s="1">
         <v>0.11441</v>
       </c>
-      <c r="E167" s="6">
+      <c r="E183" s="6">
         <f t="shared" si="4"/>
         <v>0.11441</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="3" t="s">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B184" s="1">
         <v>0.11364</v>
       </c>
-      <c r="E168" s="6">
+      <c r="E184" s="6">
         <f t="shared" si="4"/>
         <v>0.11364</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="3" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B185" s="1">
         <v>0.10153</v>
       </c>
-      <c r="E169" s="6">
+      <c r="E185" s="6">
         <f t="shared" si="4"/>
         <v>0.10153</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B186" s="1">
         <v>9.1689999999999994E-2</v>
       </c>
-      <c r="E170" s="6">
+      <c r="E186" s="6">
         <f t="shared" si="4"/>
         <v>9.1689999999999994E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="3" t="s">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B187" s="1">
         <v>0.1221</v>
       </c>
-      <c r="E171" s="6">
+      <c r="E187" s="6">
         <f t="shared" si="4"/>
         <v>0.1221</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="s">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B188" s="1">
         <v>0.14896999999999999</v>
       </c>
-      <c r="E172" s="6">
+      <c r="E188" s="6">
         <f t="shared" si="4"/>
         <v>0.14896999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="3" t="s">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B189" s="1">
         <v>8.6440000000000003E-2</v>
       </c>
-      <c r="E173" s="6">
+      <c r="E189" s="6">
         <f t="shared" si="4"/>
         <v>8.6440000000000003E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="3" t="s">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B190" s="1">
         <v>0.14696000000000001</v>
       </c>
-      <c r="E174" s="6">
+      <c r="E190" s="6">
         <f t="shared" si="4"/>
         <v>0.14696000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="3" t="s">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B191" s="1">
         <v>0.11192000000000001</v>
       </c>
-      <c r="E175" s="6">
+      <c r="E191" s="6">
         <f t="shared" si="4"/>
         <v>0.11192000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="3" t="s">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B192" s="1">
         <v>0.11283</v>
       </c>
-      <c r="E176" s="6">
+      <c r="E192" s="6">
         <f t="shared" si="4"/>
         <v>0.11283</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B193" s="1">
         <v>0.114523</v>
       </c>
-      <c r="E177" s="6">
+      <c r="E193" s="6">
         <f t="shared" si="4"/>
         <v>0.114523</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B194" s="1">
         <v>0.10299999999999999</v>
       </c>
-      <c r="E178" s="6">
+      <c r="E194" s="6">
         <f t="shared" si="4"/>
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="3" t="s">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B195" s="1">
         <v>0.10724</v>
       </c>
-      <c r="E179" s="6">
+      <c r="E195" s="6">
         <f t="shared" si="4"/>
         <v>0.10724</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="3" t="s">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B196" s="1">
         <v>8.9440000000000006E-2</v>
       </c>
-      <c r="E180" s="6">
+      <c r="E196" s="6">
         <f t="shared" si="4"/>
         <v>8.9440000000000006E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C197" s="1">
         <v>10.477</v>
       </c>
-      <c r="D181" s="1">
+      <c r="D197" s="1">
         <v>6.5220000000000002</v>
       </c>
-      <c r="E181" s="6">
+      <c r="E197" s="6">
         <f t="shared" si="4"/>
         <v>6.5220000000000002</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="3" t="s">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B198" s="1">
         <v>4.2770000000000002E-2</v>
       </c>
-      <c r="E182" s="6">
+      <c r="C198" s="1">
+        <v>7.95</v>
+      </c>
+      <c r="D198" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="E198" s="6">
         <f t="shared" si="4"/>
-        <v>4.2770000000000002E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="4" t="s">
+        <v>2.2127699999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E183" s="6">
+      <c r="E199" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="s">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B200" s="3">
         <v>0</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C200" s="1">
         <v>3.21</v>
       </c>
-      <c r="D184" s="1">
+      <c r="D200" s="1">
         <v>4.0970000000000004</v>
       </c>
-      <c r="E184" s="6">
+      <c r="E200" s="6">
         <f t="shared" si="4"/>
         <v>4.0970000000000004</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="4" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E185" s="6">
+      <c r="C201" s="1">
+        <v>13.07</v>
+      </c>
+      <c r="D201" s="1">
+        <v>6.79</v>
+      </c>
+      <c r="E201" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="3" t="s">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B202" s="1">
         <v>6.2140000000000001E-2</v>
       </c>
-      <c r="E186" s="6">
+      <c r="E202" s="6">
         <f t="shared" si="4"/>
         <v>6.2140000000000001E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="4" t="s">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C187" s="1">
+      <c r="C203" s="1">
         <v>3.47</v>
       </c>
-      <c r="D187" s="1">
+      <c r="D203" s="1">
         <v>3.306</v>
       </c>
-      <c r="E187" s="6">
+      <c r="E203" s="6">
         <f t="shared" si="4"/>
         <v>3.306</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="3" t="s">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B204" s="1">
         <v>3.8440000000000002E-2</v>
       </c>
-      <c r="C188" s="1">
+      <c r="C204" s="1">
         <v>5.375</v>
       </c>
-      <c r="D188" s="1">
+      <c r="D204" s="1">
         <v>1.831</v>
       </c>
-      <c r="E188" s="6">
-        <f t="shared" ref="E188:E189" si="5">B188+D188</f>
+      <c r="E204" s="6">
+        <f t="shared" ref="E204:E205" si="5">B204+D204</f>
         <v>1.86944</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="3" t="s">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B205" s="1">
         <v>6.8339999999999998E-2</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C205" s="1">
         <v>8.2449999999999992</v>
       </c>
-      <c r="D189" s="1">
+      <c r="D205" s="1">
         <v>3.0609999999999999</v>
       </c>
-      <c r="E189" s="6">
+      <c r="E205" s="6">
         <f t="shared" si="5"/>
         <v>3.12934</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="7" t="s">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C206" s="1">
         <v>5.4260000000000002</v>
       </c>
-      <c r="D190" s="1">
+      <c r="D206" s="1">
         <v>3.8471500000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="4" t="s">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E191" s="6">
-        <f>B191+D191</f>
+      <c r="C207" s="1">
+        <v>12.65</v>
+      </c>
+      <c r="D207" s="1">
+        <v>10.19</v>
+      </c>
+      <c r="E207" s="6">
+        <f>B207+D207</f>
+        <v>10.19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B208" s="1">
+        <v>6.3759999999999997E-2</v>
+      </c>
+      <c r="C208" s="1">
+        <v>17.46</v>
+      </c>
+      <c r="D208" s="1">
+        <v>9.7089999999999996</v>
+      </c>
+      <c r="E208" s="6">
+        <f>B208+D208</f>
+        <v>9.7727599999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E209" s="6">
+        <f>B209+D209</f>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B192" s="1">
-        <v>6.3759999999999997E-2</v>
-      </c>
-      <c r="C192" s="1">
-        <v>17.46</v>
-      </c>
-      <c r="D192" s="1">
-        <v>9.7089999999999996</v>
-      </c>
-      <c r="E192" s="6">
-        <f>B192+D192</f>
-        <v>9.7727599999999999</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E193" s="6">
-        <f>B193+D193</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="7" t="s">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C194" s="1">
+      <c r="C210" s="1">
         <v>11.588010000000001</v>
       </c>
-      <c r="D194" s="1">
+      <c r="D210" s="1">
         <v>7.3784799999999997</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="3" t="s">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B211" s="1">
         <v>6.6970000000000002E-2</v>
       </c>
-      <c r="C195" s="1">
+      <c r="C211" s="1">
         <v>15.71</v>
       </c>
-      <c r="D195" s="1">
+      <c r="D211" s="1">
         <v>6.0713499999999998</v>
       </c>
-      <c r="E195" s="6">
-        <f t="shared" ref="E195:E258" si="6">B195+D195</f>
+      <c r="E211" s="6">
+        <f t="shared" ref="E211:E273" si="6">B211+D211</f>
         <v>6.1383200000000002</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="4" t="s">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C196" s="1">
+      <c r="C212" s="1">
         <v>10.210000000000001</v>
       </c>
-      <c r="D196" s="1">
+      <c r="D212" s="1">
         <v>8.2289999999999992</v>
       </c>
-      <c r="E196" s="6">
+      <c r="E212" s="6">
         <f t="shared" si="6"/>
         <v>8.2289999999999992</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E197" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B198" s="1">
-        <v>5.3719999999999997E-2</v>
-      </c>
-      <c r="E198" s="6">
-        <f t="shared" si="6"/>
-        <v>5.3719999999999997E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C199" s="1">
-        <v>7.5597799999999999</v>
-      </c>
-      <c r="D199" s="1">
-        <v>4.2313200000000002</v>
-      </c>
-      <c r="E199" s="6">
-        <f t="shared" si="6"/>
-        <v>4.2313200000000002</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B200" s="3">
-        <v>0</v>
-      </c>
-      <c r="E200" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E201" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B202" s="1">
-        <v>4.9099999999999998E-2</v>
-      </c>
-      <c r="E202" s="6">
-        <f t="shared" si="6"/>
-        <v>4.9099999999999998E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E203" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B204" s="1">
-        <v>4.1309999999999999E-2</v>
-      </c>
-      <c r="E204" s="6">
-        <f t="shared" si="6"/>
-        <v>4.1309999999999999E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E205" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B206" s="1">
-        <v>2.5819999999999999E-2</v>
-      </c>
-      <c r="C206" s="1">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="D206" s="1">
-        <v>4.1459999999999999</v>
-      </c>
-      <c r="E206" s="6">
-        <f t="shared" si="6"/>
-        <v>4.1718200000000003</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E207" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B208" s="1">
-        <v>7.7539999999999998E-2</v>
-      </c>
-      <c r="C208" s="1">
-        <v>9.82</v>
-      </c>
-      <c r="D208" s="1">
-        <v>5.9350699999999996</v>
-      </c>
-      <c r="E208" s="6">
-        <f t="shared" si="6"/>
-        <v>6.0126099999999996</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E209" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B210" s="1">
-        <v>2.2429999999999999E-2</v>
-      </c>
-      <c r="E210" s="6">
-        <f t="shared" si="6"/>
-        <v>2.2429999999999999E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C211" s="1">
-        <v>8.92</v>
-      </c>
-      <c r="D211" s="1">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="E211" s="6">
-        <f t="shared" si="6"/>
-        <v>8.5399999999999991</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B212" s="1">
-        <v>4.1459999999999997E-2</v>
-      </c>
-      <c r="E212" s="6">
-        <f t="shared" si="6"/>
-        <v>4.1459999999999997E-2</v>
-      </c>
-    </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E213" s="6">
         <f t="shared" si="6"/>
@@ -3968,518 +3991,729 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="8" t="s">
-        <v>198</v>
+      <c r="A214" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B214" s="1">
+        <v>5.3719999999999997E-2</v>
+      </c>
+      <c r="C214" s="1">
+        <v>10.95</v>
+      </c>
+      <c r="D214" s="1">
+        <v>6.76</v>
+      </c>
+      <c r="E214" s="6">
+        <f t="shared" si="6"/>
+        <v>6.81372</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="8" t="s">
+      <c r="A215" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C215" s="1">
+        <v>7.5597799999999999</v>
+      </c>
+      <c r="D215" s="1">
+        <v>4.2313200000000002</v>
+      </c>
+      <c r="E215" s="6">
+        <f t="shared" si="6"/>
+        <v>4.2313200000000002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B216" s="3">
+        <v>0</v>
+      </c>
+      <c r="E216" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E217" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B218" s="1">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="E218" s="6">
+        <f t="shared" si="6"/>
+        <v>4.9099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C219" s="1">
+        <v>11.75</v>
+      </c>
+      <c r="D219" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="E219" s="6">
+        <f t="shared" si="6"/>
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B220" s="1">
+        <v>4.1309999999999999E-2</v>
+      </c>
+      <c r="E220" s="6">
+        <f t="shared" si="6"/>
+        <v>4.1309999999999999E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E221" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B222" s="1">
+        <v>2.5819999999999999E-2</v>
+      </c>
+      <c r="C222" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="D222" s="1">
+        <v>4.1459999999999999</v>
+      </c>
+      <c r="E222" s="6">
+        <f t="shared" si="6"/>
+        <v>4.1718200000000003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E223" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B224" s="1">
+        <v>7.7539999999999998E-2</v>
+      </c>
+      <c r="C224" s="1">
+        <v>9.82</v>
+      </c>
+      <c r="D224" s="1">
+        <v>5.9350699999999996</v>
+      </c>
+      <c r="E224" s="6">
+        <f t="shared" si="6"/>
+        <v>6.0126099999999996</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E225" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B226" s="1">
+        <v>2.2429999999999999E-2</v>
+      </c>
+      <c r="E226" s="6">
+        <f t="shared" si="6"/>
+        <v>2.2429999999999999E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C227" s="1">
+        <v>8.92</v>
+      </c>
+      <c r="D227" s="1">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="E227" s="6">
+        <f t="shared" si="6"/>
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B228" s="1">
+        <v>4.1459999999999997E-2</v>
+      </c>
+      <c r="E228" s="6">
+        <f t="shared" si="6"/>
+        <v>4.1459999999999997E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E229" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="8" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="8" t="s">
+      <c r="C230" s="1">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="D230" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="8" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="8" t="s">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="8" t="s">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="8" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="8" t="s">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C219" s="1">
+      <c r="C234" s="1">
         <v>2.65</v>
       </c>
-      <c r="D219" s="1">
+      <c r="D234" s="1">
         <v>2.77</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="8" t="s">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="8" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="8" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="8" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="8" t="s">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="8" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="8" t="s">
+      <c r="C238" s="1">
+        <v>13.18</v>
+      </c>
+      <c r="D238" s="1">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="8" t="s">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="8" t="s">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="8" t="s">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="8" t="s">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="8" t="s">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="8" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" s="2" t="s">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B230" s="1">
+      <c r="B245" s="1">
         <v>0.4834</v>
       </c>
-      <c r="E230" s="6">
+      <c r="E245" s="6">
         <f t="shared" si="6"/>
         <v>0.4834</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="2" t="s">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B231" s="1">
+      <c r="B246" s="1">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="C231" s="2"/>
-      <c r="E231" s="6">
+      <c r="C246" s="2"/>
+      <c r="E246" s="6">
         <f t="shared" si="6"/>
         <v>3.3399999999999999E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" s="2" t="s">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B232" s="1">
+      <c r="B247" s="1">
         <v>9.5170000000000005E-2</v>
       </c>
-      <c r="E232" s="6">
+      <c r="E247" s="6">
         <f t="shared" si="6"/>
         <v>9.5170000000000005E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="2" t="s">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B233" s="1">
+      <c r="B248" s="1">
         <v>7.3599999999999999E-2</v>
       </c>
-      <c r="E233" s="6">
+      <c r="E248" s="6">
         <f t="shared" si="6"/>
         <v>7.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" s="2" t="s">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B234" s="1">
+      <c r="B249" s="1">
         <v>0.17377999999999999</v>
       </c>
-      <c r="E234" s="6">
+      <c r="E249" s="6">
         <f t="shared" si="6"/>
         <v>0.17377999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" s="2" t="s">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B235" s="1">
+      <c r="B250" s="1">
         <v>4.02E-2</v>
       </c>
-      <c r="C235" s="2"/>
-      <c r="E235" s="6">
+      <c r="C250" s="2"/>
+      <c r="E250" s="6">
         <f t="shared" si="6"/>
         <v>4.02E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="2" t="s">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B236" s="1">
+      <c r="B251" s="1">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="E236" s="6">
+      <c r="E251" s="6">
         <f t="shared" si="6"/>
         <v>6.0100000000000001E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" s="2" t="s">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B237" s="1">
+      <c r="B252" s="1">
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="C237" s="2"/>
-      <c r="E237" s="6">
+      <c r="C252" s="2"/>
+      <c r="E252" s="6">
         <f t="shared" si="6"/>
         <v>2.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="2" t="s">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B238" s="1">
+      <c r="B253" s="1">
         <v>8.9099999999999999E-2</v>
       </c>
-      <c r="E238" s="6">
+      <c r="E253" s="6">
         <f t="shared" si="6"/>
         <v>8.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="2" t="s">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B239" s="1">
+      <c r="B254" s="1">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="E239" s="6">
+      <c r="E254" s="6">
         <f t="shared" si="6"/>
         <v>8.4099999999999994E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="2" t="s">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B240" s="1">
+      <c r="B255" s="1">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="E240" s="6">
+      <c r="E255" s="6">
         <f t="shared" si="6"/>
         <v>6.9699999999999998E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="2" t="s">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B241" s="1">
+      <c r="B256" s="1">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="C241" s="2"/>
-      <c r="E241" s="6">
+      <c r="C256" s="2"/>
+      <c r="E256" s="6">
         <f t="shared" si="6"/>
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="2" t="s">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B242" s="1">
+      <c r="B257" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C242" s="2"/>
-      <c r="E242" s="6">
+      <c r="C257" s="2"/>
+      <c r="E257" s="6">
         <f t="shared" si="6"/>
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="2" t="s">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B243" s="1">
+      <c r="B258" s="1">
         <v>0.47</v>
       </c>
-      <c r="C243" s="2"/>
-      <c r="E243" s="6">
+      <c r="C258" s="2"/>
+      <c r="E258" s="6">
         <f t="shared" si="6"/>
         <v>0.47</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="2" t="s">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B259" s="2">
         <v>0</v>
       </c>
-      <c r="E244" s="6">
+      <c r="E259" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="2" t="s">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B245" s="1">
+      <c r="B260" s="1">
         <v>0.44400000000000001</v>
       </c>
-      <c r="C245" s="2"/>
-      <c r="E245" s="6">
+      <c r="C260" s="2"/>
+      <c r="E260" s="6">
         <f t="shared" si="6"/>
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B246" s="9">
-        <v>0.10641</v>
-      </c>
-      <c r="C246" s="9"/>
-      <c r="D246" s="9"/>
-      <c r="E246" s="9">
-        <f t="shared" si="6"/>
-        <v>0.10641</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B247" s="9">
-        <v>7.8030000000000002E-2</v>
-      </c>
-      <c r="C247" s="9"/>
-      <c r="D247" s="9"/>
-      <c r="E247" s="9">
-        <f t="shared" si="6"/>
-        <v>7.8030000000000002E-2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B248" s="9">
-        <v>9.3590000000000007E-2</v>
-      </c>
-      <c r="C248" s="9"/>
-      <c r="D248" s="9"/>
-      <c r="E248" s="9">
-        <f t="shared" si="6"/>
-        <v>9.3590000000000007E-2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B249" s="9">
-        <v>0.21626999999999999</v>
-      </c>
-      <c r="C249" s="9"/>
-      <c r="D249" s="9"/>
-      <c r="E249" s="9">
-        <f t="shared" si="6"/>
-        <v>0.21626999999999999</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="B250" s="9">
-        <v>0.126</v>
-      </c>
-      <c r="C250" s="9"/>
-      <c r="D250" s="9"/>
-      <c r="E250" s="9">
-        <f t="shared" si="6"/>
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B251" s="9">
-        <v>0.10925</v>
-      </c>
-      <c r="C251" s="9"/>
-      <c r="D251" s="9"/>
-      <c r="E251" s="9">
-        <f t="shared" si="6"/>
-        <v>0.10925</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B252" s="9">
-        <v>0.10424</v>
-      </c>
-      <c r="C252" s="9"/>
-      <c r="D252" s="9"/>
-      <c r="E252" s="9">
-        <f t="shared" si="6"/>
-        <v>0.10424</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B253" s="9">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="C253" s="9"/>
-      <c r="D253" s="9"/>
-      <c r="E253" s="9">
-        <f t="shared" si="6"/>
-        <v>7.9399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B254" s="9">
-        <v>6.9059999999999996E-2</v>
-      </c>
-      <c r="C254" s="9"/>
-      <c r="D254" s="9"/>
-      <c r="E254" s="9">
-        <f t="shared" si="6"/>
-        <v>6.9059999999999996E-2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B255" s="9">
-        <v>6.4740000000000006E-2</v>
-      </c>
-      <c r="C255" s="9"/>
-      <c r="D255" s="9"/>
-      <c r="E255" s="9">
-        <f t="shared" si="6"/>
-        <v>6.4740000000000006E-2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A256" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B256" s="9">
-        <v>7.6980000000000007E-2</v>
-      </c>
-      <c r="C256" s="9"/>
-      <c r="D256" s="9"/>
-      <c r="E256" s="9">
-        <f t="shared" si="6"/>
-        <v>7.6980000000000007E-2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A257" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B257" s="9">
-        <v>6.3079999999999997E-2</v>
-      </c>
-      <c r="C257" s="9"/>
-      <c r="D257" s="9"/>
-      <c r="E257" s="9">
-        <f t="shared" si="6"/>
-        <v>6.3079999999999997E-2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A258" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B258" s="9">
-        <v>6.6589999999999996E-2</v>
-      </c>
-      <c r="C258" s="9"/>
-      <c r="D258" s="9"/>
-      <c r="E258" s="9">
-        <f t="shared" si="6"/>
-        <v>6.6589999999999996E-2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B259" s="9">
-        <v>0.10922999999999999</v>
-      </c>
-      <c r="C259" s="9"/>
-      <c r="D259" s="9"/>
-      <c r="E259" s="9">
-        <f t="shared" ref="E259:E261" si="7">B259+D259</f>
-        <v>0.10922999999999999</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A260" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B260" s="9">
-        <v>5.4550000000000001E-2</v>
-      </c>
-      <c r="C260" s="9"/>
-      <c r="D260" s="9"/>
-      <c r="E260" s="9">
-        <f t="shared" si="7"/>
-        <v>5.4550000000000001E-2</v>
-      </c>
-    </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="9" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B261" s="9">
-        <v>7.7310000000000004E-2</v>
+        <v>0.10641</v>
       </c>
       <c r="C261" s="9"/>
       <c r="D261" s="9"/>
       <c r="E261" s="9">
+        <f t="shared" si="6"/>
+        <v>0.10641</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B262" s="9">
+        <v>7.8030000000000002E-2</v>
+      </c>
+      <c r="C262" s="9"/>
+      <c r="D262" s="9"/>
+      <c r="E262" s="9">
+        <f t="shared" si="6"/>
+        <v>7.8030000000000002E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B263" s="9">
+        <v>9.3590000000000007E-2</v>
+      </c>
+      <c r="C263" s="9"/>
+      <c r="D263" s="9"/>
+      <c r="E263" s="9">
+        <f t="shared" si="6"/>
+        <v>9.3590000000000007E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B264" s="9">
+        <v>0.21626999999999999</v>
+      </c>
+      <c r="C264" s="9"/>
+      <c r="D264" s="9"/>
+      <c r="E264" s="9">
+        <f t="shared" si="6"/>
+        <v>0.21626999999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B265" s="9">
+        <v>0.126</v>
+      </c>
+      <c r="C265" s="9"/>
+      <c r="D265" s="9"/>
+      <c r="E265" s="9">
+        <f t="shared" si="6"/>
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B266" s="9">
+        <v>0.10925</v>
+      </c>
+      <c r="C266" s="9"/>
+      <c r="D266" s="9"/>
+      <c r="E266" s="9">
+        <f t="shared" si="6"/>
+        <v>0.10925</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B267" s="9">
+        <v>0.10424</v>
+      </c>
+      <c r="C267" s="9"/>
+      <c r="D267" s="9"/>
+      <c r="E267" s="9">
+        <f t="shared" si="6"/>
+        <v>0.10424</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B268" s="9">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="C268" s="9"/>
+      <c r="D268" s="9"/>
+      <c r="E268" s="9">
+        <f t="shared" si="6"/>
+        <v>7.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B269" s="9">
+        <v>6.9059999999999996E-2</v>
+      </c>
+      <c r="C269" s="9"/>
+      <c r="D269" s="9"/>
+      <c r="E269" s="9">
+        <f t="shared" si="6"/>
+        <v>6.9059999999999996E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B270" s="9">
+        <v>6.4740000000000006E-2</v>
+      </c>
+      <c r="C270" s="9"/>
+      <c r="D270" s="9"/>
+      <c r="E270" s="9">
+        <f t="shared" si="6"/>
+        <v>6.4740000000000006E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B271" s="9">
+        <v>7.6980000000000007E-2</v>
+      </c>
+      <c r="C271" s="9"/>
+      <c r="D271" s="9"/>
+      <c r="E271" s="9">
+        <f t="shared" si="6"/>
+        <v>7.6980000000000007E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B272" s="9">
+        <v>6.3079999999999997E-2</v>
+      </c>
+      <c r="C272" s="9"/>
+      <c r="D272" s="9"/>
+      <c r="E272" s="9">
+        <f t="shared" si="6"/>
+        <v>6.3079999999999997E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B273" s="9">
+        <v>6.6589999999999996E-2</v>
+      </c>
+      <c r="C273" s="9"/>
+      <c r="D273" s="9"/>
+      <c r="E273" s="9">
+        <f t="shared" si="6"/>
+        <v>6.6589999999999996E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B274" s="9">
+        <v>0.10922999999999999</v>
+      </c>
+      <c r="C274" s="9"/>
+      <c r="D274" s="9"/>
+      <c r="E274" s="9">
+        <f t="shared" ref="E274:E276" si="7">B274+D274</f>
+        <v>0.10922999999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B275" s="9">
+        <v>5.4550000000000001E-2</v>
+      </c>
+      <c r="C275" s="9"/>
+      <c r="D275" s="9"/>
+      <c r="E275" s="9">
+        <f t="shared" si="7"/>
+        <v>5.4550000000000001E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B276" s="9">
+        <v>7.7310000000000004E-2</v>
+      </c>
+      <c r="C276" s="9"/>
+      <c r="D276" s="9"/>
+      <c r="E276" s="9">
         <f t="shared" si="7"/>
         <v>7.7310000000000004E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1">
-    <sortState ref="A2:F241">
-      <sortCondition ref="A1:A241"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F256">
+      <sortCondition ref="A1:A256"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/biomass.xlsx
+++ b/data/biomass.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CatherineChamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E131C42B-BCE0-0748-8C6B-48BB73A16BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="460" windowWidth="22720" windowHeight="13440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="460" windowWidth="22720" windowHeight="13440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +17,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,15 +31,12 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="294">
   <si>
     <t>individual</t>
   </si>
@@ -871,18 +870,73 @@
   </si>
   <si>
     <t>BETPAP_168</t>
+  </si>
+  <si>
+    <t>VIBDEN_18</t>
+  </si>
+  <si>
+    <t>VIBDEN_28</t>
+  </si>
+  <si>
+    <t>VIBDEN_38</t>
+  </si>
+  <si>
+    <t>VIBDEN_48</t>
+  </si>
+  <si>
+    <t>VIBDEN_58</t>
+  </si>
+  <si>
+    <t>VIBDEN_68</t>
+  </si>
+  <si>
+    <t>VIBDEN_78</t>
+  </si>
+  <si>
+    <t>VIBDEN_88</t>
+  </si>
+  <si>
+    <t>VIBDEN_98</t>
+  </si>
+  <si>
+    <t>VIBDEN_108</t>
+  </si>
+  <si>
+    <t>VIBDEN_118</t>
+  </si>
+  <si>
+    <t>VIBDEN_128</t>
+  </si>
+  <si>
+    <t>VIBDEN_138</t>
+  </si>
+  <si>
+    <t>VIBDEN_148</t>
+  </si>
+  <si>
+    <t>VIBDEN_158</t>
+  </si>
+  <si>
+    <t>VIBDEN_168</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -987,11 +1041,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1342,14 +1397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F276"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B218" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B268" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G232" sqref="G232"/>
+      <selection pane="bottomRight" activeCell="A293" sqref="A293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1488,9 +1543,15 @@
       <c r="B10" s="1">
         <v>0.33112000000000003</v>
       </c>
+      <c r="C10" s="1">
+        <v>38.86</v>
+      </c>
+      <c r="D10" s="1">
+        <v>14.6</v>
+      </c>
       <c r="E10" s="6">
         <f t="shared" si="0"/>
-        <v>0.33112000000000003</v>
+        <v>14.93112</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1542,9 +1603,15 @@
       <c r="B14" s="1">
         <v>0.28299999999999997</v>
       </c>
+      <c r="C14" s="1">
+        <v>48.509</v>
+      </c>
+      <c r="D14" s="1">
+        <v>24.527999999999999</v>
+      </c>
       <c r="E14" s="6">
         <f t="shared" si="0"/>
-        <v>0.28299999999999997</v>
+        <v>24.811</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1946,9 +2013,15 @@
       <c r="B55" s="1">
         <v>0.1202</v>
       </c>
+      <c r="C55" s="1">
+        <v>33.090000000000003</v>
+      </c>
+      <c r="D55" s="1">
+        <v>19.29</v>
+      </c>
       <c r="E55" s="6">
         <f t="shared" si="1"/>
-        <v>0.1202</v>
+        <v>19.4102</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2018,9 +2091,15 @@
       <c r="B60" s="1">
         <v>0.1236</v>
       </c>
+      <c r="C60" s="1">
+        <v>29.155999999999999</v>
+      </c>
+      <c r="D60" s="1">
+        <v>22.49</v>
+      </c>
       <c r="E60" s="6">
         <f t="shared" si="1"/>
-        <v>0.1236</v>
+        <v>22.613599999999998</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2088,9 +2167,15 @@
       <c r="B65" s="1">
         <v>9.5680000000000001E-2</v>
       </c>
+      <c r="C65" s="1">
+        <v>21.35</v>
+      </c>
+      <c r="D65" s="1">
+        <v>15.845000000000001</v>
+      </c>
       <c r="E65" s="6">
         <f t="shared" si="1"/>
-        <v>9.5680000000000001E-2</v>
+        <v>15.94068</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2932,9 +3017,15 @@
       <c r="B134" s="1">
         <v>0.15595999999999999</v>
       </c>
+      <c r="C134" s="1">
+        <v>48.16</v>
+      </c>
+      <c r="D134" s="1">
+        <v>20.34</v>
+      </c>
       <c r="E134" s="6">
         <f t="shared" si="3"/>
-        <v>0.15595999999999999</v>
+        <v>20.49596</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -3156,9 +3247,15 @@
         <f>0.05+0.021</f>
         <v>7.1000000000000008E-2</v>
       </c>
+      <c r="C148" s="1">
+        <v>33.770000000000003</v>
+      </c>
+      <c r="D148" s="1">
+        <v>13.007999999999999</v>
+      </c>
       <c r="E148" s="6">
         <f t="shared" si="3"/>
-        <v>7.1000000000000008E-2</v>
+        <v>13.078999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -3246,9 +3343,15 @@
       <c r="B154" s="1">
         <v>0.21970000000000001</v>
       </c>
+      <c r="C154" s="1">
+        <v>23.550999999999998</v>
+      </c>
+      <c r="D154" s="1">
+        <v>14.829000000000001</v>
+      </c>
       <c r="E154" s="6">
         <f t="shared" si="3"/>
-        <v>0.21970000000000001</v>
+        <v>15.0487</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -3258,9 +3361,15 @@
       <c r="B155" s="9">
         <v>0.15701499999999999</v>
       </c>
+      <c r="C155" s="1">
+        <v>30.55</v>
+      </c>
+      <c r="D155" s="1">
+        <v>10.82</v>
+      </c>
       <c r="E155" s="6">
         <f t="shared" si="3"/>
-        <v>0.15701499999999999</v>
+        <v>10.977015</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -3412,6 +3521,12 @@
       <c r="A164" s="8" t="s">
         <v>218</v>
       </c>
+      <c r="C164" s="1">
+        <v>65.28</v>
+      </c>
+      <c r="D164" s="1">
+        <v>12.84</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
@@ -3428,6 +3543,12 @@
       <c r="A166" s="8" t="s">
         <v>220</v>
       </c>
+      <c r="C166" s="1">
+        <v>37.597999999999999</v>
+      </c>
+      <c r="D166" s="1">
+        <v>10.564</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
@@ -3477,6 +3598,12 @@
       <c r="A171" s="8" t="s">
         <v>225</v>
       </c>
+      <c r="C171" s="1">
+        <v>37.643000000000001</v>
+      </c>
+      <c r="D171" s="1">
+        <v>17.609000000000002</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
@@ -3487,6 +3614,12 @@
       <c r="A173" s="8" t="s">
         <v>227</v>
       </c>
+      <c r="C173" s="1">
+        <v>26.699000000000002</v>
+      </c>
+      <c r="D173" s="1">
+        <v>13.4</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
@@ -3503,6 +3636,12 @@
       <c r="A175" s="8" t="s">
         <v>229</v>
       </c>
+      <c r="C175" s="1">
+        <v>46.784999999999997</v>
+      </c>
+      <c r="D175" s="1">
+        <v>16.489999999999998</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
@@ -3932,9 +4071,15 @@
       <c r="A209" s="4" t="s">
         <v>176</v>
       </c>
+      <c r="C209" s="1">
+        <v>15.542</v>
+      </c>
+      <c r="D209" s="1">
+        <v>5.9939999999999998</v>
+      </c>
       <c r="E209" s="6">
         <f>B209+D209</f>
-        <v>0</v>
+        <v>5.9939999999999998</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -4051,9 +4196,15 @@
       <c r="B218" s="1">
         <v>4.9099999999999998E-2</v>
       </c>
+      <c r="C218" s="1">
+        <v>11.49</v>
+      </c>
+      <c r="D218" s="1">
+        <v>4.2960000000000003</v>
+      </c>
       <c r="E218" s="6">
         <f t="shared" si="6"/>
-        <v>4.9099999999999998E-2</v>
+        <v>4.3451000000000004</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -4078,9 +4229,15 @@
       <c r="B220" s="1">
         <v>4.1309999999999999E-2</v>
       </c>
+      <c r="C220" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="D220" s="1">
+        <v>4.0170000000000003</v>
+      </c>
       <c r="E220" s="6">
         <f t="shared" si="6"/>
-        <v>4.1309999999999999E-2</v>
+        <v>4.0583100000000005</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -4114,9 +4271,15 @@
       <c r="A223" s="4" t="s">
         <v>167</v>
       </c>
+      <c r="C223" s="1">
+        <v>19.16</v>
+      </c>
+      <c r="D223" s="1">
+        <v>7.24</v>
+      </c>
       <c r="E223" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -4141,9 +4304,15 @@
       <c r="A225" s="4" t="s">
         <v>168</v>
       </c>
+      <c r="C225" s="1">
+        <v>15.67</v>
+      </c>
+      <c r="D225" s="1">
+        <v>6.5919999999999996</v>
+      </c>
       <c r="E225" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.5919999999999996</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -4209,16 +4378,34 @@
       <c r="A231" s="8" t="s">
         <v>235</v>
       </c>
+      <c r="C231" s="1">
+        <v>14.965999999999999</v>
+      </c>
+      <c r="D231" s="1">
+        <v>4.78</v>
+      </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
         <v>236</v>
       </c>
+      <c r="C232" s="1">
+        <v>9.8849999999999998</v>
+      </c>
+      <c r="D232" s="1">
+        <v>3.2719999999999998</v>
+      </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="8" t="s">
         <v>237</v>
       </c>
+      <c r="C233" s="1">
+        <v>12.821</v>
+      </c>
+      <c r="D233" s="1">
+        <v>5.681</v>
+      </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
@@ -4235,11 +4422,23 @@
       <c r="A235" s="8" t="s">
         <v>239</v>
       </c>
+      <c r="C235" s="1">
+        <v>15.265000000000001</v>
+      </c>
+      <c r="D235" s="1">
+        <v>7.6879999999999997</v>
+      </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
         <v>240</v>
       </c>
+      <c r="C236" s="1">
+        <v>18.77</v>
+      </c>
+      <c r="D236" s="1">
+        <v>7.0570000000000004</v>
+      </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
@@ -4266,11 +4465,23 @@
       <c r="A240" s="8" t="s">
         <v>244</v>
       </c>
+      <c r="C240" s="1">
+        <v>20.7</v>
+      </c>
+      <c r="D240" s="1">
+        <v>5.7640000000000002</v>
+      </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="s">
         <v>245</v>
       </c>
+      <c r="C241" s="1">
+        <v>25.579000000000001</v>
+      </c>
+      <c r="D241" s="1">
+        <v>8.5359999999999996</v>
+      </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
@@ -4285,6 +4496,12 @@
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
         <v>247</v>
+      </c>
+      <c r="C244" s="1">
+        <v>16.145</v>
+      </c>
+      <c r="D244" s="1">
+        <v>8.0950000000000006</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -4331,9 +4548,15 @@
       <c r="B248" s="1">
         <v>7.3599999999999999E-2</v>
       </c>
+      <c r="C248" s="1">
+        <v>15.541399999999999</v>
+      </c>
+      <c r="D248" s="1">
+        <v>12.74</v>
+      </c>
       <c r="E248" s="6">
         <f t="shared" si="6"/>
-        <v>7.3599999999999999E-2</v>
+        <v>12.813600000000001</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -4710,9 +4933,89 @@
         <v>7.7310000000000004E-2</v>
       </c>
     </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F256">
+  <autoFilter ref="A1:F1">
+    <sortState ref="A2:F256">
       <sortCondition ref="A1:A256"/>
     </sortState>
   </autoFilter>
